--- a/Pasajeros_Total_N_Aero.xlsx
+++ b/Pasajeros_Total_N_Aero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C65B21C9-B9D1-4200-9455-706CCA63CA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD32A379-0A01-4713-A22D-365191A9188F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.2" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
-  <si>
     <t>Internacional</t>
   </si>
   <si>
     <t>Nacional</t>
-  </si>
-  <si>
-    <t>Periodo</t>
   </si>
   <si>
     <t>Total</t>
@@ -63,6 +54,15 @@
   </si>
   <si>
     <t>Pasajeros</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Actualización: agosto 2024.</t>
   </si>
 </sst>
 </file>
@@ -272,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -289,46 +289,24 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -338,18 +316,39 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -370,8 +369,21 @@
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -381,13 +393,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -417,7 +422,7 @@
           <bgColor theme="7"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -443,21 +448,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:E82" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B5:E82" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F85" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+        <filter val="2023"/>
+        <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Periodo" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="2">
-      <calculatedColumnFormula>SUM(D6:E6)</calculatedColumnFormula>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{09C724ED-6D33-4E09-AC32-69B120D7D3F0}" name="Mes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="1">
+      <calculatedColumnFormula>SUM(E6:F6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Nacional" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Internacional" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Nacional" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Internacional" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -686,1224 +693,1514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:E85"/>
+  <dimension ref="B2:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="11.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.796875" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="18"/>
-      <c r="C4" s="26" t="s">
+      <c r="C5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="21">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="22">
         <v>8</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="19" t="s">
+      <c r="D6" s="9">
+        <f t="shared" ref="D6:D40" si="0">SUM(E6:F6)</f>
+        <v>10075357</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5593320</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4482037</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="23">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="24">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:D9" si="1">SUM(E7:F7)</f>
+        <v>10786450</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5691596</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5094854</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="21">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="22">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="1"/>
+        <v>9831803</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5134740</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4697063</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="23">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="24">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
+        <v>9757605</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5236375</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4521230</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="21">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="22">
         <v>4</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>9749542</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4981231</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4768311</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="23">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="24">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>10539528</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4863183</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5676345</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="21">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="22">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>9334763</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4391152</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4943611</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="25">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>10153993</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4807949</v>
+      </c>
+      <c r="F13" s="6">
+        <v>5346044</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="27">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="28">
+        <v>12</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="0"/>
+        <v>10829188</v>
+      </c>
+      <c r="E14" s="13">
+        <v>5415680</v>
+      </c>
+      <c r="F14" s="14">
+        <v>5413508</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="23">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="24">
+        <v>11</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>9838837</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5273853</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4564984</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="21">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="22">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
+        <v>9482301</v>
+      </c>
+      <c r="E16" s="7">
+        <v>5416944</v>
+      </c>
+      <c r="F16" s="7">
+        <v>4065357</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="23">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="24">
+        <v>9</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>8633272</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5067159</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3566113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="21">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="22">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="0"/>
+        <v>10433744</v>
+      </c>
+      <c r="E18" s="7">
+        <v>5976700</v>
+      </c>
+      <c r="F18" s="7">
+        <v>4457044</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="23">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="24">
+        <v>7</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="0"/>
+        <v>10994672</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5970043</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5024629</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="21">
+        <v>2023</v>
+      </c>
+      <c r="C20" s="22">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="0"/>
+        <v>9688779</v>
+      </c>
+      <c r="E20" s="7">
+        <v>5246474</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4442305</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="23">
+        <v>2023</v>
+      </c>
+      <c r="C21" s="24">
         <v>5</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
+        <v>9507284</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5270951</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4236333</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="21">
+        <v>2023</v>
+      </c>
+      <c r="C22" s="22">
+        <v>4</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>9919095</v>
+      </c>
+      <c r="E22" s="7">
+        <v>5341258</v>
+      </c>
+      <c r="F22" s="7">
+        <v>4577837</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="23">
+        <v>2023</v>
+      </c>
+      <c r="C23" s="24">
         <v>3</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="D23" s="8">
+        <f t="shared" si="0"/>
+        <v>10259682</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5215128</v>
+      </c>
+      <c r="F23" s="4">
+        <v>5044554</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="21">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="22">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="20">
-        <v>45413</v>
-      </c>
-      <c r="C6" s="21">
-        <f t="shared" ref="C6:C37" si="0">SUM(D6:E6)</f>
-        <v>9757605</v>
-      </c>
-      <c r="D6" s="22">
-        <v>5236375</v>
-      </c>
-      <c r="E6" s="22">
-        <v>4521230</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="9">
-        <v>45383</v>
-      </c>
-      <c r="C7" s="16">
-        <f t="shared" si="0"/>
-        <v>9749542</v>
-      </c>
-      <c r="D7" s="7">
-        <v>4981231</v>
-      </c>
-      <c r="E7" s="7">
-        <v>4768311</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="8">
-        <v>45352</v>
-      </c>
-      <c r="C8" s="15">
-        <f t="shared" si="0"/>
-        <v>10510155</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4863183</v>
-      </c>
-      <c r="E8" s="4">
-        <v>5646972</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="9">
-        <v>45323</v>
-      </c>
-      <c r="C9" s="16">
-        <f t="shared" si="0"/>
-        <v>9334763</v>
-      </c>
-      <c r="D9" s="7">
-        <v>4391152</v>
-      </c>
-      <c r="E9" s="7">
-        <v>4943611</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="11">
-        <v>45292</v>
-      </c>
-      <c r="C10" s="17">
-        <f t="shared" si="0"/>
-        <v>10153993</v>
-      </c>
-      <c r="D10" s="6">
-        <v>4807949</v>
-      </c>
-      <c r="E10" s="6">
-        <v>5346044</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="23">
-        <v>45261</v>
-      </c>
-      <c r="C11" s="24">
-        <f t="shared" si="0"/>
-        <v>10829188</v>
-      </c>
-      <c r="D11" s="25">
-        <v>5415680</v>
-      </c>
-      <c r="E11" s="29">
-        <v>5413508</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C12" s="15">
-        <f t="shared" si="0"/>
-        <v>9838837</v>
-      </c>
-      <c r="D12" s="4">
-        <v>5273853</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4564984</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9">
-        <v>45200</v>
-      </c>
-      <c r="C13" s="16">
-        <f t="shared" si="0"/>
-        <v>9482301</v>
-      </c>
-      <c r="D13" s="7">
-        <v>5416944</v>
-      </c>
-      <c r="E13" s="7">
-        <v>4065357</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="8">
-        <v>45170</v>
-      </c>
-      <c r="C14" s="15">
-        <f t="shared" si="0"/>
-        <v>8633272</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5067159</v>
-      </c>
-      <c r="E14" s="4">
-        <v>3566113</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="9">
-        <v>45139</v>
-      </c>
-      <c r="C15" s="16">
-        <f t="shared" si="0"/>
-        <v>10433744</v>
-      </c>
-      <c r="D15" s="7">
-        <v>5976700</v>
-      </c>
-      <c r="E15" s="7">
-        <v>4457044</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="8">
-        <v>45108</v>
-      </c>
-      <c r="C16" s="15">
-        <f t="shared" si="0"/>
-        <v>10994672</v>
-      </c>
-      <c r="D16" s="4">
-        <v>5970043</v>
-      </c>
-      <c r="E16" s="4">
-        <v>5024629</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9">
-        <v>45078</v>
-      </c>
-      <c r="C17" s="16">
-        <f t="shared" si="0"/>
-        <v>9688779</v>
-      </c>
-      <c r="D17" s="7">
-        <v>5246474</v>
-      </c>
-      <c r="E17" s="7">
-        <v>4442305</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="8">
-        <v>45047</v>
-      </c>
-      <c r="C18" s="15">
-        <f t="shared" si="0"/>
-        <v>9507284</v>
-      </c>
-      <c r="D18" s="4">
-        <v>5270951</v>
-      </c>
-      <c r="E18" s="4">
-        <v>4236333</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="9">
-        <v>45017</v>
-      </c>
-      <c r="C19" s="16">
-        <f t="shared" si="0"/>
-        <v>9919095</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5341258</v>
-      </c>
-      <c r="E19" s="7">
-        <v>4577837</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="8">
-        <v>44986</v>
-      </c>
-      <c r="C20" s="15">
-        <f t="shared" si="0"/>
-        <v>10259682</v>
-      </c>
-      <c r="D20" s="4">
-        <v>5215128</v>
-      </c>
-      <c r="E20" s="4">
-        <v>5044554</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="9">
-        <v>44958</v>
-      </c>
-      <c r="C21" s="16">
+      <c r="D24" s="9">
         <f t="shared" si="0"/>
         <v>8840768</v>
       </c>
-      <c r="D21" s="7">
+      <c r="E24" s="7">
         <v>4453469</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F24" s="7">
         <v>4387299</v>
       </c>
     </row>
-    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="11">
-        <v>44927</v>
-      </c>
-      <c r="C22" s="17">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="25">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="26">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
         <f t="shared" si="0"/>
         <v>9936455</v>
       </c>
-      <c r="D22" s="6">
+      <c r="E25" s="6">
         <v>4978979</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F25" s="6">
         <v>4957476</v>
       </c>
     </row>
-    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="23">
-        <v>44896</v>
-      </c>
-      <c r="C23" s="24">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="27">
+        <v>2022</v>
+      </c>
+      <c r="C26" s="28">
+        <v>12</v>
+      </c>
+      <c r="D26" s="12">
         <f t="shared" si="0"/>
         <v>10328957</v>
       </c>
-      <c r="D23" s="25">
+      <c r="E26" s="13">
         <v>5458695</v>
       </c>
-      <c r="E23" s="25">
+      <c r="F26" s="13">
         <v>4870262</v>
       </c>
     </row>
-    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="8">
-        <v>44866</v>
-      </c>
-      <c r="C24" s="15">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="23">
+        <v>2022</v>
+      </c>
+      <c r="C27" s="24">
+        <v>11</v>
+      </c>
+      <c r="D27" s="8">
         <f t="shared" si="0"/>
         <v>9564350</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E27" s="4">
         <v>5216824</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F27" s="4">
         <v>4347526</v>
       </c>
     </row>
-    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="9">
-        <v>44835</v>
-      </c>
-      <c r="C25" s="16">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="21">
+        <v>2022</v>
+      </c>
+      <c r="C28" s="22">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9">
         <f t="shared" si="0"/>
         <v>9047728</v>
       </c>
-      <c r="D25" s="7">
+      <c r="E28" s="7">
         <v>5177608</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F28" s="7">
         <v>3870120</v>
       </c>
     </row>
-    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="8">
-        <v>44805</v>
-      </c>
-      <c r="C26" s="15">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="23">
+        <v>2022</v>
+      </c>
+      <c r="C29" s="24">
+        <v>9</v>
+      </c>
+      <c r="D29" s="8">
         <f t="shared" si="0"/>
         <v>8162159</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E29" s="4">
         <v>4687975</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F29" s="4">
         <v>3474184</v>
       </c>
     </row>
-    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="9">
-        <v>44774</v>
-      </c>
-      <c r="C27" s="16">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="21">
+        <v>2022</v>
+      </c>
+      <c r="C30" s="22">
+        <v>8</v>
+      </c>
+      <c r="D30" s="9">
         <f t="shared" si="0"/>
         <v>9454996</v>
       </c>
-      <c r="D27" s="7">
+      <c r="E30" s="7">
         <v>5202467</v>
       </c>
-      <c r="E27" s="7">
+      <c r="F30" s="7">
         <v>4252529</v>
       </c>
     </row>
-    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="8">
-        <v>44743</v>
-      </c>
-      <c r="C28" s="15">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="23">
+        <v>2022</v>
+      </c>
+      <c r="C31" s="24">
+        <v>7</v>
+      </c>
+      <c r="D31" s="8">
         <f t="shared" si="0"/>
         <v>10042169</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E31" s="4">
         <v>5313681</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F31" s="4">
         <v>4728488</v>
       </c>
     </row>
-    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="9">
-        <v>44713</v>
-      </c>
-      <c r="C29" s="16">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="21">
+        <v>2022</v>
+      </c>
+      <c r="C32" s="22">
+        <v>6</v>
+      </c>
+      <c r="D32" s="9">
         <f t="shared" si="0"/>
         <v>8909540</v>
       </c>
-      <c r="D29" s="7">
+      <c r="E32" s="7">
         <v>4660739</v>
       </c>
-      <c r="E29" s="7">
+      <c r="F32" s="7">
         <v>4248801</v>
       </c>
     </row>
-    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="8">
-        <v>44682</v>
-      </c>
-      <c r="C30" s="15">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="23">
+        <v>2022</v>
+      </c>
+      <c r="C33" s="24">
+        <v>5</v>
+      </c>
+      <c r="D33" s="8">
         <f t="shared" si="0"/>
         <v>8894356</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E33" s="4">
         <v>4864477</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F33" s="4">
         <v>4029879</v>
       </c>
     </row>
-    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="9">
-        <v>44652</v>
-      </c>
-      <c r="C31" s="16">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="21">
+        <v>2022</v>
+      </c>
+      <c r="C34" s="22">
+        <v>4</v>
+      </c>
+      <c r="D34" s="9">
         <f t="shared" si="0"/>
         <v>8965893</v>
       </c>
-      <c r="D31" s="7">
+      <c r="E34" s="7">
         <v>4744599</v>
       </c>
-      <c r="E31" s="7">
+      <c r="F34" s="7">
         <v>4221294</v>
       </c>
     </row>
-    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="8">
-        <v>44621</v>
-      </c>
-      <c r="C32" s="15">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="23">
+        <v>2022</v>
+      </c>
+      <c r="C35" s="24">
+        <v>3</v>
+      </c>
+      <c r="D35" s="8">
         <f t="shared" si="0"/>
         <v>8932243</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E35" s="4">
         <v>4477915</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F35" s="4">
         <v>4454328</v>
       </c>
     </row>
-    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="9">
-        <v>44593</v>
-      </c>
-      <c r="C33" s="16">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="21">
+        <v>2022</v>
+      </c>
+      <c r="C36" s="22">
+        <v>2</v>
+      </c>
+      <c r="D36" s="9">
         <f t="shared" si="0"/>
         <v>7028818</v>
       </c>
-      <c r="D33" s="7">
+      <c r="E36" s="7">
         <v>3568589</v>
       </c>
-      <c r="E33" s="7">
+      <c r="F36" s="7">
         <v>3460229</v>
       </c>
     </row>
-    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="11">
-        <v>44562</v>
-      </c>
-      <c r="C34" s="17">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="25">
+        <v>2022</v>
+      </c>
+      <c r="C37" s="26">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10">
         <f t="shared" si="0"/>
         <v>7524409</v>
       </c>
-      <c r="D34" s="6">
+      <c r="E37" s="6">
         <v>3789823</v>
       </c>
-      <c r="E34" s="6">
+      <c r="F37" s="6">
         <v>3734586</v>
       </c>
     </row>
-    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="23">
-        <v>44531</v>
-      </c>
-      <c r="C35" s="24">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="27">
+        <v>2021</v>
+      </c>
+      <c r="C38" s="28">
+        <v>12</v>
+      </c>
+      <c r="D38" s="12">
         <f t="shared" si="0"/>
         <v>8858284</v>
       </c>
-      <c r="D35" s="25">
+      <c r="E38" s="13">
         <v>4685952</v>
       </c>
-      <c r="E35" s="25">
+      <c r="F38" s="13">
         <v>4172332</v>
       </c>
     </row>
-    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="8">
-        <v>44501</v>
-      </c>
-      <c r="C36" s="15">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="23">
+        <v>2021</v>
+      </c>
+      <c r="C39" s="24">
+        <v>11</v>
+      </c>
+      <c r="D39" s="8">
         <f t="shared" si="0"/>
         <v>8044448</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E39" s="4">
         <v>4338222</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F39" s="4">
         <v>3706226</v>
       </c>
     </row>
-    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="9">
-        <v>44470</v>
-      </c>
-      <c r="C37" s="16">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="21">
+        <v>2021</v>
+      </c>
+      <c r="C40" s="22">
+        <v>10</v>
+      </c>
+      <c r="D40" s="9">
         <f t="shared" si="0"/>
         <v>7434983</v>
       </c>
-      <c r="D37" s="7">
+      <c r="E40" s="7">
         <v>4148811</v>
       </c>
-      <c r="E37" s="7">
+      <c r="F40" s="7">
         <v>3286172</v>
       </c>
     </row>
-    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="8">
-        <v>44440</v>
-      </c>
-      <c r="C38" s="15">
-        <f t="shared" ref="C38:C69" si="1">SUM(D38:E38)</f>
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="23">
+        <v>2021</v>
+      </c>
+      <c r="C41" s="24">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" ref="D41:D72" si="2">SUM(E41:F41)</f>
         <v>6335718</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E41" s="4">
         <v>3602892</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F41" s="4">
         <v>2732826</v>
       </c>
     </row>
-    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="9">
-        <v>44409</v>
-      </c>
-      <c r="C39" s="16">
-        <f t="shared" si="1"/>
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="21">
+        <v>2021</v>
+      </c>
+      <c r="C42" s="22">
+        <v>8</v>
+      </c>
+      <c r="D42" s="9">
+        <f t="shared" si="2"/>
         <v>7407170</v>
       </c>
-      <c r="D39" s="7">
+      <c r="E42" s="7">
         <v>3994397</v>
       </c>
-      <c r="E39" s="7">
+      <c r="F42" s="7">
         <v>3412773</v>
       </c>
     </row>
-    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="8">
-        <v>44378</v>
-      </c>
-      <c r="C40" s="15">
-        <f t="shared" si="1"/>
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="23">
+        <v>2021</v>
+      </c>
+      <c r="C43" s="24">
+        <v>7</v>
+      </c>
+      <c r="D43" s="8">
+        <f t="shared" si="2"/>
         <v>8256002</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E43" s="4">
         <v>4365429</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F43" s="4">
         <v>3890573</v>
       </c>
     </row>
-    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="9">
-        <v>44348</v>
-      </c>
-      <c r="C41" s="16">
-        <f t="shared" si="1"/>
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="21">
+        <v>2021</v>
+      </c>
+      <c r="C44" s="22">
+        <v>6</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" si="2"/>
         <v>7317711</v>
       </c>
-      <c r="D41" s="7">
+      <c r="E44" s="7">
         <v>3834253</v>
       </c>
-      <c r="E41" s="7">
+      <c r="F44" s="7">
         <v>3483458</v>
       </c>
     </row>
-    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="8">
-        <v>44317</v>
-      </c>
-      <c r="C42" s="15">
-        <f t="shared" si="1"/>
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="23">
+        <v>2021</v>
+      </c>
+      <c r="C45" s="24">
+        <v>5</v>
+      </c>
+      <c r="D45" s="8">
+        <f t="shared" si="2"/>
         <v>6934293</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E45" s="4">
         <v>3818846</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F45" s="4">
         <v>3115447</v>
       </c>
     </row>
-    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="9">
-        <v>44287</v>
-      </c>
-      <c r="C43" s="16">
-        <f t="shared" si="1"/>
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="21">
+        <v>2021</v>
+      </c>
+      <c r="C46" s="22">
+        <v>4</v>
+      </c>
+      <c r="D46" s="9">
+        <f t="shared" si="2"/>
         <v>5986797</v>
       </c>
-      <c r="D43" s="7">
+      <c r="E46" s="7">
         <v>3478623</v>
       </c>
-      <c r="E43" s="7">
+      <c r="F46" s="7">
         <v>2508174</v>
       </c>
     </row>
-    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="8">
-        <v>44256</v>
-      </c>
-      <c r="C44" s="15">
-        <f t="shared" si="1"/>
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="23">
+        <v>2021</v>
+      </c>
+      <c r="C47" s="24">
+        <v>3</v>
+      </c>
+      <c r="D47" s="8">
+        <f t="shared" si="2"/>
         <v>5308998</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E47" s="4">
         <v>3169991</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F47" s="4">
         <v>2139007</v>
       </c>
     </row>
-    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="9">
-        <v>44228</v>
-      </c>
-      <c r="C45" s="16">
-        <f t="shared" si="1"/>
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="21">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="22">
+        <v>2</v>
+      </c>
+      <c r="D48" s="9">
+        <f t="shared" si="2"/>
         <v>3515246</v>
       </c>
-      <c r="D45" s="7">
+      <c r="E48" s="7">
         <v>2221947</v>
       </c>
-      <c r="E45" s="7">
+      <c r="F48" s="7">
         <v>1293299</v>
       </c>
     </row>
-    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="11">
-        <v>44197</v>
-      </c>
-      <c r="C46" s="17">
-        <f t="shared" si="1"/>
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="25">
+        <v>2021</v>
+      </c>
+      <c r="C49" s="26">
+        <v>1</v>
+      </c>
+      <c r="D49" s="10">
+        <f t="shared" si="2"/>
         <v>4603651</v>
       </c>
-      <c r="D46" s="6">
+      <c r="E49" s="6">
         <v>2703105</v>
       </c>
-      <c r="E46" s="6">
+      <c r="F49" s="6">
         <v>1900546</v>
       </c>
     </row>
-    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="23">
-        <v>44166</v>
-      </c>
-      <c r="C47" s="24">
-        <f t="shared" si="1"/>
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="27">
+        <v>2020</v>
+      </c>
+      <c r="C50" s="28">
+        <v>12</v>
+      </c>
+      <c r="D50" s="12">
+        <f t="shared" si="2"/>
         <v>5262897</v>
       </c>
-      <c r="D47" s="25">
+      <c r="E50" s="13">
         <v>3144137</v>
       </c>
-      <c r="E47" s="25">
+      <c r="F50" s="13">
         <v>2118760</v>
       </c>
     </row>
-    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="8">
-        <v>44136</v>
-      </c>
-      <c r="C48" s="15">
-        <f t="shared" si="1"/>
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="23">
+        <v>2020</v>
+      </c>
+      <c r="C51" s="24">
+        <v>11</v>
+      </c>
+      <c r="D51" s="8">
+        <f t="shared" si="2"/>
         <v>4568948</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E51" s="4">
         <v>2920098</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F51" s="4">
         <v>1648850</v>
       </c>
     </row>
-    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="9">
-        <v>44105</v>
-      </c>
-      <c r="C49" s="16">
-        <f t="shared" si="1"/>
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="21">
+        <v>2020</v>
+      </c>
+      <c r="C52" s="22">
+        <v>10</v>
+      </c>
+      <c r="D52" s="9">
+        <f t="shared" si="2"/>
         <v>4066515</v>
       </c>
-      <c r="D49" s="7">
+      <c r="E52" s="7">
         <v>2708781</v>
       </c>
-      <c r="E49" s="7">
+      <c r="F52" s="7">
         <v>1357734</v>
       </c>
     </row>
-    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="8">
-        <v>44075</v>
-      </c>
-      <c r="C50" s="15">
-        <f t="shared" si="1"/>
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="23">
+        <v>2020</v>
+      </c>
+      <c r="C53" s="24">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8">
+        <f t="shared" si="2"/>
         <v>3283162</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E53" s="4">
         <v>2317729</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F53" s="4">
         <v>965433</v>
       </c>
     </row>
-    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="9">
-        <v>44044</v>
-      </c>
-      <c r="C51" s="16">
-        <f t="shared" si="1"/>
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="21">
+        <v>2020</v>
+      </c>
+      <c r="C54" s="22">
+        <v>8</v>
+      </c>
+      <c r="D54" s="9">
+        <f t="shared" si="2"/>
         <v>3035521</v>
       </c>
-      <c r="D51" s="7">
+      <c r="E54" s="7">
         <v>2120271</v>
       </c>
-      <c r="E51" s="7">
+      <c r="F54" s="7">
         <v>915250</v>
       </c>
     </row>
-    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="8">
-        <v>44013</v>
-      </c>
-      <c r="C52" s="15">
-        <f t="shared" si="1"/>
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="23">
+        <v>2020</v>
+      </c>
+      <c r="C55" s="24">
+        <v>7</v>
+      </c>
+      <c r="D55" s="8">
+        <f t="shared" si="2"/>
         <v>2412156</v>
       </c>
-      <c r="D52" s="4">
+      <c r="E55" s="4">
         <v>1672969</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F55" s="4">
         <v>739187</v>
       </c>
     </row>
-    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="9">
-        <v>43983</v>
-      </c>
-      <c r="C53" s="16">
-        <f t="shared" si="1"/>
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="21">
+        <v>2020</v>
+      </c>
+      <c r="C56" s="22">
+        <v>6</v>
+      </c>
+      <c r="D56" s="9">
+        <f t="shared" si="2"/>
         <v>1180756</v>
       </c>
-      <c r="D53" s="7">
+      <c r="E56" s="7">
         <v>886076</v>
       </c>
-      <c r="E53" s="7">
+      <c r="F56" s="7">
         <v>294680</v>
       </c>
     </row>
-    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="8">
-        <v>43952</v>
-      </c>
-      <c r="C54" s="15">
-        <f t="shared" si="1"/>
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="23">
+        <v>2020</v>
+      </c>
+      <c r="C57" s="24">
+        <v>5</v>
+      </c>
+      <c r="D57" s="8">
+        <f t="shared" si="2"/>
         <v>488531</v>
       </c>
-      <c r="D54" s="4">
+      <c r="E57" s="4">
         <v>385641</v>
       </c>
-      <c r="E54" s="4">
+      <c r="F57" s="4">
         <v>102890</v>
       </c>
     </row>
-    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="9">
-        <v>43922</v>
-      </c>
-      <c r="C55" s="16">
-        <f t="shared" si="1"/>
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="21">
+        <v>2020</v>
+      </c>
+      <c r="C58" s="22">
+        <v>4</v>
+      </c>
+      <c r="D58" s="9">
+        <f t="shared" si="2"/>
         <v>509441</v>
       </c>
-      <c r="D55" s="7">
+      <c r="E58" s="7">
         <v>413225</v>
       </c>
-      <c r="E55" s="7">
+      <c r="F58" s="7">
         <v>96216</v>
       </c>
     </row>
-    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="8">
-        <v>43891</v>
-      </c>
-      <c r="C56" s="15">
-        <f t="shared" si="1"/>
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="23">
+        <v>2020</v>
+      </c>
+      <c r="C59" s="24">
+        <v>3</v>
+      </c>
+      <c r="D59" s="8">
+        <f t="shared" si="2"/>
         <v>5886542</v>
       </c>
-      <c r="D56" s="4">
+      <c r="E59" s="4">
         <v>3142005</v>
       </c>
-      <c r="E56" s="4">
+      <c r="F59" s="4">
         <v>2744537</v>
       </c>
     </row>
-    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="9">
-        <v>43862</v>
-      </c>
-      <c r="C57" s="16">
-        <f t="shared" si="1"/>
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="21">
+        <v>2020</v>
+      </c>
+      <c r="C60" s="22">
+        <v>2</v>
+      </c>
+      <c r="D60" s="9">
+        <f t="shared" si="2"/>
         <v>8319634</v>
       </c>
-      <c r="D57" s="7">
+      <c r="E60" s="7">
         <v>4091826</v>
       </c>
-      <c r="E57" s="7">
+      <c r="F60" s="7">
         <v>4227808</v>
       </c>
     </row>
-    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="11">
-        <v>43831</v>
-      </c>
-      <c r="C58" s="17">
-        <f t="shared" si="1"/>
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="25">
+        <v>2020</v>
+      </c>
+      <c r="C61" s="26">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10">
+        <f t="shared" si="2"/>
         <v>9065514</v>
       </c>
-      <c r="D58" s="6">
+      <c r="E61" s="6">
         <v>4433703</v>
       </c>
-      <c r="E58" s="6">
+      <c r="F61" s="6">
         <v>4631811</v>
       </c>
     </row>
-    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="23">
-        <v>43800</v>
-      </c>
-      <c r="C59" s="24">
-        <f t="shared" si="1"/>
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="27">
+        <v>2019</v>
+      </c>
+      <c r="C62" s="28">
+        <v>12</v>
+      </c>
+      <c r="D62" s="12">
+        <f t="shared" si="2"/>
         <v>9358660</v>
       </c>
-      <c r="D59" s="25">
+      <c r="E62" s="13">
         <v>4755157</v>
       </c>
-      <c r="E59" s="25">
+      <c r="F62" s="13">
         <v>4603503</v>
       </c>
     </row>
-    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="8">
-        <v>43770</v>
-      </c>
-      <c r="C60" s="15">
-        <f t="shared" si="1"/>
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="23">
+        <v>2019</v>
+      </c>
+      <c r="C63" s="24">
+        <v>11</v>
+      </c>
+      <c r="D63" s="8">
+        <f t="shared" si="2"/>
         <v>8545618</v>
       </c>
-      <c r="D60" s="4">
+      <c r="E63" s="4">
         <v>4611815</v>
       </c>
-      <c r="E60" s="4">
+      <c r="F63" s="4">
         <v>3933803</v>
       </c>
     </row>
-    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="9">
-        <v>43739</v>
-      </c>
-      <c r="C61" s="16">
-        <f t="shared" si="1"/>
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="21">
+        <v>2019</v>
+      </c>
+      <c r="C64" s="22">
+        <v>10</v>
+      </c>
+      <c r="D64" s="9">
+        <f t="shared" si="2"/>
         <v>8005724</v>
       </c>
-      <c r="D61" s="7">
+      <c r="E64" s="7">
         <v>4617022</v>
       </c>
-      <c r="E61" s="7">
+      <c r="F64" s="7">
         <v>3388702</v>
       </c>
     </row>
-    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="8">
-        <v>43709</v>
-      </c>
-      <c r="C62" s="15">
-        <f t="shared" si="1"/>
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="23">
+        <v>2019</v>
+      </c>
+      <c r="C65" s="24">
+        <v>9</v>
+      </c>
+      <c r="D65" s="8">
+        <f t="shared" si="2"/>
         <v>7233383</v>
       </c>
-      <c r="D62" s="4">
+      <c r="E65" s="4">
         <v>4187402</v>
       </c>
-      <c r="E62" s="4">
+      <c r="F65" s="4">
         <v>3045981</v>
       </c>
     </row>
-    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="9">
-        <v>43678</v>
-      </c>
-      <c r="C63" s="16">
-        <f t="shared" si="1"/>
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="21">
+        <v>2019</v>
+      </c>
+      <c r="C66" s="22">
+        <v>8</v>
+      </c>
+      <c r="D66" s="9">
+        <f t="shared" si="2"/>
         <v>8708818</v>
       </c>
-      <c r="D63" s="7">
+      <c r="E66" s="7">
         <v>4765181</v>
       </c>
-      <c r="E63" s="7">
+      <c r="F66" s="7">
         <v>3943637</v>
       </c>
     </row>
-    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="8">
-        <v>43647</v>
-      </c>
-      <c r="C64" s="15">
-        <f t="shared" si="1"/>
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="23">
+        <v>2019</v>
+      </c>
+      <c r="C67" s="24">
+        <v>7</v>
+      </c>
+      <c r="D67" s="8">
+        <f t="shared" si="2"/>
         <v>9445888</v>
       </c>
-      <c r="D64" s="4">
+      <c r="E67" s="4">
         <v>5005061</v>
       </c>
-      <c r="E64" s="4">
+      <c r="F67" s="4">
         <v>4440827</v>
       </c>
     </row>
-    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="9">
-        <v>43617</v>
-      </c>
-      <c r="C65" s="16">
-        <f t="shared" si="1"/>
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="21">
+        <v>2019</v>
+      </c>
+      <c r="C68" s="22">
+        <v>6</v>
+      </c>
+      <c r="D68" s="9">
+        <f t="shared" si="2"/>
         <v>8525678</v>
       </c>
-      <c r="D65" s="7">
+      <c r="E68" s="7">
         <v>4555762</v>
       </c>
-      <c r="E65" s="7">
+      <c r="F68" s="7">
         <v>3969916</v>
       </c>
     </row>
-    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="8">
-        <v>43586</v>
-      </c>
-      <c r="C66" s="15">
-        <f t="shared" si="1"/>
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="23">
+        <v>2019</v>
+      </c>
+      <c r="C69" s="24">
+        <v>5</v>
+      </c>
+      <c r="D69" s="8">
+        <f t="shared" si="2"/>
         <v>8482898</v>
       </c>
-      <c r="D66" s="4">
+      <c r="E69" s="4">
         <v>4704389</v>
       </c>
-      <c r="E66" s="4">
+      <c r="F69" s="4">
         <v>3778509</v>
       </c>
     </row>
-    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="9">
-        <v>43556</v>
-      </c>
-      <c r="C67" s="16">
-        <f t="shared" si="1"/>
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="21">
+        <v>2019</v>
+      </c>
+      <c r="C70" s="22">
+        <v>4</v>
+      </c>
+      <c r="D70" s="9">
+        <f t="shared" si="2"/>
         <v>8548334</v>
       </c>
-      <c r="D67" s="7">
+      <c r="E70" s="7">
         <v>4438332</v>
       </c>
-      <c r="E67" s="7">
+      <c r="F70" s="7">
         <v>4110002</v>
       </c>
     </row>
-    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="8">
-        <v>43525</v>
-      </c>
-      <c r="C68" s="15">
-        <f t="shared" si="1"/>
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="23">
+        <v>2019</v>
+      </c>
+      <c r="C71" s="24">
+        <v>3</v>
+      </c>
+      <c r="D71" s="8">
+        <f t="shared" si="2"/>
         <v>8887698</v>
       </c>
-      <c r="D68" s="4">
+      <c r="E71" s="4">
         <v>4310865</v>
       </c>
-      <c r="E68" s="4">
+      <c r="F71" s="4">
         <v>4576833</v>
       </c>
     </row>
-    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="9">
-        <v>43497</v>
-      </c>
-      <c r="C69" s="16">
-        <f t="shared" si="1"/>
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="21">
+        <v>2019</v>
+      </c>
+      <c r="C72" s="22">
+        <v>2</v>
+      </c>
+      <c r="D72" s="9">
+        <f t="shared" si="2"/>
         <v>7407471</v>
       </c>
-      <c r="D69" s="7">
+      <c r="E72" s="7">
         <v>3590917</v>
       </c>
-      <c r="E69" s="7">
+      <c r="F72" s="7">
         <v>3816554</v>
       </c>
     </row>
-    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="11">
-        <v>43466</v>
-      </c>
-      <c r="C70" s="17">
-        <f t="shared" ref="C70:C82" si="2">SUM(D70:E70)</f>
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="25">
+        <v>2019</v>
+      </c>
+      <c r="C73" s="26">
+        <v>1</v>
+      </c>
+      <c r="D73" s="10">
+        <f t="shared" ref="D73:D85" si="3">SUM(E73:F73)</f>
         <v>8273412</v>
       </c>
-      <c r="D70" s="6">
+      <c r="E73" s="6">
         <v>3989338</v>
       </c>
-      <c r="E70" s="6">
+      <c r="F73" s="6">
         <v>4284074</v>
       </c>
     </row>
-    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="10">
-        <v>43435</v>
-      </c>
-      <c r="C71" s="16">
-        <f t="shared" si="2"/>
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="22">
+        <v>2018</v>
+      </c>
+      <c r="C74" s="22">
+        <v>12</v>
+      </c>
+      <c r="D74" s="9">
+        <f t="shared" si="3"/>
         <v>8744817</v>
       </c>
-      <c r="D71" s="7">
+      <c r="E74" s="7">
         <v>4400768</v>
       </c>
-      <c r="E71" s="7">
+      <c r="F74" s="7">
         <v>4344049</v>
       </c>
     </row>
-    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="14">
-        <v>43405</v>
-      </c>
-      <c r="C72" s="15">
-        <f t="shared" si="2"/>
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="24">
+        <v>2018</v>
+      </c>
+      <c r="C75" s="24">
+        <v>11</v>
+      </c>
+      <c r="D75" s="8">
+        <f t="shared" si="3"/>
         <v>8065105</v>
       </c>
-      <c r="D72" s="4">
+      <c r="E75" s="4">
         <v>4287344</v>
       </c>
-      <c r="E72" s="4">
+      <c r="F75" s="4">
         <v>3777761</v>
       </c>
     </row>
-    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="10">
-        <v>43374</v>
-      </c>
-      <c r="C73" s="16">
-        <f t="shared" si="2"/>
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="22">
+        <v>2018</v>
+      </c>
+      <c r="C76" s="22">
+        <v>10</v>
+      </c>
+      <c r="D76" s="9">
+        <f t="shared" si="3"/>
         <v>7563067</v>
       </c>
-      <c r="D73" s="7">
+      <c r="E76" s="7">
         <v>4246079</v>
       </c>
-      <c r="E73" s="7">
+      <c r="F76" s="7">
         <v>3316988</v>
       </c>
     </row>
-    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="14">
-        <v>43344</v>
-      </c>
-      <c r="C74" s="15">
-        <f t="shared" si="2"/>
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="24">
+        <v>2018</v>
+      </c>
+      <c r="C77" s="24">
+        <v>9</v>
+      </c>
+      <c r="D77" s="8">
+        <f t="shared" si="3"/>
         <v>6852045</v>
       </c>
-      <c r="D74" s="4">
+      <c r="E77" s="4">
         <v>3900894</v>
       </c>
-      <c r="E74" s="4">
+      <c r="F77" s="4">
         <v>2951151</v>
       </c>
     </row>
-    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="10">
-        <v>43313</v>
-      </c>
-      <c r="C75" s="16">
-        <f t="shared" si="2"/>
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="22">
+        <v>2018</v>
+      </c>
+      <c r="C78" s="22">
+        <v>8</v>
+      </c>
+      <c r="D78" s="9">
+        <f t="shared" si="3"/>
         <v>8297341</v>
       </c>
-      <c r="D75" s="7">
+      <c r="E78" s="7">
         <v>4416844</v>
       </c>
-      <c r="E75" s="7">
+      <c r="F78" s="7">
         <v>3880497</v>
       </c>
     </row>
-    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="14">
-        <v>43282</v>
-      </c>
-      <c r="C76" s="15">
-        <f t="shared" si="2"/>
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="24">
+        <v>2018</v>
+      </c>
+      <c r="C79" s="24">
+        <v>7</v>
+      </c>
+      <c r="D79" s="8">
+        <f t="shared" si="3"/>
         <v>9056178</v>
       </c>
-      <c r="D76" s="4">
+      <c r="E79" s="4">
         <v>4689606</v>
       </c>
-      <c r="E76" s="4">
+      <c r="F79" s="4">
         <v>4366572</v>
       </c>
     </row>
-    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="10">
-        <v>43252</v>
-      </c>
-      <c r="C77" s="16">
-        <f t="shared" si="2"/>
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="22">
+        <v>2018</v>
+      </c>
+      <c r="C80" s="22">
+        <v>6</v>
+      </c>
+      <c r="D80" s="9">
+        <f t="shared" si="3"/>
         <v>8006308</v>
       </c>
-      <c r="D77" s="7">
+      <c r="E80" s="7">
         <v>4087227</v>
       </c>
-      <c r="E77" s="7">
+      <c r="F80" s="7">
         <v>3919081</v>
       </c>
     </row>
-    <row r="78" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="14">
-        <v>43221</v>
-      </c>
-      <c r="C78" s="15">
-        <f t="shared" si="2"/>
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="24">
+        <v>2018</v>
+      </c>
+      <c r="C81" s="24">
+        <v>5</v>
+      </c>
+      <c r="D81" s="8">
+        <f t="shared" si="3"/>
         <v>7817504</v>
       </c>
-      <c r="D78" s="4">
+      <c r="E81" s="4">
         <v>4163127</v>
       </c>
-      <c r="E78" s="4">
+      <c r="F81" s="4">
         <v>3654377</v>
       </c>
     </row>
-    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="10">
-        <v>43191</v>
-      </c>
-      <c r="C79" s="16">
-        <f t="shared" si="2"/>
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="22">
+        <v>2018</v>
+      </c>
+      <c r="C82" s="22">
+        <v>4</v>
+      </c>
+      <c r="D82" s="9">
+        <f t="shared" si="3"/>
         <v>8098666</v>
       </c>
-      <c r="D79" s="7">
+      <c r="E82" s="7">
         <v>4096821</v>
       </c>
-      <c r="E79" s="7">
+      <c r="F82" s="7">
         <v>4001845</v>
       </c>
     </row>
-    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="14">
-        <v>43160</v>
-      </c>
-      <c r="C80" s="15">
-        <f t="shared" si="2"/>
+    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="24">
+        <v>2018</v>
+      </c>
+      <c r="C83" s="24">
+        <v>3</v>
+      </c>
+      <c r="D83" s="8">
+        <f t="shared" si="3"/>
         <v>8610022</v>
       </c>
-      <c r="D80" s="4">
+      <c r="E83" s="4">
         <v>4048811</v>
       </c>
-      <c r="E80" s="4">
+      <c r="F83" s="4">
         <v>4561211</v>
       </c>
     </row>
-    <row r="81" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="10">
-        <v>43132</v>
-      </c>
-      <c r="C81" s="16">
-        <f t="shared" si="2"/>
+    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="22">
+        <v>2018</v>
+      </c>
+      <c r="C84" s="22">
+        <v>2</v>
+      </c>
+      <c r="D84" s="9">
+        <f t="shared" si="3"/>
         <v>7192032</v>
       </c>
-      <c r="D81" s="7">
+      <c r="E84" s="7">
         <v>3422954</v>
       </c>
-      <c r="E81" s="7">
+      <c r="F84" s="7">
         <v>3769078</v>
       </c>
     </row>
-    <row r="82" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="14">
-        <v>43101</v>
-      </c>
-      <c r="C82" s="15">
-        <f t="shared" si="2"/>
+    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="24">
+        <v>2018</v>
+      </c>
+      <c r="C85" s="24">
+        <v>1</v>
+      </c>
+      <c r="D85" s="8">
+        <f t="shared" si="3"/>
         <v>8102943</v>
       </c>
-      <c r="D82" s="4">
+      <c r="E85" s="4">
         <v>3774420</v>
       </c>
-      <c r="E82" s="4">
+      <c r="F85" s="4">
         <v>4328523</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B83" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="E84" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="E85" s="3" t="s">
-        <v>1</v>
-      </c>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F88" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pasajeros_Total_N_Aero.xlsx
+++ b/Pasajeros_Total_N_Aero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD32A379-0A01-4713-A22D-365191A9188F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F92CE7-A993-42A0-87BB-9550B5A4B3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="21">
   <si>
     <t>Internacional</t>
   </si>
@@ -63,6 +63,42 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
   </si>
 </sst>
 </file>
@@ -307,15 +343,6 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,6 +367,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -347,8 +383,10 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -373,17 +411,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -393,6 +422,13 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -448,7 +484,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F85" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F85" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="B5:F85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
@@ -458,13 +494,13 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{09C724ED-6D33-4E09-AC32-69B120D7D3F0}" name="Mes" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{09C724ED-6D33-4E09-AC32-69B120D7D3F0}" name="Mes" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="2">
       <calculatedColumnFormula>SUM(E6:F6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Nacional" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Internacional" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Nacional" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Internacional" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -722,11 +758,11 @@
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="15" t="s">
@@ -746,11 +782,11 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="21">
+      <c r="B6" s="18">
         <v>2024</v>
       </c>
-      <c r="C6" s="22">
-        <v>8</v>
+      <c r="C6" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:D40" si="0">SUM(E6:F6)</f>
@@ -764,11 +800,11 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="23">
+      <c r="B7" s="20">
         <v>2024</v>
       </c>
-      <c r="C7" s="24">
-        <v>7</v>
+      <c r="C7" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:D9" si="1">SUM(E7:F7)</f>
@@ -782,11 +818,11 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="21">
+      <c r="B8" s="18">
         <v>2024</v>
       </c>
-      <c r="C8" s="22">
-        <v>6</v>
+      <c r="C8" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="1"/>
@@ -800,11 +836,11 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="23">
+      <c r="B9" s="20">
         <v>2024</v>
       </c>
-      <c r="C9" s="24">
-        <v>5</v>
+      <c r="C9" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
@@ -818,11 +854,11 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="21">
+      <c r="B10" s="18">
         <v>2024</v>
       </c>
-      <c r="C10" s="22">
-        <v>4</v>
+      <c r="C10" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -836,11 +872,11 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="23">
+      <c r="B11" s="20">
         <v>2024</v>
       </c>
-      <c r="C11" s="24">
-        <v>3</v>
+      <c r="C11" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="0"/>
@@ -854,11 +890,11 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="21">
+      <c r="B12" s="18">
         <v>2024</v>
       </c>
-      <c r="C12" s="22">
-        <v>2</v>
+      <c r="C12" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -872,11 +908,11 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="25">
+      <c r="B13" s="22">
         <v>2024</v>
       </c>
-      <c r="C13" s="26">
-        <v>1</v>
+      <c r="C13" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
@@ -890,11 +926,11 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="27">
+      <c r="B14" s="24">
         <v>2023</v>
       </c>
-      <c r="C14" s="28">
-        <v>12</v>
+      <c r="C14" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
@@ -908,11 +944,11 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="23">
+      <c r="B15" s="20">
         <v>2023</v>
       </c>
-      <c r="C15" s="24">
-        <v>11</v>
+      <c r="C15" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="0"/>
@@ -926,11 +962,11 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="21">
+      <c r="B16" s="18">
         <v>2023</v>
       </c>
-      <c r="C16" s="22">
-        <v>10</v>
+      <c r="C16" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="0"/>
@@ -944,11 +980,11 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="23">
+      <c r="B17" s="20">
         <v>2023</v>
       </c>
-      <c r="C17" s="24">
-        <v>9</v>
+      <c r="C17" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="0"/>
@@ -962,11 +998,11 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="21">
+      <c r="B18" s="18">
         <v>2023</v>
       </c>
-      <c r="C18" s="22">
-        <v>8</v>
+      <c r="C18" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="0"/>
@@ -980,11 +1016,11 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="23">
+      <c r="B19" s="20">
         <v>2023</v>
       </c>
-      <c r="C19" s="24">
-        <v>7</v>
+      <c r="C19" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="0"/>
@@ -998,11 +1034,11 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="21">
+      <c r="B20" s="18">
         <v>2023</v>
       </c>
-      <c r="C20" s="22">
-        <v>6</v>
+      <c r="C20" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="0"/>
@@ -1016,11 +1052,11 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="23">
+      <c r="B21" s="20">
         <v>2023</v>
       </c>
-      <c r="C21" s="24">
-        <v>5</v>
+      <c r="C21" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="0"/>
@@ -1034,11 +1070,11 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="21">
+      <c r="B22" s="18">
         <v>2023</v>
       </c>
-      <c r="C22" s="22">
-        <v>4</v>
+      <c r="C22" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="0"/>
@@ -1052,11 +1088,11 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="23">
+      <c r="B23" s="20">
         <v>2023</v>
       </c>
-      <c r="C23" s="24">
-        <v>3</v>
+      <c r="C23" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="0"/>
@@ -1070,11 +1106,11 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="21">
+      <c r="B24" s="18">
         <v>2023</v>
       </c>
-      <c r="C24" s="22">
-        <v>2</v>
+      <c r="C24" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="0"/>
@@ -1088,11 +1124,11 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="25">
+      <c r="B25" s="22">
         <v>2023</v>
       </c>
-      <c r="C25" s="26">
-        <v>1</v>
+      <c r="C25" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
@@ -1106,11 +1142,11 @@
       </c>
     </row>
     <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="27">
+      <c r="B26" s="24">
         <v>2022</v>
       </c>
-      <c r="C26" s="28">
-        <v>12</v>
+      <c r="C26" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
@@ -1124,11 +1160,11 @@
       </c>
     </row>
     <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="23">
+      <c r="B27" s="20">
         <v>2022</v>
       </c>
-      <c r="C27" s="24">
-        <v>11</v>
+      <c r="C27" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D27" s="8">
         <f t="shared" si="0"/>
@@ -1142,11 +1178,11 @@
       </c>
     </row>
     <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="21">
+      <c r="B28" s="18">
         <v>2022</v>
       </c>
-      <c r="C28" s="22">
-        <v>10</v>
+      <c r="C28" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="0"/>
@@ -1160,11 +1196,11 @@
       </c>
     </row>
     <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="23">
+      <c r="B29" s="20">
         <v>2022</v>
       </c>
-      <c r="C29" s="24">
-        <v>9</v>
+      <c r="C29" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D29" s="8">
         <f t="shared" si="0"/>
@@ -1178,11 +1214,11 @@
       </c>
     </row>
     <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="21">
+      <c r="B30" s="18">
         <v>2022</v>
       </c>
-      <c r="C30" s="22">
-        <v>8</v>
+      <c r="C30" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" si="0"/>
@@ -1196,11 +1232,11 @@
       </c>
     </row>
     <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="23">
+      <c r="B31" s="20">
         <v>2022</v>
       </c>
-      <c r="C31" s="24">
-        <v>7</v>
+      <c r="C31" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" si="0"/>
@@ -1214,11 +1250,11 @@
       </c>
     </row>
     <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="21">
+      <c r="B32" s="18">
         <v>2022</v>
       </c>
-      <c r="C32" s="22">
-        <v>6</v>
+      <c r="C32" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" si="0"/>
@@ -1232,11 +1268,11 @@
       </c>
     </row>
     <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="23">
+      <c r="B33" s="20">
         <v>2022</v>
       </c>
-      <c r="C33" s="24">
-        <v>5</v>
+      <c r="C33" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" si="0"/>
@@ -1250,11 +1286,11 @@
       </c>
     </row>
     <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="21">
+      <c r="B34" s="18">
         <v>2022</v>
       </c>
-      <c r="C34" s="22">
-        <v>4</v>
+      <c r="C34" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="D34" s="9">
         <f t="shared" si="0"/>
@@ -1268,11 +1304,11 @@
       </c>
     </row>
     <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="23">
+      <c r="B35" s="20">
         <v>2022</v>
       </c>
-      <c r="C35" s="24">
-        <v>3</v>
+      <c r="C35" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="D35" s="8">
         <f t="shared" si="0"/>
@@ -1286,11 +1322,11 @@
       </c>
     </row>
     <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="21">
+      <c r="B36" s="18">
         <v>2022</v>
       </c>
-      <c r="C36" s="22">
-        <v>2</v>
+      <c r="C36" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="0"/>
@@ -1304,11 +1340,11 @@
       </c>
     </row>
     <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="25">
+      <c r="B37" s="22">
         <v>2022</v>
       </c>
-      <c r="C37" s="26">
-        <v>1</v>
+      <c r="C37" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="D37" s="10">
         <f t="shared" si="0"/>
@@ -1322,11 +1358,11 @@
       </c>
     </row>
     <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="27">
+      <c r="B38" s="24">
         <v>2021</v>
       </c>
-      <c r="C38" s="28">
-        <v>12</v>
+      <c r="C38" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="D38" s="12">
         <f t="shared" si="0"/>
@@ -1340,11 +1376,11 @@
       </c>
     </row>
     <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="23">
+      <c r="B39" s="20">
         <v>2021</v>
       </c>
-      <c r="C39" s="24">
-        <v>11</v>
+      <c r="C39" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="0"/>
@@ -1358,11 +1394,11 @@
       </c>
     </row>
     <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="21">
+      <c r="B40" s="18">
         <v>2021</v>
       </c>
-      <c r="C40" s="22">
-        <v>10</v>
+      <c r="C40" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="0"/>
@@ -1376,11 +1412,11 @@
       </c>
     </row>
     <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="23">
+      <c r="B41" s="20">
         <v>2021</v>
       </c>
-      <c r="C41" s="24">
-        <v>9</v>
+      <c r="C41" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D41" s="8">
         <f t="shared" ref="D41:D72" si="2">SUM(E41:F41)</f>
@@ -1394,11 +1430,11 @@
       </c>
     </row>
     <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="21">
+      <c r="B42" s="18">
         <v>2021</v>
       </c>
-      <c r="C42" s="22">
-        <v>8</v>
+      <c r="C42" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="2"/>
@@ -1412,11 +1448,11 @@
       </c>
     </row>
     <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="23">
+      <c r="B43" s="20">
         <v>2021</v>
       </c>
-      <c r="C43" s="24">
-        <v>7</v>
+      <c r="C43" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="D43" s="8">
         <f t="shared" si="2"/>
@@ -1430,11 +1466,11 @@
       </c>
     </row>
     <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="21">
+      <c r="B44" s="18">
         <v>2021</v>
       </c>
-      <c r="C44" s="22">
-        <v>6</v>
+      <c r="C44" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="2"/>
@@ -1448,11 +1484,11 @@
       </c>
     </row>
     <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="23">
+      <c r="B45" s="20">
         <v>2021</v>
       </c>
-      <c r="C45" s="24">
-        <v>5</v>
+      <c r="C45" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="D45" s="8">
         <f t="shared" si="2"/>
@@ -1466,11 +1502,11 @@
       </c>
     </row>
     <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="21">
+      <c r="B46" s="18">
         <v>2021</v>
       </c>
-      <c r="C46" s="22">
-        <v>4</v>
+      <c r="C46" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="D46" s="9">
         <f t="shared" si="2"/>
@@ -1484,11 +1520,11 @@
       </c>
     </row>
     <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="23">
+      <c r="B47" s="20">
         <v>2021</v>
       </c>
-      <c r="C47" s="24">
-        <v>3</v>
+      <c r="C47" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="D47" s="8">
         <f t="shared" si="2"/>
@@ -1502,11 +1538,11 @@
       </c>
     </row>
     <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="21">
+      <c r="B48" s="18">
         <v>2021</v>
       </c>
-      <c r="C48" s="22">
-        <v>2</v>
+      <c r="C48" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D48" s="9">
         <f t="shared" si="2"/>
@@ -1520,11 +1556,11 @@
       </c>
     </row>
     <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="25">
+      <c r="B49" s="22">
         <v>2021</v>
       </c>
-      <c r="C49" s="26">
-        <v>1</v>
+      <c r="C49" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="D49" s="10">
         <f t="shared" si="2"/>
@@ -1538,11 +1574,11 @@
       </c>
     </row>
     <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="27">
+      <c r="B50" s="24">
         <v>2020</v>
       </c>
-      <c r="C50" s="28">
-        <v>12</v>
+      <c r="C50" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="D50" s="12">
         <f t="shared" si="2"/>
@@ -1556,11 +1592,11 @@
       </c>
     </row>
     <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="23">
+      <c r="B51" s="20">
         <v>2020</v>
       </c>
-      <c r="C51" s="24">
-        <v>11</v>
+      <c r="C51" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D51" s="8">
         <f t="shared" si="2"/>
@@ -1574,11 +1610,11 @@
       </c>
     </row>
     <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="21">
+      <c r="B52" s="18">
         <v>2020</v>
       </c>
-      <c r="C52" s="22">
-        <v>10</v>
+      <c r="C52" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" si="2"/>
@@ -1592,11 +1628,11 @@
       </c>
     </row>
     <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="23">
+      <c r="B53" s="20">
         <v>2020</v>
       </c>
-      <c r="C53" s="24">
-        <v>9</v>
+      <c r="C53" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D53" s="8">
         <f t="shared" si="2"/>
@@ -1610,11 +1646,11 @@
       </c>
     </row>
     <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="21">
+      <c r="B54" s="18">
         <v>2020</v>
       </c>
-      <c r="C54" s="22">
-        <v>8</v>
+      <c r="C54" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="D54" s="9">
         <f t="shared" si="2"/>
@@ -1628,11 +1664,11 @@
       </c>
     </row>
     <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="23">
+      <c r="B55" s="20">
         <v>2020</v>
       </c>
-      <c r="C55" s="24">
-        <v>7</v>
+      <c r="C55" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="D55" s="8">
         <f t="shared" si="2"/>
@@ -1646,11 +1682,11 @@
       </c>
     </row>
     <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="21">
+      <c r="B56" s="18">
         <v>2020</v>
       </c>
-      <c r="C56" s="22">
-        <v>6</v>
+      <c r="C56" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" si="2"/>
@@ -1664,11 +1700,11 @@
       </c>
     </row>
     <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="23">
+      <c r="B57" s="20">
         <v>2020</v>
       </c>
-      <c r="C57" s="24">
-        <v>5</v>
+      <c r="C57" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="D57" s="8">
         <f t="shared" si="2"/>
@@ -1682,11 +1718,11 @@
       </c>
     </row>
     <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="21">
+      <c r="B58" s="18">
         <v>2020</v>
       </c>
-      <c r="C58" s="22">
-        <v>4</v>
+      <c r="C58" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" si="2"/>
@@ -1700,11 +1736,11 @@
       </c>
     </row>
     <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="23">
+      <c r="B59" s="20">
         <v>2020</v>
       </c>
-      <c r="C59" s="24">
-        <v>3</v>
+      <c r="C59" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="D59" s="8">
         <f t="shared" si="2"/>
@@ -1718,11 +1754,11 @@
       </c>
     </row>
     <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="21">
+      <c r="B60" s="18">
         <v>2020</v>
       </c>
-      <c r="C60" s="22">
-        <v>2</v>
+      <c r="C60" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" si="2"/>
@@ -1736,11 +1772,11 @@
       </c>
     </row>
     <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="25">
+      <c r="B61" s="22">
         <v>2020</v>
       </c>
-      <c r="C61" s="26">
-        <v>1</v>
+      <c r="C61" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="D61" s="10">
         <f t="shared" si="2"/>
@@ -1754,11 +1790,11 @@
       </c>
     </row>
     <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="27">
+      <c r="B62" s="24">
         <v>2019</v>
       </c>
-      <c r="C62" s="28">
-        <v>12</v>
+      <c r="C62" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="D62" s="12">
         <f t="shared" si="2"/>
@@ -1772,11 +1808,11 @@
       </c>
     </row>
     <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="23">
+      <c r="B63" s="20">
         <v>2019</v>
       </c>
-      <c r="C63" s="24">
-        <v>11</v>
+      <c r="C63" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D63" s="8">
         <f t="shared" si="2"/>
@@ -1790,11 +1826,11 @@
       </c>
     </row>
     <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="21">
+      <c r="B64" s="18">
         <v>2019</v>
       </c>
-      <c r="C64" s="22">
-        <v>10</v>
+      <c r="C64" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D64" s="9">
         <f t="shared" si="2"/>
@@ -1808,11 +1844,11 @@
       </c>
     </row>
     <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="23">
+      <c r="B65" s="20">
         <v>2019</v>
       </c>
-      <c r="C65" s="24">
-        <v>9</v>
+      <c r="C65" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D65" s="8">
         <f t="shared" si="2"/>
@@ -1826,11 +1862,11 @@
       </c>
     </row>
     <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="21">
+      <c r="B66" s="18">
         <v>2019</v>
       </c>
-      <c r="C66" s="22">
-        <v>8</v>
+      <c r="C66" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" si="2"/>
@@ -1844,11 +1880,11 @@
       </c>
     </row>
     <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="23">
+      <c r="B67" s="20">
         <v>2019</v>
       </c>
-      <c r="C67" s="24">
-        <v>7</v>
+      <c r="C67" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="D67" s="8">
         <f t="shared" si="2"/>
@@ -1862,11 +1898,11 @@
       </c>
     </row>
     <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="21">
+      <c r="B68" s="18">
         <v>2019</v>
       </c>
-      <c r="C68" s="22">
-        <v>6</v>
+      <c r="C68" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" si="2"/>
@@ -1880,11 +1916,11 @@
       </c>
     </row>
     <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="23">
+      <c r="B69" s="20">
         <v>2019</v>
       </c>
-      <c r="C69" s="24">
-        <v>5</v>
+      <c r="C69" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="D69" s="8">
         <f t="shared" si="2"/>
@@ -1898,11 +1934,11 @@
       </c>
     </row>
     <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="21">
+      <c r="B70" s="18">
         <v>2019</v>
       </c>
-      <c r="C70" s="22">
-        <v>4</v>
+      <c r="C70" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="D70" s="9">
         <f t="shared" si="2"/>
@@ -1916,11 +1952,11 @@
       </c>
     </row>
     <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="23">
+      <c r="B71" s="20">
         <v>2019</v>
       </c>
-      <c r="C71" s="24">
-        <v>3</v>
+      <c r="C71" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="D71" s="8">
         <f t="shared" si="2"/>
@@ -1934,11 +1970,11 @@
       </c>
     </row>
     <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="21">
+      <c r="B72" s="18">
         <v>2019</v>
       </c>
-      <c r="C72" s="22">
-        <v>2</v>
+      <c r="C72" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" si="2"/>
@@ -1952,11 +1988,11 @@
       </c>
     </row>
     <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="25">
+      <c r="B73" s="22">
         <v>2019</v>
       </c>
-      <c r="C73" s="26">
-        <v>1</v>
+      <c r="C73" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="D73" s="10">
         <f t="shared" ref="D73:D85" si="3">SUM(E73:F73)</f>
@@ -1970,11 +2006,11 @@
       </c>
     </row>
     <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="22">
+      <c r="B74" s="19">
         <v>2018</v>
       </c>
-      <c r="C74" s="22">
-        <v>12</v>
+      <c r="C74" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="D74" s="9">
         <f t="shared" si="3"/>
@@ -1988,11 +2024,11 @@
       </c>
     </row>
     <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="24">
+      <c r="B75" s="21">
         <v>2018</v>
       </c>
-      <c r="C75" s="24">
-        <v>11</v>
+      <c r="C75" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D75" s="8">
         <f t="shared" si="3"/>
@@ -2006,11 +2042,11 @@
       </c>
     </row>
     <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="22">
+      <c r="B76" s="19">
         <v>2018</v>
       </c>
-      <c r="C76" s="22">
-        <v>10</v>
+      <c r="C76" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D76" s="9">
         <f t="shared" si="3"/>
@@ -2024,11 +2060,11 @@
       </c>
     </row>
     <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="24">
+      <c r="B77" s="21">
         <v>2018</v>
       </c>
-      <c r="C77" s="24">
-        <v>9</v>
+      <c r="C77" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D77" s="8">
         <f t="shared" si="3"/>
@@ -2042,11 +2078,11 @@
       </c>
     </row>
     <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="22">
+      <c r="B78" s="19">
         <v>2018</v>
       </c>
-      <c r="C78" s="22">
-        <v>8</v>
+      <c r="C78" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="D78" s="9">
         <f t="shared" si="3"/>
@@ -2060,11 +2096,11 @@
       </c>
     </row>
     <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="24">
+      <c r="B79" s="21">
         <v>2018</v>
       </c>
-      <c r="C79" s="24">
-        <v>7</v>
+      <c r="C79" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="D79" s="8">
         <f t="shared" si="3"/>
@@ -2078,11 +2114,11 @@
       </c>
     </row>
     <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="22">
+      <c r="B80" s="19">
         <v>2018</v>
       </c>
-      <c r="C80" s="22">
-        <v>6</v>
+      <c r="C80" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="3"/>
@@ -2096,11 +2132,11 @@
       </c>
     </row>
     <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="24">
+      <c r="B81" s="21">
         <v>2018</v>
       </c>
-      <c r="C81" s="24">
-        <v>5</v>
+      <c r="C81" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="D81" s="8">
         <f t="shared" si="3"/>
@@ -2114,11 +2150,11 @@
       </c>
     </row>
     <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="22">
+      <c r="B82" s="19">
         <v>2018</v>
       </c>
-      <c r="C82" s="22">
-        <v>4</v>
+      <c r="C82" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" si="3"/>
@@ -2132,11 +2168,11 @@
       </c>
     </row>
     <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="24">
+      <c r="B83" s="21">
         <v>2018</v>
       </c>
-      <c r="C83" s="24">
-        <v>3</v>
+      <c r="C83" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="D83" s="8">
         <f t="shared" si="3"/>
@@ -2150,11 +2186,11 @@
       </c>
     </row>
     <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="22">
+      <c r="B84" s="19">
         <v>2018</v>
       </c>
-      <c r="C84" s="22">
-        <v>2</v>
+      <c r="C84" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D84" s="9">
         <f t="shared" si="3"/>
@@ -2168,11 +2204,11 @@
       </c>
     </row>
     <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="24">
+      <c r="B85" s="21">
         <v>2018</v>
       </c>
-      <c r="C85" s="24">
-        <v>1</v>
+      <c r="C85" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D85" s="8">
         <f t="shared" si="3"/>

--- a/Pasajeros_Total_N_Aero.xlsx
+++ b/Pasajeros_Total_N_Aero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A6A34D-208C-408C-AE56-A89CE7F94518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7E23A6-0366-4F8C-A14B-1CD3B2D07B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="21">
   <si>
     <t>Internacional</t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -112,40 +112,40 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -153,7 +153,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -401,7 +401,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -447,7 +447,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -484,8 +484,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F86" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B5:F86" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F87" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F87" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -509,7 +509,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -517,28 +517,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -547,14 +547,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -729,33 +729,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:F89"/>
+  <dimension ref="B2:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.796875" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="26" t="s">
@@ -764,7 +764,7 @@
       <c r="E4" s="27"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
@@ -781,1476 +781,1494 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="20">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
         <v>2024</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" ref="D6" si="0">SUM(E6:F6)</f>
+        <v>9357768</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5191280</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4166488</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="20">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8">
-        <f>SUM(E6:F6)</f>
+      <c r="D7" s="8">
+        <f>SUM(E7:F7)</f>
         <v>8538425</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>4937405</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
         <v>3601020</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="18">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
         <v>2024</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9">
-        <f t="shared" ref="D7:D41" si="0">SUM(E7:F7)</f>
+      <c r="D8" s="9">
+        <f t="shared" ref="D8:D42" si="1">SUM(E8:F8)</f>
         <v>10075357</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="7">
         <v>5593320</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F8" s="7">
         <v>4482037</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="20">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="20">
         <v>2024</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8">
-        <f t="shared" ref="D8:D10" si="1">SUM(E8:F8)</f>
+      <c r="D9" s="8">
+        <f t="shared" ref="D9:D11" si="2">SUM(E9:F9)</f>
         <v>10786450</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>5691596</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="4">
         <v>5094854</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="18">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
         <v>2024</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9">
-        <f t="shared" si="1"/>
+      <c r="D10" s="9">
+        <f t="shared" si="2"/>
         <v>9831803</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <v>5134740</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="7">
         <v>4697063</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="20">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="20">
         <v>2024</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="8">
-        <f t="shared" si="1"/>
+      <c r="D11" s="8">
+        <f t="shared" si="2"/>
         <v>9757605</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>5236375</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>4521230</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="18">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
         <v>2024</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
+      <c r="D12" s="9">
+        <f t="shared" si="1"/>
         <v>9749542</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="7">
         <v>4981231</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="7">
         <v>4768311</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="20">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="20">
         <v>2024</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="8">
-        <f t="shared" si="0"/>
+      <c r="D13" s="8">
+        <f t="shared" si="1"/>
         <v>10539528</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <v>4863183</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="4">
         <v>5676345</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="18">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="18">
         <v>2024</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="9">
-        <f t="shared" si="0"/>
+      <c r="D14" s="9">
+        <f t="shared" si="1"/>
         <v>9334763</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>4391152</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>4943611</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="22">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="22">
         <v>2024</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="10">
-        <f t="shared" si="0"/>
+      <c r="D15" s="10">
+        <f t="shared" si="1"/>
         <v>10153993</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <v>4807949</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <v>5346044</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="24">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="24">
         <v>2023</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="12">
-        <f t="shared" si="0"/>
+      <c r="D16" s="12">
+        <f t="shared" si="1"/>
         <v>10829188</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>5415680</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F16" s="14">
         <v>5413508</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="20">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="20">
         <v>2023</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="8">
-        <f t="shared" si="0"/>
+      <c r="D17" s="8">
+        <f t="shared" si="1"/>
         <v>9838837</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="4">
         <v>5273853</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F17" s="4">
         <v>4564984</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="18">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
         <v>2023</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="9">
-        <f t="shared" si="0"/>
+      <c r="D18" s="9">
+        <f t="shared" si="1"/>
         <v>9482301</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E18" s="7">
         <v>5416944</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F18" s="7">
         <v>4065357</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="20">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="20">
         <v>2023</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="8">
-        <f t="shared" si="0"/>
+      <c r="D19" s="8">
+        <f t="shared" si="1"/>
         <v>8633272</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <v>5067159</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F19" s="4">
         <v>3566113</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="18">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="18">
         <v>2023</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C20" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="9">
-        <f t="shared" si="0"/>
+      <c r="D20" s="9">
+        <f t="shared" si="1"/>
         <v>10433744</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E20" s="7">
         <v>5976700</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F20" s="7">
         <v>4457044</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="20">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="20">
         <v>2023</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="8">
-        <f t="shared" si="0"/>
+      <c r="D21" s="8">
+        <f t="shared" si="1"/>
         <v>10994672</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <v>5970043</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="4">
         <v>5024629</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="18">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="18">
         <v>2023</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C22" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="9">
-        <f t="shared" si="0"/>
+      <c r="D22" s="9">
+        <f t="shared" si="1"/>
         <v>9688779</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E22" s="7">
         <v>5246474</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F22" s="7">
         <v>4442305</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="20">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="20">
         <v>2023</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C23" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="8">
-        <f t="shared" si="0"/>
+      <c r="D23" s="8">
+        <f t="shared" si="1"/>
         <v>9507284</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <v>5270951</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F23" s="4">
         <v>4236333</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="18">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="18">
         <v>2023</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="9">
-        <f t="shared" si="0"/>
+      <c r="D24" s="9">
+        <f t="shared" si="1"/>
         <v>9919095</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E24" s="7">
         <v>5341258</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="7">
         <v>4577837</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="20">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="20">
         <v>2023</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C25" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="8">
-        <f t="shared" si="0"/>
+      <c r="D25" s="8">
+        <f t="shared" si="1"/>
         <v>10259682</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="4">
         <v>5215128</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F25" s="4">
         <v>5044554</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="18">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="18">
         <v>2023</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="9">
-        <f t="shared" si="0"/>
+      <c r="D26" s="9">
+        <f t="shared" si="1"/>
         <v>8840768</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E26" s="7">
         <v>4453469</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="7">
         <v>4387299</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="22">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="22">
         <v>2023</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C27" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="10">
-        <f t="shared" si="0"/>
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
         <v>9936455</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="6">
         <v>4978979</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="6">
         <v>4957476</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="24">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="24">
         <v>2022</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C28" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="12">
-        <f t="shared" si="0"/>
+      <c r="D28" s="12">
+        <f t="shared" si="1"/>
         <v>10328957</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>5458695</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>4870262</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="20">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="20">
         <v>2022</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C29" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="8">
-        <f t="shared" si="0"/>
+      <c r="D29" s="8">
+        <f t="shared" si="1"/>
         <v>9564350</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="4">
         <v>5216824</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F29" s="4">
         <v>4347526</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="18">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="18">
         <v>2022</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C30" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="9">
-        <f t="shared" si="0"/>
+      <c r="D30" s="9">
+        <f t="shared" si="1"/>
         <v>9047728</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E30" s="7">
         <v>5177608</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F30" s="7">
         <v>3870120</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="20">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="20">
         <v>2022</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C31" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="8">
-        <f t="shared" si="0"/>
+      <c r="D31" s="8">
+        <f t="shared" si="1"/>
         <v>8162159</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E31" s="4">
         <v>4687975</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F31" s="4">
         <v>3474184</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="18">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="18">
         <v>2022</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C32" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="9">
-        <f t="shared" si="0"/>
+      <c r="D32" s="9">
+        <f t="shared" si="1"/>
         <v>9454996</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E32" s="7">
         <v>5202467</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F32" s="7">
         <v>4252529</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="20">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="20">
         <v>2022</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C33" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="8">
-        <f t="shared" si="0"/>
+      <c r="D33" s="8">
+        <f t="shared" si="1"/>
         <v>10042169</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E33" s="4">
         <v>5313681</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F33" s="4">
         <v>4728488</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="18">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="18">
         <v>2022</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C34" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="9">
-        <f t="shared" si="0"/>
+      <c r="D34" s="9">
+        <f t="shared" si="1"/>
         <v>8909540</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E34" s="7">
         <v>4660739</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F34" s="7">
         <v>4248801</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="20">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="20">
         <v>2022</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C35" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="8">
-        <f t="shared" si="0"/>
+      <c r="D35" s="8">
+        <f t="shared" si="1"/>
         <v>8894356</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="4">
         <v>4864477</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F35" s="4">
         <v>4029879</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="18">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="18">
         <v>2022</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C36" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="9">
-        <f t="shared" si="0"/>
+      <c r="D36" s="9">
+        <f t="shared" si="1"/>
         <v>8965893</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E36" s="7">
         <v>4744599</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F36" s="7">
         <v>4221294</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="20">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="20">
         <v>2022</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C37" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="8">
-        <f t="shared" si="0"/>
+      <c r="D37" s="8">
+        <f t="shared" si="1"/>
         <v>8932243</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E37" s="4">
         <v>4477915</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F37" s="4">
         <v>4454328</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="18">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="18">
         <v>2022</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C38" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="9">
-        <f t="shared" si="0"/>
+      <c r="D38" s="9">
+        <f t="shared" si="1"/>
         <v>7028818</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E38" s="7">
         <v>3568589</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>3460229</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="22">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="22">
         <v>2022</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C39" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="10">
-        <f t="shared" si="0"/>
+      <c r="D39" s="10">
+        <f t="shared" si="1"/>
         <v>7524409</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E39" s="6">
         <v>3789823</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F39" s="6">
         <v>3734586</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="24">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="24">
         <v>2021</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C40" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="12">
-        <f t="shared" si="0"/>
+      <c r="D40" s="12">
+        <f t="shared" si="1"/>
         <v>8858284</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>4685952</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>4172332</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="20">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="20">
         <v>2021</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C41" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="8">
-        <f t="shared" si="0"/>
+      <c r="D41" s="8">
+        <f t="shared" si="1"/>
         <v>8044448</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E41" s="4">
         <v>4338222</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F41" s="4">
         <v>3706226</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="18">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="18">
         <v>2021</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C42" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="9">
-        <f t="shared" si="0"/>
+      <c r="D42" s="9">
+        <f t="shared" si="1"/>
         <v>7434983</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E42" s="7">
         <v>4148811</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F42" s="7">
         <v>3286172</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="20">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="20">
         <v>2021</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C43" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="8">
-        <f t="shared" ref="D42:D73" si="2">SUM(E42:F42)</f>
+      <c r="D43" s="8">
+        <f t="shared" ref="D43:D74" si="3">SUM(E43:F43)</f>
         <v>6335718</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E43" s="4">
         <v>3602892</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F43" s="4">
         <v>2732826</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="18">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="18">
         <v>2021</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C44" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="9">
-        <f t="shared" si="2"/>
+      <c r="D44" s="9">
+        <f t="shared" si="3"/>
         <v>7407170</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E44" s="7">
         <v>3994397</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F44" s="7">
         <v>3412773</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="20">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="20">
         <v>2021</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C45" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="8">
-        <f t="shared" si="2"/>
+      <c r="D45" s="8">
+        <f t="shared" si="3"/>
         <v>8256002</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E45" s="4">
         <v>4365429</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F45" s="4">
         <v>3890573</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="18">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="18">
         <v>2021</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C46" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="9">
-        <f t="shared" si="2"/>
+      <c r="D46" s="9">
+        <f t="shared" si="3"/>
         <v>7317711</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E46" s="7">
         <v>3834253</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F46" s="7">
         <v>3483458</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="20">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="20">
         <v>2021</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C47" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="8">
-        <f t="shared" si="2"/>
+      <c r="D47" s="8">
+        <f t="shared" si="3"/>
         <v>6934293</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E47" s="4">
         <v>3818846</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F47" s="4">
         <v>3115447</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="18">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="18">
         <v>2021</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C48" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="9">
-        <f t="shared" si="2"/>
+      <c r="D48" s="9">
+        <f t="shared" si="3"/>
         <v>5986797</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E48" s="7">
         <v>3478623</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F48" s="7">
         <v>2508174</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="20">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="20">
         <v>2021</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C49" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="8">
-        <f t="shared" si="2"/>
+      <c r="D49" s="8">
+        <f t="shared" si="3"/>
         <v>5308998</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E49" s="4">
         <v>3169991</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F49" s="4">
         <v>2139007</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="18">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="18">
         <v>2021</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C50" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="9">
-        <f t="shared" si="2"/>
+      <c r="D50" s="9">
+        <f t="shared" si="3"/>
         <v>3515246</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E50" s="7">
         <v>2221947</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F50" s="7">
         <v>1293299</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="22">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="22">
         <v>2021</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C51" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="10">
-        <f t="shared" si="2"/>
+      <c r="D51" s="10">
+        <f t="shared" si="3"/>
         <v>4603651</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E51" s="6">
         <v>2703105</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F51" s="6">
         <v>1900546</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="24">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="24">
         <v>2020</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C52" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="12">
-        <f t="shared" si="2"/>
+      <c r="D52" s="12">
+        <f t="shared" si="3"/>
         <v>5262897</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>3144137</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>2118760</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="20">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="20">
         <v>2020</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C53" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="8">
-        <f t="shared" si="2"/>
+      <c r="D53" s="8">
+        <f t="shared" si="3"/>
         <v>4568948</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E53" s="4">
         <v>2920098</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F53" s="4">
         <v>1648850</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="18">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="18">
         <v>2020</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C54" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="9">
-        <f t="shared" si="2"/>
+      <c r="D54" s="9">
+        <f t="shared" si="3"/>
         <v>4066515</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E54" s="7">
         <v>2708781</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F54" s="7">
         <v>1357734</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="20">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="20">
         <v>2020</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C55" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="8">
-        <f t="shared" si="2"/>
+      <c r="D55" s="8">
+        <f t="shared" si="3"/>
         <v>3283162</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E55" s="4">
         <v>2317729</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F55" s="4">
         <v>965433</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="18">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="18">
         <v>2020</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C56" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="9">
-        <f t="shared" si="2"/>
+      <c r="D56" s="9">
+        <f t="shared" si="3"/>
         <v>3035521</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E56" s="7">
         <v>2120271</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F56" s="7">
         <v>915250</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="20">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="20">
         <v>2020</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C57" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="8">
-        <f t="shared" si="2"/>
+      <c r="D57" s="8">
+        <f t="shared" si="3"/>
         <v>2412156</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E57" s="4">
         <v>1672969</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F57" s="4">
         <v>739187</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="18">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="18">
         <v>2020</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C58" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="9">
-        <f t="shared" si="2"/>
+      <c r="D58" s="9">
+        <f t="shared" si="3"/>
         <v>1180756</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E58" s="7">
         <v>886076</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F58" s="7">
         <v>294680</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="20">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="20">
         <v>2020</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C59" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="8">
-        <f t="shared" si="2"/>
+      <c r="D59" s="8">
+        <f t="shared" si="3"/>
         <v>488531</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E59" s="4">
         <v>385641</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F59" s="4">
         <v>102890</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="18">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="18">
         <v>2020</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C60" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="9">
-        <f t="shared" si="2"/>
+      <c r="D60" s="9">
+        <f t="shared" si="3"/>
         <v>509441</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E60" s="7">
         <v>413225</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F60" s="7">
         <v>96216</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="20">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="20">
         <v>2020</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C61" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="8">
-        <f t="shared" si="2"/>
+      <c r="D61" s="8">
+        <f t="shared" si="3"/>
         <v>5886542</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E61" s="4">
         <v>3142005</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F61" s="4">
         <v>2744537</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="18">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="18">
         <v>2020</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C62" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="9">
-        <f t="shared" si="2"/>
+      <c r="D62" s="9">
+        <f t="shared" si="3"/>
         <v>8319634</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E62" s="7">
         <v>4091826</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F62" s="7">
         <v>4227808</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="22">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="22">
         <v>2020</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C63" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="10">
-        <f t="shared" si="2"/>
+      <c r="D63" s="10">
+        <f t="shared" si="3"/>
         <v>9065514</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E63" s="6">
         <v>4433703</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F63" s="6">
         <v>4631811</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="24">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="24">
         <v>2019</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C64" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="12">
-        <f t="shared" si="2"/>
+      <c r="D64" s="12">
+        <f t="shared" si="3"/>
         <v>9358660</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>4755157</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>4603503</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="20">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="20">
         <v>2019</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C65" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="8">
-        <f t="shared" si="2"/>
+      <c r="D65" s="8">
+        <f t="shared" si="3"/>
         <v>8545618</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E65" s="4">
         <v>4611815</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F65" s="4">
         <v>3933803</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="18">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="18">
         <v>2019</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C66" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="9">
-        <f t="shared" si="2"/>
+      <c r="D66" s="9">
+        <f t="shared" si="3"/>
         <v>8005724</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E66" s="7">
         <v>4617022</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F66" s="7">
         <v>3388702</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="20">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="20">
         <v>2019</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C67" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="8">
-        <f t="shared" si="2"/>
+      <c r="D67" s="8">
+        <f t="shared" si="3"/>
         <v>7233383</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E67" s="4">
         <v>4187402</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F67" s="4">
         <v>3045981</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="18">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="18">
         <v>2019</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C68" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="9">
-        <f t="shared" si="2"/>
+      <c r="D68" s="9">
+        <f t="shared" si="3"/>
         <v>8708818</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E68" s="7">
         <v>4765181</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F68" s="7">
         <v>3943637</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="20">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="20">
         <v>2019</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C69" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="8">
-        <f t="shared" si="2"/>
+      <c r="D69" s="8">
+        <f t="shared" si="3"/>
         <v>9445888</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E69" s="4">
         <v>5005061</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F69" s="4">
         <v>4440827</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="18">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="18">
         <v>2019</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C70" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="9">
-        <f t="shared" si="2"/>
+      <c r="D70" s="9">
+        <f t="shared" si="3"/>
         <v>8525678</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E70" s="7">
         <v>4555762</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F70" s="7">
         <v>3969916</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="20">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="20">
         <v>2019</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C71" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="8">
-        <f t="shared" si="2"/>
+      <c r="D71" s="8">
+        <f t="shared" si="3"/>
         <v>8482898</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E71" s="4">
         <v>4704389</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F71" s="4">
         <v>3778509</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="18">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="18">
         <v>2019</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C72" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="9">
-        <f t="shared" si="2"/>
+      <c r="D72" s="9">
+        <f t="shared" si="3"/>
         <v>8548334</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E72" s="7">
         <v>4438332</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F72" s="7">
         <v>4110002</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="20">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="20">
         <v>2019</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C73" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="8">
-        <f t="shared" si="2"/>
+      <c r="D73" s="8">
+        <f t="shared" si="3"/>
         <v>8887698</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E73" s="4">
         <v>4310865</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F73" s="4">
         <v>4576833</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="18">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="18">
         <v>2019</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C74" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="9">
-        <f t="shared" si="2"/>
+      <c r="D74" s="9">
+        <f t="shared" si="3"/>
         <v>7407471</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E74" s="7">
         <v>3590917</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F74" s="7">
         <v>3816554</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="22">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="22">
         <v>2019</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C75" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="10">
-        <f t="shared" ref="D74:D86" si="3">SUM(E74:F74)</f>
+      <c r="D75" s="10">
+        <f t="shared" ref="D75:D87" si="4">SUM(E75:F75)</f>
         <v>8273412</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E75" s="6">
         <v>3989338</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F75" s="6">
         <v>4284074</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="19">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="19">
         <v>2018</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C76" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="9">
-        <f t="shared" si="3"/>
+      <c r="D76" s="9">
+        <f t="shared" si="4"/>
         <v>8744817</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E76" s="7">
         <v>4400768</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F76" s="7">
         <v>4344049</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="21">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="21">
         <v>2018</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C77" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="8">
-        <f t="shared" si="3"/>
+      <c r="D77" s="8">
+        <f t="shared" si="4"/>
         <v>8065105</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E77" s="4">
         <v>4287344</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F77" s="4">
         <v>3777761</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="19">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="19">
         <v>2018</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C78" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="9">
-        <f t="shared" si="3"/>
+      <c r="D78" s="9">
+        <f t="shared" si="4"/>
         <v>7563067</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E78" s="7">
         <v>4246079</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F78" s="7">
         <v>3316988</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="21">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="21">
         <v>2018</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C79" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="8">
-        <f t="shared" si="3"/>
+      <c r="D79" s="8">
+        <f t="shared" si="4"/>
         <v>6852045</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E79" s="4">
         <v>3900894</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F79" s="4">
         <v>2951151</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="19">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="19">
         <v>2018</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C80" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="9">
-        <f t="shared" si="3"/>
+      <c r="D80" s="9">
+        <f t="shared" si="4"/>
         <v>8297341</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E80" s="7">
         <v>4416844</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F80" s="7">
         <v>3880497</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="21">
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="21">
         <v>2018</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C81" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="8">
-        <f t="shared" si="3"/>
+      <c r="D81" s="8">
+        <f t="shared" si="4"/>
         <v>9056178</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E81" s="4">
         <v>4689606</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F81" s="4">
         <v>4366572</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="19">
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="19">
         <v>2018</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C82" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="9">
-        <f t="shared" si="3"/>
+      <c r="D82" s="9">
+        <f t="shared" si="4"/>
         <v>8006308</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E82" s="7">
         <v>4087227</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F82" s="7">
         <v>3919081</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="21">
+    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="21">
         <v>2018</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C83" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="8">
-        <f t="shared" si="3"/>
+      <c r="D83" s="8">
+        <f t="shared" si="4"/>
         <v>7817504</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E83" s="4">
         <v>4163127</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F83" s="4">
         <v>3654377</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="19">
+    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="19">
         <v>2018</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C84" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="9">
-        <f t="shared" si="3"/>
+      <c r="D84" s="9">
+        <f t="shared" si="4"/>
         <v>8098666</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E84" s="7">
         <v>4096821</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F84" s="7">
         <v>4001845</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="21">
+    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="21">
         <v>2018</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C85" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="8">
-        <f t="shared" si="3"/>
+      <c r="D85" s="8">
+        <f t="shared" si="4"/>
         <v>8610022</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E85" s="4">
         <v>4048811</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F85" s="4">
         <v>4561211</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="19">
+    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="19">
         <v>2018</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C86" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="9">
-        <f t="shared" si="3"/>
+      <c r="D86" s="9">
+        <f t="shared" si="4"/>
         <v>7192032</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E86" s="7">
         <v>3422954</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F86" s="7">
         <v>3769078</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="21">
+    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="21">
         <v>2018</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C87" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="8">
-        <f t="shared" si="3"/>
+      <c r="D87" s="8">
+        <f t="shared" si="4"/>
         <v>8102943</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E87" s="4">
         <v>3774420</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F87" s="4">
         <v>4328523</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="F89" s="3"/>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_Total_N_Aero.xlsx
+++ b/Pasajeros_Total_N_Aero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7E23A6-0366-4F8C-A14B-1CD3B2D07B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE8F09B-65E6-4B40-8073-3F4183DB3951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="21">
   <si>
     <t>Internacional</t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -117,19 +117,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
@@ -143,18 +130,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -306,66 +309,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,16 +335,133 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
@@ -401,16 +477,40 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -434,42 +534,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Geomanist"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -484,23 +548,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F87" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B5:F87" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F88" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="B5:F88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{09C724ED-6D33-4E09-AC32-69B120D7D3F0}" name="Mes" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{09C724ED-6D33-4E09-AC32-69B120D7D3F0}" name="Mes" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="4">
       <calculatedColumnFormula>SUM(E6:F6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Nacional" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Internacional" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Nacional" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Internacional" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -729,1552 +792,1571 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:F90"/>
+  <dimension ref="B2:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="5.5" customWidth="1"/>
-    <col min="4" max="4" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="26" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="12">
         <v>2024</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="14">
+        <f>SUM(E6:F6)</f>
+        <v>10113653</v>
+      </c>
+      <c r="E6" s="15">
+        <v>5252879</v>
+      </c>
+      <c r="F6" s="15">
+        <v>4860774</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="16">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" ref="D6" si="0">SUM(E6:F6)</f>
+      <c r="D7" s="18">
+        <f t="shared" ref="D7" si="0">SUM(E7:F7)</f>
         <v>9357768</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="19">
         <v>5191280</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="19">
         <v>4166488</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="12">
         <v>2024</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8">
-        <f>SUM(E7:F7)</f>
+      <c r="D8" s="14">
+        <f>SUM(E8:F8)</f>
         <v>8538425</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="15">
         <v>4937405</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="15">
         <v>3601020</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="16">
         <v>2024</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9">
-        <f t="shared" ref="D8:D42" si="1">SUM(E8:F8)</f>
+      <c r="D9" s="18">
+        <f t="shared" ref="D9:D43" si="1">SUM(E9:F9)</f>
         <v>10075357</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="19">
         <v>5593320</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="19">
         <v>4482037</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="20">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" ref="D9:D11" si="2">SUM(E9:F9)</f>
+      <c r="D10" s="14">
+        <f t="shared" ref="D10:D12" si="2">SUM(E10:F10)</f>
         <v>10786450</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="15">
         <v>5691596</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="15">
         <v>5094854</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="18">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="16">
         <v>2024</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="18">
         <f t="shared" si="2"/>
         <v>9831803</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="19">
         <v>5134740</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="19">
         <v>4697063</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="20">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="14">
         <f t="shared" si="2"/>
         <v>9757605</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="15">
         <v>5236375</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="15">
         <v>4521230</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="18">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="16">
         <v>2024</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="18">
         <f t="shared" si="1"/>
         <v>9749542</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="19">
         <v>4981231</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="19">
         <v>4768311</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="20">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="14">
         <f t="shared" si="1"/>
         <v>10539528</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="15">
         <v>4863183</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="15">
         <v>5676345</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="18">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="16">
         <v>2024</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="18">
         <f t="shared" si="1"/>
         <v>9334763</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="19">
         <v>4391152</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="19">
         <v>4943611</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="22">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="20">
         <v>2024</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="22">
         <f t="shared" si="1"/>
         <v>10153993</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="23">
         <v>4807949</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="23">
         <v>5346044</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="24">
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="24">
         <v>2023</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C17" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="26">
         <f t="shared" si="1"/>
         <v>10829188</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="27">
         <v>5415680</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F17" s="28">
         <v>5413508</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="20">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="12">
         <v>2023</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="14">
         <f t="shared" si="1"/>
         <v>9838837</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="15">
         <v>5273853</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F18" s="15">
         <v>4564984</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="18">
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="16">
         <v>2023</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="18">
         <f t="shared" si="1"/>
         <v>9482301</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="19">
         <v>5416944</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="19">
         <v>4065357</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="20">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="12">
         <v>2023</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="14">
         <f t="shared" si="1"/>
         <v>8633272</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="15">
         <v>5067159</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="15">
         <v>3566113</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="18">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="16">
         <v>2023</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="18">
         <f t="shared" si="1"/>
         <v>10433744</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="19">
         <v>5976700</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="19">
         <v>4457044</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="20">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="14">
         <f t="shared" si="1"/>
         <v>10994672</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="15">
         <v>5970043</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="15">
         <v>5024629</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="18">
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="16">
         <v>2023</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="18">
         <f t="shared" si="1"/>
         <v>9688779</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="19">
         <v>5246474</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="19">
         <v>4442305</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="20">
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="14">
         <f t="shared" si="1"/>
         <v>9507284</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="15">
         <v>5270951</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="15">
         <v>4236333</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="18">
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="16">
         <v>2023</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C25" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="18">
         <f t="shared" si="1"/>
         <v>9919095</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="19">
         <v>5341258</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="19">
         <v>4577837</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="20">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="14">
         <f t="shared" si="1"/>
         <v>10259682</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="15">
         <v>5215128</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F26" s="15">
         <v>5044554</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="18">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="16">
         <v>2023</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="18">
         <f t="shared" si="1"/>
         <v>8840768</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E27" s="19">
         <v>4453469</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="19">
         <v>4387299</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="22">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="20">
         <v>2023</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C28" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="22">
         <f t="shared" si="1"/>
         <v>9936455</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="23">
         <v>4978979</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F28" s="23">
         <v>4957476</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="24">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="24">
         <v>2022</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C29" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="26">
         <f t="shared" si="1"/>
         <v>10328957</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="27">
         <v>5458695</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="27">
         <v>4870262</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="20">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="12">
         <v>2022</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C30" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="14">
         <f t="shared" si="1"/>
         <v>9564350</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="15">
         <v>5216824</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="15">
         <v>4347526</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="18">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="16">
         <v>2022</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="18">
         <f t="shared" si="1"/>
         <v>9047728</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="19">
         <v>5177608</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F31" s="19">
         <v>3870120</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="20">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="12">
         <v>2022</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C32" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="14">
         <f t="shared" si="1"/>
         <v>8162159</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="15">
         <v>4687975</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="15">
         <v>3474184</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="18">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="16">
         <v>2022</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C33" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="18">
         <f t="shared" si="1"/>
         <v>9454996</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E33" s="19">
         <v>5202467</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="19">
         <v>4252529</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="20">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C34" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="14">
         <f t="shared" si="1"/>
         <v>10042169</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="15">
         <v>5313681</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F34" s="15">
         <v>4728488</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="18">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="16">
         <v>2022</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="18">
         <f t="shared" si="1"/>
         <v>8909540</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="19">
         <v>4660739</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F35" s="19">
         <v>4248801</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="20">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C36" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="14">
         <f t="shared" si="1"/>
         <v>8894356</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="15">
         <v>4864477</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F36" s="15">
         <v>4029879</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="18">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="16">
         <v>2022</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C37" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="18">
         <f t="shared" si="1"/>
         <v>8965893</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="19">
         <v>4744599</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F37" s="19">
         <v>4221294</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="20">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C38" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="14">
         <f t="shared" si="1"/>
         <v>8932243</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E38" s="15">
         <v>4477915</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F38" s="15">
         <v>4454328</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="18">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="16">
         <v>2022</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C39" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="18">
         <f t="shared" si="1"/>
         <v>7028818</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="19">
         <v>3568589</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="19">
         <v>3460229</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="22">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="20">
         <v>2022</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C40" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="22">
         <f t="shared" si="1"/>
         <v>7524409</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="23">
         <v>3789823</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F40" s="23">
         <v>3734586</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="24">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="24">
         <v>2021</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C41" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D41" s="26">
         <f t="shared" si="1"/>
         <v>8858284</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="27">
         <v>4685952</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="27">
         <v>4172332</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="20">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="12">
         <v>2021</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C42" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="14">
         <f t="shared" si="1"/>
         <v>8044448</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="15">
         <v>4338222</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F42" s="15">
         <v>3706226</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="18">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="16">
         <v>2021</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C43" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="18">
         <f t="shared" si="1"/>
         <v>7434983</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E43" s="19">
         <v>4148811</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="19">
         <v>3286172</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="20">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="12">
         <v>2021</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C44" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="8">
-        <f t="shared" ref="D43:D74" si="3">SUM(E43:F43)</f>
+      <c r="D44" s="14">
+        <f t="shared" ref="D44:D75" si="3">SUM(E44:F44)</f>
         <v>6335718</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="15">
         <v>3602892</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F44" s="15">
         <v>2732826</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="18">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="16">
         <v>2021</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C45" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="18">
         <f t="shared" si="3"/>
         <v>7407170</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E45" s="19">
         <v>3994397</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="19">
         <v>3412773</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="20">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C46" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="14">
         <f t="shared" si="3"/>
         <v>8256002</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="15">
         <v>4365429</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F46" s="15">
         <v>3890573</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="18">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="16">
         <v>2021</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="18">
         <f t="shared" si="3"/>
         <v>7317711</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E47" s="19">
         <v>3834253</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F47" s="19">
         <v>3483458</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="20">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C48" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="14">
         <f t="shared" si="3"/>
         <v>6934293</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="15">
         <v>3818846</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F48" s="15">
         <v>3115447</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="18">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="16">
         <v>2021</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C49" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="18">
         <f t="shared" si="3"/>
         <v>5986797</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E49" s="19">
         <v>3478623</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F49" s="19">
         <v>2508174</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="20">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C50" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="14">
         <f t="shared" si="3"/>
         <v>5308998</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E50" s="15">
         <v>3169991</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F50" s="15">
         <v>2139007</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="16">
         <v>2021</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C51" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="18">
         <f t="shared" si="3"/>
         <v>3515246</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E51" s="19">
         <v>2221947</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F51" s="19">
         <v>1293299</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="22">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="20">
         <v>2021</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C52" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D52" s="22">
         <f t="shared" si="3"/>
         <v>4603651</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="23">
         <v>2703105</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F52" s="23">
         <v>1900546</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="24">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="24">
         <v>2020</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C53" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D53" s="26">
         <f t="shared" si="3"/>
         <v>5262897</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="27">
         <v>3144137</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="27">
         <v>2118760</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="20">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="12">
         <v>2020</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C54" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="14">
         <f t="shared" si="3"/>
         <v>4568948</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E54" s="15">
         <v>2920098</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F54" s="15">
         <v>1648850</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="18">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="16">
         <v>2020</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C55" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="18">
         <f t="shared" si="3"/>
         <v>4066515</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E55" s="19">
         <v>2708781</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F55" s="19">
         <v>1357734</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="20">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="12">
         <v>2020</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C56" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D56" s="14">
         <f t="shared" si="3"/>
         <v>3283162</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E56" s="15">
         <v>2317729</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F56" s="15">
         <v>965433</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="18">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="16">
         <v>2020</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C57" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="18">
         <f t="shared" si="3"/>
         <v>3035521</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E57" s="19">
         <v>2120271</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F57" s="19">
         <v>915250</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="20">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C58" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="14">
         <f t="shared" si="3"/>
         <v>2412156</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E58" s="15">
         <v>1672969</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F58" s="15">
         <v>739187</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="18">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="16">
         <v>2020</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="18">
         <f t="shared" si="3"/>
         <v>1180756</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E59" s="19">
         <v>886076</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F59" s="19">
         <v>294680</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="20">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C60" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D60" s="14">
         <f t="shared" si="3"/>
         <v>488531</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="15">
         <v>385641</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F60" s="15">
         <v>102890</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="18">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="16">
         <v>2020</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C61" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="18">
         <f t="shared" si="3"/>
         <v>509441</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E61" s="19">
         <v>413225</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F61" s="19">
         <v>96216</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="20">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C62" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="14">
         <f t="shared" si="3"/>
         <v>5886542</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E62" s="15">
         <v>3142005</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F62" s="15">
         <v>2744537</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="18">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="16">
         <v>2020</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C63" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="18">
         <f t="shared" si="3"/>
         <v>8319634</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E63" s="19">
         <v>4091826</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F63" s="19">
         <v>4227808</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="22">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="20">
         <v>2020</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C64" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D64" s="22">
         <f t="shared" si="3"/>
         <v>9065514</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E64" s="23">
         <v>4433703</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F64" s="23">
         <v>4631811</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="24">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="24">
         <v>2019</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C65" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="26">
         <f t="shared" si="3"/>
         <v>9358660</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="27">
         <v>4755157</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="27">
         <v>4603503</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="20">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="12">
         <v>2019</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C66" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="14">
         <f t="shared" si="3"/>
         <v>8545618</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E66" s="15">
         <v>4611815</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F66" s="15">
         <v>3933803</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="18">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="16">
         <v>2019</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C67" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="18">
         <f t="shared" si="3"/>
         <v>8005724</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E67" s="19">
         <v>4617022</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F67" s="19">
         <v>3388702</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="20">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="12">
         <v>2019</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C68" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D68" s="14">
         <f t="shared" si="3"/>
         <v>7233383</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E68" s="15">
         <v>4187402</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F68" s="15">
         <v>3045981</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="18">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="16">
         <v>2019</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C69" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="18">
         <f t="shared" si="3"/>
         <v>8708818</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E69" s="19">
         <v>4765181</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F69" s="19">
         <v>3943637</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="20">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C70" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D70" s="14">
         <f t="shared" si="3"/>
         <v>9445888</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E70" s="15">
         <v>5005061</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F70" s="15">
         <v>4440827</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="18">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="16">
         <v>2019</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C71" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="18">
         <f t="shared" si="3"/>
         <v>8525678</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E71" s="19">
         <v>4555762</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F71" s="19">
         <v>3969916</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="20">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C72" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D72" s="14">
         <f t="shared" si="3"/>
         <v>8482898</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E72" s="15">
         <v>4704389</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F72" s="15">
         <v>3778509</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="18">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="16">
         <v>2019</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C73" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="18">
         <f t="shared" si="3"/>
         <v>8548334</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E73" s="19">
         <v>4438332</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F73" s="19">
         <v>4110002</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="20">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C74" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="14">
         <f t="shared" si="3"/>
         <v>8887698</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E74" s="15">
         <v>4310865</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F74" s="15">
         <v>4576833</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="18">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="16">
         <v>2019</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C75" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="18">
         <f t="shared" si="3"/>
         <v>7407471</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E75" s="19">
         <v>3590917</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F75" s="19">
         <v>3816554</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="22">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="20">
         <v>2019</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C76" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="10">
-        <f t="shared" ref="D75:D87" si="4">SUM(E75:F75)</f>
+      <c r="D76" s="22">
+        <f t="shared" ref="D76:D88" si="4">SUM(E76:F76)</f>
         <v>8273412</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="23">
         <v>3989338</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F76" s="23">
         <v>4284074</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="19">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="17">
         <v>2018</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C77" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D77" s="18">
         <f t="shared" si="4"/>
         <v>8744817</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E77" s="19">
         <v>4400768</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F77" s="19">
         <v>4344049</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="21">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="13">
         <v>2018</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C78" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="14">
         <f t="shared" si="4"/>
         <v>8065105</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="15">
         <v>4287344</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F78" s="15">
         <v>3777761</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="19">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="17">
         <v>2018</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C79" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="18">
         <f t="shared" si="4"/>
         <v>7563067</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E79" s="19">
         <v>4246079</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F79" s="19">
         <v>3316988</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="21">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C80" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="14">
         <f t="shared" si="4"/>
         <v>6852045</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E80" s="15">
         <v>3900894</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F80" s="15">
         <v>2951151</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="19">
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="17">
         <v>2018</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C81" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="18">
         <f t="shared" si="4"/>
         <v>8297341</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E81" s="19">
         <v>4416844</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F81" s="19">
         <v>3880497</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="21">
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C82" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="14">
         <f t="shared" si="4"/>
         <v>9056178</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E82" s="15">
         <v>4689606</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F82" s="15">
         <v>4366572</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="19">
+    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="17">
         <v>2018</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C83" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="18">
         <f t="shared" si="4"/>
         <v>8006308</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E83" s="19">
         <v>4087227</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F83" s="19">
         <v>3919081</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="21">
+    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C84" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D84" s="14">
         <f t="shared" si="4"/>
         <v>7817504</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E84" s="15">
         <v>4163127</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F84" s="15">
         <v>3654377</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="19">
+    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="17">
         <v>2018</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C85" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="18">
         <f t="shared" si="4"/>
         <v>8098666</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E85" s="19">
         <v>4096821</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F85" s="19">
         <v>4001845</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="21">
+    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C86" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="14">
         <f t="shared" si="4"/>
         <v>8610022</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E86" s="15">
         <v>4048811</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F86" s="15">
         <v>4561211</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="19">
+    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="17">
         <v>2018</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C87" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="18">
         <f t="shared" si="4"/>
         <v>7192032</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E87" s="19">
         <v>3422954</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F87" s="19">
         <v>3769078</v>
       </c>
     </row>
-    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="21">
+    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C88" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="14">
         <f t="shared" si="4"/>
         <v>8102943</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E88" s="15">
         <v>3774420</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F88" s="15">
         <v>4328523</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B89" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B90" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F90" s="3"/>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F91" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:F4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Pasajeros_Total_N_Aero.xlsx
+++ b/Pasajeros_Total_N_Aero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE8F09B-65E6-4B40-8073-3F4183DB3951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00345A3B-69B9-45CD-A21A-AE169A37C0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="21">
   <si>
     <t>Internacional</t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -326,15 +326,6 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -380,62 +371,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -534,6 +484,56 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -548,8 +548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F88" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8">
-  <autoFilter ref="B5:F88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F89" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -557,13 +557,13 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{09C724ED-6D33-4E09-AC32-69B120D7D3F0}" name="Mes" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{09C724ED-6D33-4E09-AC32-69B120D7D3F0}" name="Mes" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="2">
       <calculatedColumnFormula>SUM(E6:F6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Nacional" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Internacional" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Nacional" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Internacional" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -792,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:F91"/>
+  <dimension ref="B2:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -822,1535 +822,1553 @@
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="12">
+      <c r="B6" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15">
+        <f>SUM(E6:F6)</f>
+        <v>11228251</v>
+      </c>
+      <c r="E6" s="16">
+        <v>5469205</v>
+      </c>
+      <c r="F6" s="16">
+        <v>5759046</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="14">
-        <f>SUM(E6:F6)</f>
+      <c r="D7" s="11">
+        <f>SUM(E7:F7)</f>
         <v>10113653</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E7" s="12">
         <v>5252879</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F7" s="12">
         <v>4860774</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="16">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="13">
         <v>2024</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="18">
-        <f t="shared" ref="D7" si="0">SUM(E7:F7)</f>
+      <c r="D8" s="15">
+        <f t="shared" ref="D8" si="0">SUM(E8:F8)</f>
         <v>9357768</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E8" s="16">
         <v>5191280</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F8" s="16">
         <v>4166488</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="12">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="9">
         <v>2024</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="14">
-        <f>SUM(E8:F8)</f>
+      <c r="D9" s="11">
+        <f>SUM(E9:F9)</f>
         <v>8538425</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E9" s="12">
         <v>4937405</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F9" s="12">
         <v>3601020</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="16">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="18">
-        <f t="shared" ref="D9:D43" si="1">SUM(E9:F9)</f>
-        <v>10075357</v>
-      </c>
-      <c r="E9" s="19">
-        <v>5593320</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="D10" s="15">
+        <f t="shared" ref="D10:D44" si="1">SUM(E10:F10)</f>
+        <v>10074948</v>
+      </c>
+      <c r="E10" s="16">
+        <v>5592911</v>
+      </c>
+      <c r="F10" s="16">
         <v>4482037</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="12">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="14">
-        <f t="shared" ref="D10:D12" si="2">SUM(E10:F10)</f>
-        <v>10786450</v>
-      </c>
-      <c r="E10" s="15">
-        <v>5691596</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="D11" s="11">
+        <f t="shared" ref="D11:D13" si="2">SUM(E11:F11)</f>
+        <v>10785958</v>
+      </c>
+      <c r="E11" s="12">
+        <v>5691104</v>
+      </c>
+      <c r="F11" s="12">
         <v>5094854</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="16">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="13">
         <v>2024</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D12" s="15">
         <f t="shared" si="2"/>
-        <v>9831803</v>
-      </c>
-      <c r="E11" s="19">
-        <v>5134740</v>
-      </c>
-      <c r="F11" s="19">
+        <v>9831411</v>
+      </c>
+      <c r="E12" s="16">
+        <v>5134348</v>
+      </c>
+      <c r="F12" s="16">
         <v>4697063</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="12">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="11">
         <f t="shared" si="2"/>
-        <v>9757605</v>
-      </c>
-      <c r="E12" s="15">
-        <v>5236375</v>
-      </c>
-      <c r="F12" s="15">
+        <v>9757133</v>
+      </c>
+      <c r="E13" s="12">
+        <v>5235903</v>
+      </c>
+      <c r="F13" s="12">
         <v>4521230</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="16">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="13">
         <v>2024</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="18">
-        <f t="shared" si="1"/>
-        <v>9749542</v>
-      </c>
-      <c r="E13" s="19">
-        <v>4981231</v>
-      </c>
-      <c r="F13" s="19">
+      <c r="D14" s="15">
+        <f t="shared" si="1"/>
+        <v>9749048</v>
+      </c>
+      <c r="E14" s="16">
+        <v>4980737</v>
+      </c>
+      <c r="F14" s="16">
         <v>4768311</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="12">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="14">
-        <f t="shared" si="1"/>
-        <v>10539528</v>
-      </c>
-      <c r="E14" s="15">
-        <v>4863183</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="D15" s="11">
+        <f t="shared" si="1"/>
+        <v>10538864</v>
+      </c>
+      <c r="E15" s="12">
+        <v>4862519</v>
+      </c>
+      <c r="F15" s="12">
         <v>5676345</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="16">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="13">
         <v>2024</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="18">
-        <f t="shared" si="1"/>
-        <v>9334763</v>
-      </c>
-      <c r="E15" s="19">
-        <v>4391152</v>
-      </c>
-      <c r="F15" s="19">
+      <c r="D16" s="15">
+        <f t="shared" si="1"/>
+        <v>9334344</v>
+      </c>
+      <c r="E16" s="16">
+        <v>4390733</v>
+      </c>
+      <c r="F16" s="16">
         <v>4943611</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="20">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="17">
         <v>2024</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D17" s="19">
         <f t="shared" si="1"/>
         <v>10153993</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E17" s="20">
         <v>4807949</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F17" s="20">
         <v>5346044</v>
       </c>
     </row>
-    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="24">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="21">
         <v>2023</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D18" s="23">
         <f t="shared" si="1"/>
         <v>10829188</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E18" s="24">
         <v>5415680</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F18" s="25">
         <v>5413508</v>
       </c>
     </row>
-    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="12">
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="9">
         <v>2023</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="11">
         <f t="shared" si="1"/>
         <v>9838837</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="12">
         <v>5273853</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F19" s="12">
         <v>4564984</v>
       </c>
     </row>
-    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="16">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="13">
         <v>2023</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D20" s="15">
         <f t="shared" si="1"/>
         <v>9482301</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E20" s="16">
         <v>5416944</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F20" s="16">
         <v>4065357</v>
       </c>
     </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="12">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="9">
         <v>2023</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D21" s="11">
         <f t="shared" si="1"/>
         <v>8633272</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E21" s="12">
         <v>5067159</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F21" s="12">
         <v>3566113</v>
       </c>
     </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="16">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C22" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D22" s="15">
         <f t="shared" si="1"/>
         <v>10433744</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E22" s="16">
         <v>5976700</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F22" s="16">
         <v>4457044</v>
       </c>
     </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="12">
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="11">
         <f t="shared" si="1"/>
         <v>10994672</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="12">
         <v>5970043</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F23" s="12">
         <v>5024629</v>
       </c>
     </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="16">
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="13">
         <v>2023</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D24" s="15">
         <f t="shared" si="1"/>
         <v>9688779</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E24" s="16">
         <v>5246474</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F24" s="16">
         <v>4442305</v>
       </c>
     </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="12">
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D25" s="11">
         <f t="shared" si="1"/>
         <v>9507284</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E25" s="12">
         <v>5270951</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F25" s="12">
         <v>4236333</v>
       </c>
     </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="16">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="13">
         <v>2023</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C26" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D26" s="15">
         <f t="shared" si="1"/>
         <v>9919095</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E26" s="16">
         <v>5341258</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F26" s="16">
         <v>4577837</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="12">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="11">
         <f t="shared" si="1"/>
         <v>10259682</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E27" s="12">
         <v>5215128</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F27" s="12">
         <v>5044554</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="16">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="13">
         <v>2023</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D28" s="15">
         <f t="shared" si="1"/>
         <v>8840768</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E28" s="16">
         <v>4453469</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F28" s="16">
         <v>4387299</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="20">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="17">
         <v>2023</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C29" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D29" s="19">
         <f t="shared" si="1"/>
         <v>9936455</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E29" s="20">
         <v>4978979</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F29" s="20">
         <v>4957476</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="24">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="21">
         <v>2022</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C30" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D30" s="23">
         <f t="shared" si="1"/>
         <v>10328957</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E30" s="24">
         <v>5458695</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F30" s="24">
         <v>4870262</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="12">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="9">
         <v>2022</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D31" s="11">
         <f t="shared" si="1"/>
         <v>9564350</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E31" s="12">
         <v>5216824</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F31" s="12">
         <v>4347526</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="16">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C32" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D32" s="15">
         <f t="shared" si="1"/>
         <v>9047728</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E32" s="16">
         <v>5177608</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F32" s="16">
         <v>3870120</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="12">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="9">
         <v>2022</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D33" s="11">
         <f t="shared" si="1"/>
         <v>8162159</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E33" s="12">
         <v>4687975</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F33" s="12">
         <v>3474184</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="16">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C34" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D34" s="15">
         <f t="shared" si="1"/>
         <v>9454996</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E34" s="16">
         <v>5202467</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F34" s="16">
         <v>4252529</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="12">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="11">
         <f t="shared" si="1"/>
         <v>10042169</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E35" s="12">
         <v>5313681</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F35" s="12">
         <v>4728488</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="16">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="13">
         <v>2022</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C36" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>8909540</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E36" s="16">
         <v>4660739</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F36" s="16">
         <v>4248801</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="12">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D37" s="11">
         <f t="shared" si="1"/>
         <v>8894356</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E37" s="12">
         <v>4864477</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F37" s="12">
         <v>4029879</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="16">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="13">
         <v>2022</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C38" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D38" s="15">
         <f t="shared" si="1"/>
         <v>8965893</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E38" s="16">
         <v>4744599</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F38" s="16">
         <v>4221294</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="12">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D39" s="11">
         <f t="shared" si="1"/>
         <v>8932243</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E39" s="12">
         <v>4477915</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F39" s="12">
         <v>4454328</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="16">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="13">
         <v>2022</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C40" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D40" s="15">
         <f t="shared" si="1"/>
         <v>7028818</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E40" s="16">
         <v>3568589</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F40" s="16">
         <v>3460229</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="20">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="17">
         <v>2022</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C41" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D41" s="19">
         <f t="shared" si="1"/>
         <v>7524409</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E41" s="20">
         <v>3789823</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F41" s="20">
         <v>3734586</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="24">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="21">
         <v>2021</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C42" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D42" s="23">
         <f t="shared" si="1"/>
         <v>8858284</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E42" s="24">
         <v>4685952</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F42" s="24">
         <v>4172332</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="12">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="9">
         <v>2021</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D43" s="11">
         <f t="shared" si="1"/>
         <v>8044448</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E43" s="12">
         <v>4338222</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F43" s="12">
         <v>3706226</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="16">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C44" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D44" s="15">
         <f t="shared" si="1"/>
         <v>7434983</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E44" s="16">
         <v>4148811</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F44" s="16">
         <v>3286172</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="12">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="9">
         <v>2021</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="14">
-        <f t="shared" ref="D44:D75" si="3">SUM(E44:F44)</f>
+      <c r="D45" s="11">
+        <f t="shared" ref="D45:D76" si="3">SUM(E45:F45)</f>
         <v>6335718</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E45" s="12">
         <v>3602892</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F45" s="12">
         <v>2732826</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="16">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C46" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D46" s="15">
         <f t="shared" si="3"/>
         <v>7407170</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E46" s="16">
         <v>3994397</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F46" s="16">
         <v>3412773</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="12">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D47" s="11">
         <f t="shared" si="3"/>
         <v>8256002</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E47" s="12">
         <v>4365429</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F47" s="12">
         <v>3890573</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="16">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C48" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D48" s="15">
         <f t="shared" si="3"/>
         <v>7317711</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E48" s="16">
         <v>3834253</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F48" s="16">
         <v>3483458</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="12">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D49" s="11">
         <f t="shared" si="3"/>
         <v>6934293</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E49" s="12">
         <v>3818846</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F49" s="12">
         <v>3115447</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="16">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="13">
         <v>2021</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C50" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D50" s="15">
         <f t="shared" si="3"/>
         <v>5986797</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E50" s="16">
         <v>3478623</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F50" s="16">
         <v>2508174</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="12">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="11">
         <f t="shared" si="3"/>
         <v>5308998</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E51" s="12">
         <v>3169991</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F51" s="12">
         <v>2139007</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="16">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="13">
         <v>2021</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C52" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D52" s="15">
         <f t="shared" si="3"/>
         <v>3515246</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E52" s="16">
         <v>2221947</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F52" s="16">
         <v>1293299</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="20">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="17">
         <v>2021</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C53" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D53" s="19">
         <f t="shared" si="3"/>
         <v>4603651</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E53" s="20">
         <v>2703105</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F53" s="20">
         <v>1900546</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="24">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="21">
         <v>2020</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C54" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="26">
+      <c r="D54" s="23">
         <f t="shared" si="3"/>
         <v>5262897</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E54" s="24">
         <v>3144137</v>
       </c>
-      <c r="F53" s="27">
+      <c r="F54" s="24">
         <v>2118760</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="12">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="9">
         <v>2020</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="11">
         <f t="shared" si="3"/>
         <v>4568948</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E55" s="12">
         <v>2920098</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F55" s="12">
         <v>1648850</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="16">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C56" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D56" s="15">
         <f t="shared" si="3"/>
         <v>4066515</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E56" s="16">
         <v>2708781</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F56" s="16">
         <v>1357734</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="12">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="9">
         <v>2020</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D57" s="11">
         <f t="shared" si="3"/>
         <v>3283162</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E57" s="12">
         <v>2317729</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F57" s="12">
         <v>965433</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="16">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C58" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D58" s="15">
         <f t="shared" si="3"/>
         <v>3035521</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E58" s="16">
         <v>2120271</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F58" s="16">
         <v>915250</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="12">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="11">
         <f t="shared" si="3"/>
         <v>2412156</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E59" s="12">
         <v>1672969</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F59" s="12">
         <v>739187</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="16">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C60" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D60" s="15">
         <f t="shared" si="3"/>
         <v>1180756</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E60" s="16">
         <v>886076</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F60" s="16">
         <v>294680</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="12">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D61" s="11">
         <f t="shared" si="3"/>
         <v>488531</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E61" s="12">
         <v>385641</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F61" s="12">
         <v>102890</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="16">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="13">
         <v>2020</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C62" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D62" s="15">
         <f t="shared" si="3"/>
         <v>509441</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E62" s="16">
         <v>413225</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F62" s="16">
         <v>96216</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="12">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="11">
         <f t="shared" si="3"/>
         <v>5886542</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E63" s="12">
         <v>3142005</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F63" s="12">
         <v>2744537</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="16">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="13">
         <v>2020</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C64" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D64" s="15">
         <f t="shared" si="3"/>
         <v>8319634</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E64" s="16">
         <v>4091826</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F64" s="16">
         <v>4227808</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="20">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="17">
         <v>2020</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C65" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D65" s="19">
         <f t="shared" si="3"/>
         <v>9065514</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E65" s="20">
         <v>4433703</v>
       </c>
-      <c r="F64" s="23">
+      <c r="F65" s="20">
         <v>4631811</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="24">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="21">
         <v>2019</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C66" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="26">
+      <c r="D66" s="23">
         <f t="shared" si="3"/>
         <v>9358660</v>
       </c>
-      <c r="E65" s="27">
+      <c r="E66" s="24">
         <v>4755157</v>
       </c>
-      <c r="F65" s="27">
+      <c r="F66" s="24">
         <v>4603503</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="12">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="9">
         <v>2019</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D67" s="11">
         <f t="shared" si="3"/>
         <v>8545618</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E67" s="12">
         <v>4611815</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F67" s="12">
         <v>3933803</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="16">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="13">
         <v>2019</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C68" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D68" s="15">
         <f t="shared" si="3"/>
         <v>8005724</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E68" s="16">
         <v>4617022</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F68" s="16">
         <v>3388702</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="12">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="9">
         <v>2019</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D69" s="11">
         <f t="shared" si="3"/>
         <v>7233383</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E69" s="12">
         <v>4187402</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F69" s="12">
         <v>3045981</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="16">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C70" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D70" s="15">
         <f t="shared" si="3"/>
         <v>8708818</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E70" s="16">
         <v>4765181</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F70" s="16">
         <v>3943637</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="12">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="11">
         <f t="shared" si="3"/>
         <v>9445888</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E71" s="12">
         <v>5005061</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F71" s="12">
         <v>4440827</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="16">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C72" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D72" s="15">
         <f t="shared" si="3"/>
         <v>8525678</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E72" s="16">
         <v>4555762</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F72" s="16">
         <v>3969916</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="12">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D73" s="11">
         <f t="shared" si="3"/>
         <v>8482898</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E73" s="12">
         <v>4704389</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F73" s="12">
         <v>3778509</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="16">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="13">
         <v>2019</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C74" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D74" s="15">
         <f t="shared" si="3"/>
         <v>8548334</v>
       </c>
-      <c r="E73" s="19">
+      <c r="E74" s="16">
         <v>4438332</v>
       </c>
-      <c r="F73" s="19">
+      <c r="F74" s="16">
         <v>4110002</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="12">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D75" s="11">
         <f t="shared" si="3"/>
         <v>8887698</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E75" s="12">
         <v>4310865</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F75" s="12">
         <v>4576833</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="16">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="13">
         <v>2019</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C76" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D76" s="15">
         <f t="shared" si="3"/>
         <v>7407471</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E76" s="16">
         <v>3590917</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F76" s="16">
         <v>3816554</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="20">
-        <v>2019</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="22">
-        <f t="shared" ref="D76:D88" si="4">SUM(E76:F76)</f>
-        <v>8273412</v>
-      </c>
-      <c r="E76" s="23">
-        <v>3989338</v>
-      </c>
-      <c r="F76" s="23">
-        <v>4284074</v>
       </c>
     </row>
     <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="B77" s="17">
+        <v>2019</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="19">
+        <f t="shared" ref="D77:D89" si="4">SUM(E77:F77)</f>
+        <v>8273412</v>
+      </c>
+      <c r="E77" s="20">
+        <v>3989338</v>
+      </c>
+      <c r="F77" s="20">
+        <v>4284074</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="14">
         <v>2018</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C78" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D78" s="15">
         <f t="shared" si="4"/>
         <v>8744817</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E78" s="16">
         <v>4400768</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F78" s="16">
         <v>4344049</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="13">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="10">
         <v>2018</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="11">
         <f t="shared" si="4"/>
         <v>8065105</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E79" s="12">
         <v>4287344</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F79" s="12">
         <v>3777761</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="17">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="14">
         <v>2018</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C80" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D80" s="15">
         <f t="shared" si="4"/>
         <v>7563067</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E80" s="16">
         <v>4246079</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F80" s="16">
         <v>3316988</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="13">
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D81" s="11">
         <f t="shared" si="4"/>
         <v>6852045</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E81" s="12">
         <v>3900894</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F81" s="12">
         <v>2951151</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="17">
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="14">
         <v>2018</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C82" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D82" s="15">
         <f t="shared" si="4"/>
         <v>8297341</v>
       </c>
-      <c r="E81" s="19">
+      <c r="E82" s="16">
         <v>4416844</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F82" s="16">
         <v>3880497</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="13">
+    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D83" s="11">
         <f t="shared" si="4"/>
         <v>9056178</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E83" s="12">
         <v>4689606</v>
       </c>
-      <c r="F82" s="15">
+      <c r="F83" s="12">
         <v>4366572</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="17">
+    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="14">
         <v>2018</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C84" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="18">
+      <c r="D84" s="15">
         <f t="shared" si="4"/>
         <v>8006308</v>
       </c>
-      <c r="E83" s="19">
+      <c r="E84" s="16">
         <v>4087227</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F84" s="16">
         <v>3919081</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="13">
+    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D85" s="11">
         <f t="shared" si="4"/>
         <v>7817504</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E85" s="12">
         <v>4163127</v>
       </c>
-      <c r="F84" s="15">
+      <c r="F85" s="12">
         <v>3654377</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="17">
+    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="14">
         <v>2018</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C86" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="18">
+      <c r="D86" s="15">
         <f t="shared" si="4"/>
         <v>8098666</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E86" s="16">
         <v>4096821</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F86" s="16">
         <v>4001845</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="13">
+    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D87" s="11">
         <f t="shared" si="4"/>
         <v>8610022</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E87" s="12">
         <v>4048811</v>
       </c>
-      <c r="F86" s="15">
+      <c r="F87" s="12">
         <v>4561211</v>
       </c>
     </row>
-    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="17">
+    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="14">
         <v>2018</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C88" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D88" s="15">
         <f t="shared" si="4"/>
         <v>7192032</v>
       </c>
-      <c r="E87" s="19">
+      <c r="E88" s="16">
         <v>3422954</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F88" s="16">
         <v>3769078</v>
       </c>
     </row>
-    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="13">
+    <row r="89" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="11">
         <f t="shared" si="4"/>
         <v>8102943</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E89" s="12">
         <v>3774420</v>
       </c>
-      <c r="F88" s="15">
+      <c r="F89" s="12">
         <v>4328523</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B89" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B90" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B91" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F91" s="29"/>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F92" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_Total_N_Aero.xlsx
+++ b/Pasajeros_Total_N_Aero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00345A3B-69B9-45CD-A21A-AE169A37C0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF74C49C-37DD-42AD-923E-20FBFCDC45CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="21">
   <si>
     <t>Internacional</t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -311,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -380,6 +380,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -466,13 +474,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -496,6 +497,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -548,8 +556,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F89" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B5:F89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F90" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+  <autoFilter ref="B5:F90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -792,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:F92"/>
+  <dimension ref="B2:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -846,1529 +854,1562 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="13">
+      <c r="B6" s="30">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="32">
+        <f>SUM(E6:F6)</f>
+        <v>10716952</v>
+      </c>
+      <c r="E6" s="33">
+        <v>5074570</v>
+      </c>
+      <c r="F6" s="33">
+        <v>5642382</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="15">
-        <f>SUM(E6:F6)</f>
+      <c r="D7" s="15">
+        <f>SUM(E7:F7)</f>
         <v>11228251</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E7" s="16">
         <v>5469205</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F7" s="16">
         <v>5759046</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="9">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="9">
         <v>2024</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11">
-        <f>SUM(E7:F7)</f>
+      <c r="D8" s="11">
+        <f>SUM(E8:F8)</f>
         <v>10113653</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E8" s="12">
         <v>5252879</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F8" s="12">
         <v>4860774</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="13">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="15">
-        <f t="shared" ref="D8" si="0">SUM(E8:F8)</f>
+      <c r="D9" s="15">
+        <f t="shared" ref="D9" si="0">SUM(E9:F9)</f>
         <v>9357768</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E9" s="16">
         <v>5191280</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F9" s="16">
         <v>4166488</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="9">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11">
-        <f>SUM(E9:F9)</f>
+      <c r="D10" s="11">
+        <f>SUM(E10:F10)</f>
         <v>8538425</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E10" s="12">
         <v>4937405</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F10" s="12">
         <v>3601020</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="13">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="13">
         <v>2024</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="15">
-        <f t="shared" ref="D10:D44" si="1">SUM(E10:F10)</f>
+      <c r="D11" s="15">
+        <f t="shared" ref="D11:D45" si="1">SUM(E11:F11)</f>
         <v>10074948</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E11" s="16">
         <v>5592911</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F11" s="16">
         <v>4482037</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="9">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="11">
-        <f t="shared" ref="D11:D13" si="2">SUM(E11:F11)</f>
+      <c r="D12" s="11">
+        <f t="shared" ref="D12:D14" si="2">SUM(E12:F12)</f>
         <v>10785958</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E12" s="12">
         <v>5691104</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F12" s="12">
         <v>5094854</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="13">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="13">
         <v>2024</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D13" s="15">
         <f t="shared" si="2"/>
         <v>9831411</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E13" s="16">
         <v>5134348</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F13" s="16">
         <v>4697063</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="9">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <f t="shared" si="2"/>
         <v>9757133</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E14" s="12">
         <v>5235903</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F14" s="12">
         <v>4521230</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="13">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="13">
         <v>2024</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D15" s="15">
         <f t="shared" si="1"/>
         <v>9749048</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E15" s="16">
         <v>4980737</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F15" s="16">
         <v>4768311</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="9">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <f t="shared" si="1"/>
         <v>10538864</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E16" s="12">
         <v>4862519</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F16" s="12">
         <v>5676345</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="13">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B17" s="13">
         <v>2024</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D17" s="15">
         <f t="shared" si="1"/>
         <v>9334344</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E17" s="16">
         <v>4390733</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F17" s="16">
         <v>4943611</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="17">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B18" s="17">
         <v>2024</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D18" s="19">
         <f t="shared" si="1"/>
         <v>10153993</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E18" s="20">
         <v>4807949</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F18" s="20">
         <v>5346044</v>
       </c>
     </row>
-    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="21">
+    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="21">
         <v>2023</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D19" s="23">
         <f t="shared" si="1"/>
         <v>10829188</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E19" s="24">
         <v>5415680</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F19" s="25">
         <v>5413508</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="9">
+      <c r="H19" s="3">
+        <v>5413508</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="9">
         <v>2023</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <f t="shared" si="1"/>
         <v>9838837</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="12">
         <v>5273853</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F20" s="12">
         <v>4564984</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="13">
+      <c r="H20" s="3">
+        <v>4564984</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="13">
         <v>2023</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D21" s="15">
         <f t="shared" si="1"/>
         <v>9482301</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E21" s="16">
         <v>5416944</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F21" s="16">
         <v>4065357</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="9">
+      <c r="H21" s="3">
+        <v>4065357</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="9">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <f t="shared" si="1"/>
         <v>8633272</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E22" s="12">
         <v>5067159</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F22" s="12">
         <v>3566113</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="13">
+      <c r="H22" s="3">
+        <v>3566113</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D23" s="15">
         <f t="shared" si="1"/>
         <v>10433744</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E23" s="16">
         <v>5976700</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F23" s="16">
         <v>4457044</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="9">
+      <c r="H23" s="3">
+        <v>4457044</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="9">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <f t="shared" si="1"/>
         <v>10994672</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E24" s="12">
         <v>5970043</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F24" s="12">
         <v>5024629</v>
       </c>
     </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="13">
+    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="13">
         <v>2023</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D25" s="15">
         <f t="shared" si="1"/>
         <v>9688779</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E25" s="16">
         <v>5246474</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F25" s="16">
         <v>4442305</v>
       </c>
     </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="9">
+    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <f t="shared" si="1"/>
         <v>9507284</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E26" s="12">
         <v>5270951</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F26" s="12">
         <v>4236333</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="13">
+    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="13">
         <v>2023</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D27" s="15">
         <f t="shared" si="1"/>
         <v>9919095</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E27" s="16">
         <v>5341258</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F27" s="16">
         <v>4577837</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="9">
+    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <f t="shared" si="1"/>
         <v>10259682</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E28" s="12">
         <v>5215128</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F28" s="12">
         <v>5044554</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="13">
+    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="13">
         <v>2023</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D29" s="15">
         <f t="shared" si="1"/>
         <v>8840768</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E29" s="16">
         <v>4453469</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F29" s="16">
         <v>4387299</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="17">
+    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="17">
         <v>2023</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D30" s="19">
         <f t="shared" si="1"/>
         <v>9936455</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E30" s="20">
         <v>4978979</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F30" s="20">
         <v>4957476</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="21">
+    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="21">
         <v>2022</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C31" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D31" s="23">
         <f t="shared" si="1"/>
         <v>10328957</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E31" s="24">
         <v>5458695</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F31" s="24">
         <v>4870262</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="9">
+    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="9">
         <v>2022</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <f t="shared" si="1"/>
         <v>9564350</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E32" s="12">
         <v>5216824</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F32" s="12">
         <v>4347526</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="13">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D33" s="15">
         <f t="shared" si="1"/>
         <v>9047728</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E33" s="16">
         <v>5177608</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F33" s="16">
         <v>3870120</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="9">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="9">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <f t="shared" si="1"/>
         <v>8162159</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E34" s="12">
         <v>4687975</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F34" s="12">
         <v>3474184</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="13">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D35" s="15">
         <f t="shared" si="1"/>
         <v>9454996</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E35" s="16">
         <v>5202467</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F35" s="16">
         <v>4252529</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="9">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="9">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <f t="shared" si="1"/>
         <v>10042169</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E36" s="12">
         <v>5313681</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F36" s="12">
         <v>4728488</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="13">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="13">
         <v>2022</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D37" s="15">
         <f t="shared" si="1"/>
         <v>8909540</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E37" s="16">
         <v>4660739</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F37" s="16">
         <v>4248801</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="9">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <f t="shared" si="1"/>
         <v>8894356</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E38" s="12">
         <v>4864477</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F38" s="12">
         <v>4029879</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="13">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="13">
         <v>2022</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C39" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D39" s="15">
         <f t="shared" si="1"/>
         <v>8965893</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E39" s="16">
         <v>4744599</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F39" s="16">
         <v>4221294</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="9">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <f t="shared" si="1"/>
         <v>8932243</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E40" s="12">
         <v>4477915</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F40" s="12">
         <v>4454328</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="13">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="13">
         <v>2022</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D41" s="15">
         <f t="shared" si="1"/>
         <v>7028818</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E41" s="16">
         <v>3568589</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F41" s="16">
         <v>3460229</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="17">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="17">
         <v>2022</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C42" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D42" s="19">
         <f t="shared" si="1"/>
         <v>7524409</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E42" s="20">
         <v>3789823</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F42" s="20">
         <v>3734586</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="21">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="21">
         <v>2021</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C43" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D43" s="23">
         <f t="shared" si="1"/>
         <v>8858284</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E43" s="24">
         <v>4685952</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F43" s="24">
         <v>4172332</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="9">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="9">
         <v>2021</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <f t="shared" si="1"/>
         <v>8044448</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E44" s="12">
         <v>4338222</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F44" s="12">
         <v>3706226</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="13">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D45" s="15">
         <f t="shared" si="1"/>
         <v>7434983</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E45" s="16">
         <v>4148811</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F45" s="16">
         <v>3286172</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="9">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="9">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="11">
-        <f t="shared" ref="D45:D76" si="3">SUM(E45:F45)</f>
+      <c r="D46" s="11">
+        <f t="shared" ref="D46:D77" si="3">SUM(E46:F46)</f>
         <v>6335718</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E46" s="12">
         <v>3602892</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F46" s="12">
         <v>2732826</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="13">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D47" s="15">
         <f t="shared" si="3"/>
         <v>7407170</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E47" s="16">
         <v>3994397</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F47" s="16">
         <v>3412773</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="9">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="9">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <f t="shared" si="3"/>
         <v>8256002</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E48" s="12">
         <v>4365429</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F48" s="12">
         <v>3890573</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="13">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="13">
         <v>2021</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D49" s="15">
         <f t="shared" si="3"/>
         <v>7317711</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E49" s="16">
         <v>3834253</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F49" s="16">
         <v>3483458</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="9">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <f t="shared" si="3"/>
         <v>6934293</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E50" s="12">
         <v>3818846</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F50" s="12">
         <v>3115447</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="13">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="13">
         <v>2021</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D51" s="15">
         <f t="shared" si="3"/>
         <v>5986797</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E51" s="16">
         <v>3478623</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F51" s="16">
         <v>2508174</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="9">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <f t="shared" si="3"/>
         <v>5308998</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E52" s="12">
         <v>3169991</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F52" s="12">
         <v>2139007</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="13">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="13">
         <v>2021</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D53" s="15">
         <f t="shared" si="3"/>
         <v>3515246</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E53" s="16">
         <v>2221947</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F53" s="16">
         <v>1293299</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="17">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="17">
         <v>2021</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C54" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D54" s="19">
         <f t="shared" si="3"/>
         <v>4603651</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E54" s="20">
         <v>2703105</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F54" s="20">
         <v>1900546</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="21">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="21">
         <v>2020</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C55" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D55" s="23">
         <f t="shared" si="3"/>
         <v>5262897</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E55" s="24">
         <v>3144137</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F55" s="24">
         <v>2118760</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="9">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="9">
         <v>2020</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <f t="shared" si="3"/>
         <v>4568948</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E56" s="12">
         <v>2920098</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F56" s="12">
         <v>1648850</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="13">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D57" s="15">
         <f t="shared" si="3"/>
         <v>4066515</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E57" s="16">
         <v>2708781</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F57" s="16">
         <v>1357734</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="9">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="9">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <f t="shared" si="3"/>
         <v>3283162</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E58" s="12">
         <v>2317729</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F58" s="12">
         <v>965433</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="13">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D59" s="15">
         <f t="shared" si="3"/>
         <v>3035521</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E59" s="16">
         <v>2120271</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F59" s="16">
         <v>915250</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="9">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="9">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <f t="shared" si="3"/>
         <v>2412156</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E60" s="12">
         <v>1672969</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F60" s="12">
         <v>739187</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="13">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="13">
         <v>2020</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D61" s="15">
         <f t="shared" si="3"/>
         <v>1180756</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E61" s="16">
         <v>886076</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F61" s="16">
         <v>294680</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="9">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <f t="shared" si="3"/>
         <v>488531</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E62" s="12">
         <v>385641</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F62" s="12">
         <v>102890</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="13">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="13">
         <v>2020</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D63" s="15">
         <f t="shared" si="3"/>
         <v>509441</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E63" s="16">
         <v>413225</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F63" s="16">
         <v>96216</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="9">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <f t="shared" si="3"/>
         <v>5886542</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E64" s="12">
         <v>3142005</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F64" s="12">
         <v>2744537</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="13">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="13">
         <v>2020</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C65" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D65" s="15">
         <f t="shared" si="3"/>
         <v>8319634</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E65" s="16">
         <v>4091826</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F65" s="16">
         <v>4227808</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="17">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="17">
         <v>2020</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C66" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D66" s="19">
         <f t="shared" si="3"/>
         <v>9065514</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E66" s="20">
         <v>4433703</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F66" s="20">
         <v>4631811</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="21">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="21">
         <v>2019</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C67" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="23">
+      <c r="D67" s="23">
         <f t="shared" si="3"/>
         <v>9358660</v>
       </c>
-      <c r="E66" s="24">
+      <c r="E67" s="24">
         <v>4755157</v>
       </c>
-      <c r="F66" s="24">
+      <c r="F67" s="24">
         <v>4603503</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="9">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="9">
         <v>2019</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <f t="shared" si="3"/>
         <v>8545618</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E68" s="12">
         <v>4611815</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F68" s="12">
         <v>3933803</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="13">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="13">
         <v>2019</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D69" s="15">
         <f t="shared" si="3"/>
         <v>8005724</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E69" s="16">
         <v>4617022</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F69" s="16">
         <v>3388702</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="9">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="9">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <f t="shared" si="3"/>
         <v>7233383</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E70" s="12">
         <v>4187402</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F70" s="12">
         <v>3045981</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="13">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C71" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D71" s="15">
         <f t="shared" si="3"/>
         <v>8708818</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E71" s="16">
         <v>4765181</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F71" s="16">
         <v>3943637</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="9">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="9">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <f t="shared" si="3"/>
         <v>9445888</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E72" s="12">
         <v>5005061</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F72" s="12">
         <v>4440827</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="13">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="13">
         <v>2019</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D73" s="15">
         <f t="shared" si="3"/>
         <v>8525678</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E73" s="16">
         <v>4555762</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F73" s="16">
         <v>3969916</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="9">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <f t="shared" si="3"/>
         <v>8482898</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E74" s="12">
         <v>4704389</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F74" s="12">
         <v>3778509</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="13">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="13">
         <v>2019</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C75" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D75" s="15">
         <f t="shared" si="3"/>
         <v>8548334</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E75" s="16">
         <v>4438332</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F75" s="16">
         <v>4110002</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="9">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <f t="shared" si="3"/>
         <v>8887698</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E76" s="12">
         <v>4310865</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F76" s="12">
         <v>4576833</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="13">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="13">
         <v>2019</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C77" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D77" s="15">
         <f t="shared" si="3"/>
         <v>7407471</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E77" s="16">
         <v>3590917</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F77" s="16">
         <v>3816554</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="17">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="17">
         <v>2019</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C78" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="19">
-        <f t="shared" ref="D77:D89" si="4">SUM(E77:F77)</f>
+      <c r="D78" s="19">
+        <f t="shared" ref="D78:D90" si="4">SUM(E78:F78)</f>
         <v>8273412</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E78" s="20">
         <v>3989338</v>
       </c>
-      <c r="F77" s="20">
+      <c r="F78" s="20">
         <v>4284074</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="14">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="14">
         <v>2018</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C79" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D79" s="15">
         <f t="shared" si="4"/>
         <v>8744817</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E79" s="16">
         <v>4400768</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F79" s="16">
         <v>4344049</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="10">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <f t="shared" si="4"/>
         <v>8065105</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E80" s="12">
         <v>4287344</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F80" s="12">
         <v>3777761</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="14">
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="14">
         <v>2018</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D81" s="15">
         <f t="shared" si="4"/>
         <v>7563067</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E81" s="16">
         <v>4246079</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F81" s="16">
         <v>3316988</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="10">
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <f t="shared" si="4"/>
         <v>6852045</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E82" s="12">
         <v>3900894</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F82" s="12">
         <v>2951151</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="14">
+    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="14">
         <v>2018</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C83" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D83" s="15">
         <f t="shared" si="4"/>
         <v>8297341</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E83" s="16">
         <v>4416844</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F83" s="16">
         <v>3880497</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="10">
+    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <f t="shared" si="4"/>
         <v>9056178</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E84" s="12">
         <v>4689606</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F84" s="12">
         <v>4366572</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="14">
+    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="14">
         <v>2018</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C85" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D85" s="15">
         <f t="shared" si="4"/>
         <v>8006308</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E85" s="16">
         <v>4087227</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F85" s="16">
         <v>3919081</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="10">
+    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <f t="shared" si="4"/>
         <v>7817504</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E86" s="12">
         <v>4163127</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F86" s="12">
         <v>3654377</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="14">
+    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="14">
         <v>2018</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C87" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D87" s="15">
         <f t="shared" si="4"/>
         <v>8098666</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E87" s="16">
         <v>4096821</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F87" s="16">
         <v>4001845</v>
       </c>
     </row>
-    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="10">
+    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <f t="shared" si="4"/>
         <v>8610022</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E88" s="12">
         <v>4048811</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F88" s="12">
         <v>4561211</v>
       </c>
     </row>
-    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="14">
+    <row r="89" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="14">
         <v>2018</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C89" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D89" s="15">
         <f t="shared" si="4"/>
         <v>7192032</v>
       </c>
-      <c r="E88" s="16">
+      <c r="E89" s="16">
         <v>3422954</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F89" s="16">
         <v>3769078</v>
       </c>
     </row>
-    <row r="89" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="10">
+    <row r="90" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <f t="shared" si="4"/>
         <v>8102943</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E90" s="12">
         <v>3774420</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F90" s="12">
         <v>4328523</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B90" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B91" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B92" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F92" s="26"/>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F93" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_Total_N_Aero.xlsx
+++ b/Pasajeros_Total_N_Aero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF74C49C-37DD-42AD-923E-20FBFCDC45CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E187EA3-65FA-4A73-84CD-25163AB55033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="21">
   <si>
     <t>Internacional</t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -108,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -380,14 +380,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -473,6 +470,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -497,13 +501,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -556,8 +553,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F90" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
-  <autoFilter ref="B5:F90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F91" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -800,13 +797,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:H93"/>
+  <dimension ref="B2:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="3" customWidth="1"/>
@@ -817,17 +814,17 @@
     <col min="7" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" ht="18">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="27" t="s">
@@ -836,7 +833,7 @@
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -853,1563 +850,1577 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6">
       <c r="B6" s="30">
         <v>2025</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="31">
+        <f>SUM(E6:F6)</f>
+        <v>9365978</v>
+      </c>
+      <c r="E6" s="32">
+        <v>4481943</v>
+      </c>
+      <c r="F6" s="32">
+        <v>4884035</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="17">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="32">
-        <f>SUM(E6:F6)</f>
+      <c r="D7" s="19">
+        <f>SUM(E7:F7)</f>
         <v>10716952</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E7" s="20">
         <v>5074570</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F7" s="20">
         <v>5642382</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="13">
+    <row r="8" spans="2:6">
+      <c r="B8" s="13">
         <v>2024</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="15">
-        <f>SUM(E7:F7)</f>
+      <c r="D8" s="15">
+        <f>SUM(E8:F8)</f>
         <v>11228251</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E8" s="16">
         <v>5469205</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F8" s="16">
         <v>5759046</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="9">
+    <row r="9" spans="2:6">
+      <c r="B9" s="9">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="11">
-        <f>SUM(E8:F8)</f>
+      <c r="D9" s="11">
+        <f>SUM(E9:F9)</f>
         <v>10113653</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E9" s="12">
         <v>5252879</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F9" s="12">
         <v>4860774</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="13">
+    <row r="10" spans="2:6">
+      <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="15">
-        <f t="shared" ref="D9" si="0">SUM(E9:F9)</f>
+      <c r="D10" s="15">
+        <f t="shared" ref="D10" si="0">SUM(E10:F10)</f>
         <v>9357768</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E10" s="16">
         <v>5191280</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F10" s="16">
         <v>4166488</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="9">
+    <row r="11" spans="2:6">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="11">
-        <f>SUM(E10:F10)</f>
+      <c r="D11" s="11">
+        <f>SUM(E11:F11)</f>
         <v>8538425</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="12">
         <v>4937405</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F11" s="12">
         <v>3601020</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="13">
+    <row r="12" spans="2:6">
+      <c r="B12" s="13">
         <v>2024</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="15">
-        <f t="shared" ref="D11:D45" si="1">SUM(E11:F11)</f>
+      <c r="D12" s="15">
+        <f t="shared" ref="D12:D46" si="1">SUM(E12:F12)</f>
         <v>10074948</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E12" s="16">
         <v>5592911</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F12" s="16">
         <v>4482037</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="9">
+    <row r="13" spans="2:6">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="11">
-        <f t="shared" ref="D12:D14" si="2">SUM(E12:F12)</f>
+      <c r="D13" s="11">
+        <f t="shared" ref="D13:D15" si="2">SUM(E13:F13)</f>
         <v>10785958</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="12">
         <v>5691104</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F13" s="12">
         <v>5094854</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="13">
+    <row r="14" spans="2:6">
+      <c r="B14" s="13">
         <v>2024</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D14" s="15">
         <f t="shared" si="2"/>
         <v>9831411</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E14" s="16">
         <v>5134348</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F14" s="16">
         <v>4697063</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="9">
+    <row r="15" spans="2:6">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <f t="shared" si="2"/>
         <v>9757133</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="12">
         <v>5235903</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="12">
         <v>4521230</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="13">
+    <row r="16" spans="2:6">
+      <c r="B16" s="13">
         <v>2024</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D16" s="15">
         <f t="shared" si="1"/>
         <v>9749048</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E16" s="16">
         <v>4980737</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F16" s="16">
         <v>4768311</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="9">
+    <row r="17" spans="2:8">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <f t="shared" si="1"/>
         <v>10538864</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="12">
         <v>4862519</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F17" s="12">
         <v>5676345</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B17" s="13">
+    <row r="18" spans="2:8">
+      <c r="B18" s="13">
         <v>2024</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D18" s="15">
         <f t="shared" si="1"/>
         <v>9334344</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E18" s="16">
         <v>4390733</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F18" s="16">
         <v>4943611</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B18" s="17">
+    <row r="19" spans="2:8">
+      <c r="B19" s="17">
         <v>2024</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D19" s="19">
         <f t="shared" si="1"/>
         <v>10153993</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E19" s="20">
         <v>4807949</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F19" s="20">
         <v>5346044</v>
       </c>
     </row>
-    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="21">
+    <row r="20" spans="2:8" hidden="1">
+      <c r="B20" s="21">
         <v>2023</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C20" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D20" s="23">
         <f t="shared" si="1"/>
         <v>10829188</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E20" s="24">
         <v>5415680</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F20" s="25">
         <v>5413508</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H20" s="3">
         <v>5413508</v>
       </c>
     </row>
-    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="9">
+    <row r="21" spans="2:8" hidden="1">
+      <c r="B21" s="9">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <f t="shared" si="1"/>
         <v>9838837</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="12">
         <v>5273853</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F21" s="12">
         <v>4564984</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H21" s="3">
         <v>4564984</v>
       </c>
     </row>
-    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="13">
+    <row r="22" spans="2:8" hidden="1">
+      <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D22" s="15">
         <f t="shared" si="1"/>
         <v>9482301</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E22" s="16">
         <v>5416944</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F22" s="16">
         <v>4065357</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="3">
         <v>4065357</v>
       </c>
     </row>
-    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="9">
+    <row r="23" spans="2:8" hidden="1">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <f t="shared" si="1"/>
         <v>8633272</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="12">
         <v>5067159</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F23" s="12">
         <v>3566113</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="3">
         <v>3566113</v>
       </c>
     </row>
-    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="13">
+    <row r="24" spans="2:8" hidden="1">
+      <c r="B24" s="13">
         <v>2023</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D24" s="15">
         <f t="shared" si="1"/>
         <v>10433744</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E24" s="16">
         <v>5976700</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F24" s="16">
         <v>4457044</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <v>4457044</v>
       </c>
     </row>
-    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="9">
+    <row r="25" spans="2:8" hidden="1">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <f t="shared" si="1"/>
         <v>10994672</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E25" s="12">
         <v>5970043</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F25" s="12">
         <v>5024629</v>
       </c>
     </row>
-    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="13">
+    <row r="26" spans="2:8" hidden="1">
+      <c r="B26" s="13">
         <v>2023</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D26" s="15">
         <f t="shared" si="1"/>
         <v>9688779</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E26" s="16">
         <v>5246474</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F26" s="16">
         <v>4442305</v>
       </c>
     </row>
-    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="9">
+    <row r="27" spans="2:8" hidden="1">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <f t="shared" si="1"/>
         <v>9507284</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="12">
         <v>5270951</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F27" s="12">
         <v>4236333</v>
       </c>
     </row>
-    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="13">
+    <row r="28" spans="2:8" hidden="1">
+      <c r="B28" s="13">
         <v>2023</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D28" s="15">
         <f t="shared" si="1"/>
         <v>9919095</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E28" s="16">
         <v>5341258</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F28" s="16">
         <v>4577837</v>
       </c>
     </row>
-    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="9">
+    <row r="29" spans="2:8" hidden="1">
+      <c r="B29" s="9">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <f t="shared" si="1"/>
         <v>10259682</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="12">
         <v>5215128</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F29" s="12">
         <v>5044554</v>
       </c>
     </row>
-    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="13">
+    <row r="30" spans="2:8" hidden="1">
+      <c r="B30" s="13">
         <v>2023</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D30" s="15">
         <f t="shared" si="1"/>
         <v>8840768</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E30" s="16">
         <v>4453469</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F30" s="16">
         <v>4387299</v>
       </c>
     </row>
-    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="17">
+    <row r="31" spans="2:8" hidden="1">
+      <c r="B31" s="17">
         <v>2023</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D31" s="19">
         <f t="shared" si="1"/>
         <v>9936455</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E31" s="20">
         <v>4978979</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F31" s="20">
         <v>4957476</v>
       </c>
     </row>
-    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="21">
+    <row r="32" spans="2:8" hidden="1">
+      <c r="B32" s="21">
         <v>2022</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C32" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D32" s="23">
         <f t="shared" si="1"/>
         <v>10328957</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E32" s="24">
         <v>5458695</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F32" s="24">
         <v>4870262</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="9">
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="9">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <f t="shared" si="1"/>
         <v>9564350</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E33" s="12">
         <v>5216824</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F33" s="12">
         <v>4347526</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="13">
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D34" s="15">
         <f t="shared" si="1"/>
         <v>9047728</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E34" s="16">
         <v>5177608</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F34" s="16">
         <v>3870120</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="9">
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="11">
-        <f t="shared" si="1"/>
-        <v>8162159</v>
-      </c>
-      <c r="E34" s="12">
-        <v>4687975</v>
-      </c>
-      <c r="F34" s="12">
-        <v>3474184</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="13">
+      <c r="D35" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="13">
         <v>2022</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>9454996</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E36" s="16">
         <v>5202467</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F36" s="16">
         <v>4252529</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="9">
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <f t="shared" si="1"/>
         <v>10042169</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E37" s="12">
         <v>5313681</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F37" s="12">
         <v>4728488</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="13">
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="13">
         <v>2022</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C38" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D38" s="15">
         <f t="shared" si="1"/>
         <v>8909540</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E38" s="16">
         <v>4660739</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F38" s="16">
         <v>4248801</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="9">
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <f t="shared" si="1"/>
         <v>8894356</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E39" s="12">
         <v>4864477</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F39" s="12">
         <v>4029879</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="13">
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="13">
         <v>2022</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D40" s="15">
         <f t="shared" si="1"/>
         <v>8965893</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E40" s="16">
         <v>4744599</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F40" s="16">
         <v>4221294</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="9">
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <f t="shared" si="1"/>
         <v>8932243</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E41" s="12">
         <v>4477915</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F41" s="12">
         <v>4454328</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="13">
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42" s="13">
         <v>2022</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D42" s="15">
         <f t="shared" si="1"/>
         <v>7028818</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E42" s="16">
         <v>3568589</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F42" s="16">
         <v>3460229</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="17">
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43" s="17">
         <v>2022</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C43" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D43" s="19">
         <f t="shared" si="1"/>
         <v>7524409</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E43" s="20">
         <v>3789823</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F43" s="20">
         <v>3734586</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="21">
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="21">
         <v>2021</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C44" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D44" s="23">
         <f t="shared" si="1"/>
         <v>8858284</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E44" s="24">
         <v>4685952</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F44" s="24">
         <v>4172332</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="9">
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="9">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <f t="shared" si="1"/>
         <v>8044448</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E45" s="12">
         <v>4338222</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F45" s="12">
         <v>3706226</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="13">
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D46" s="15">
         <f t="shared" si="1"/>
         <v>7434983</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E46" s="16">
         <v>4148811</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F46" s="16">
         <v>3286172</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="9">
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="11">
-        <f t="shared" ref="D46:D77" si="3">SUM(E46:F46)</f>
+      <c r="D47" s="11">
+        <f t="shared" ref="D47:D78" si="3">SUM(E47:F47)</f>
         <v>6335718</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E47" s="12">
         <v>3602892</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F47" s="12">
         <v>2732826</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="13">
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D48" s="15">
         <f t="shared" si="3"/>
         <v>7407170</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E48" s="16">
         <v>3994397</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F48" s="16">
         <v>3412773</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="9">
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <f t="shared" si="3"/>
         <v>8256002</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E49" s="12">
         <v>4365429</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F49" s="12">
         <v>3890573</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="13">
+    <row r="50" spans="2:6" hidden="1">
+      <c r="B50" s="13">
         <v>2021</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D50" s="15">
         <f t="shared" si="3"/>
         <v>7317711</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E50" s="16">
         <v>3834253</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F50" s="16">
         <v>3483458</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="9">
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <f t="shared" si="3"/>
         <v>6934293</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E51" s="12">
         <v>3818846</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F51" s="12">
         <v>3115447</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="13">
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="13">
         <v>2021</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D52" s="15">
         <f t="shared" si="3"/>
         <v>5986797</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E52" s="16">
         <v>3478623</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F52" s="16">
         <v>2508174</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="9">
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="9">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <f t="shared" si="3"/>
         <v>5308998</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E53" s="12">
         <v>3169991</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F53" s="12">
         <v>2139007</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="13">
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="13">
         <v>2021</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D54" s="15">
         <f t="shared" si="3"/>
         <v>3515246</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E54" s="16">
         <v>2221947</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F54" s="16">
         <v>1293299</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="17">
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="17">
         <v>2021</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C55" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D55" s="19">
         <f t="shared" si="3"/>
         <v>4603651</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E55" s="20">
         <v>2703105</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F55" s="20">
         <v>1900546</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="21">
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="21">
         <v>2020</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C56" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D56" s="23">
         <f t="shared" si="3"/>
         <v>5262897</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E56" s="24">
         <v>3144137</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F56" s="24">
         <v>2118760</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="9">
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="9">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <f t="shared" si="3"/>
         <v>4568948</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E57" s="12">
         <v>2920098</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F57" s="12">
         <v>1648850</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="13">
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D58" s="15">
         <f t="shared" si="3"/>
         <v>4066515</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E58" s="16">
         <v>2708781</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F58" s="16">
         <v>1357734</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="9">
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <f t="shared" si="3"/>
         <v>3283162</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E59" s="12">
         <v>2317729</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F59" s="12">
         <v>965433</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="13">
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D60" s="15">
         <f t="shared" si="3"/>
         <v>3035521</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E60" s="16">
         <v>2120271</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F60" s="16">
         <v>915250</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="9">
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <f t="shared" si="3"/>
         <v>2412156</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E61" s="12">
         <v>1672969</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F61" s="12">
         <v>739187</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="13">
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="13">
         <v>2020</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D62" s="15">
         <f t="shared" si="3"/>
         <v>1180756</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E62" s="16">
         <v>886076</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F62" s="16">
         <v>294680</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="9">
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <f t="shared" si="3"/>
         <v>488531</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E63" s="12">
         <v>385641</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F63" s="12">
         <v>102890</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="13">
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="13">
         <v>2020</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D64" s="15">
         <f t="shared" si="3"/>
         <v>509441</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E64" s="16">
         <v>413225</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F64" s="16">
         <v>96216</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="9">
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="9">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <f t="shared" si="3"/>
         <v>5886542</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E65" s="12">
         <v>3142005</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F65" s="12">
         <v>2744537</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="13">
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="13">
         <v>2020</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C66" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D66" s="15">
         <f t="shared" si="3"/>
         <v>8319634</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E66" s="16">
         <v>4091826</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F66" s="16">
         <v>4227808</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="17">
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="17">
         <v>2020</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C67" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D67" s="19">
         <f t="shared" si="3"/>
         <v>9065514</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E67" s="20">
         <v>4433703</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F67" s="20">
         <v>4631811</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="21">
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="21">
         <v>2019</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C68" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D68" s="23">
         <f t="shared" si="3"/>
         <v>9358660</v>
       </c>
-      <c r="E67" s="24">
+      <c r="E68" s="24">
         <v>4755157</v>
       </c>
-      <c r="F67" s="24">
+      <c r="F68" s="24">
         <v>4603503</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="9">
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="9">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <f t="shared" si="3"/>
         <v>8545618</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E69" s="12">
         <v>4611815</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F69" s="12">
         <v>3933803</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="13">
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C70" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D70" s="15">
         <f t="shared" si="3"/>
         <v>8005724</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E70" s="16">
         <v>4617022</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F70" s="16">
         <v>3388702</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="9">
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <f t="shared" si="3"/>
         <v>7233383</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E71" s="12">
         <v>4187402</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F71" s="12">
         <v>3045981</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="13">
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C72" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D72" s="15">
         <f t="shared" si="3"/>
         <v>8708818</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E72" s="16">
         <v>4765181</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F72" s="16">
         <v>3943637</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="9">
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <f t="shared" si="3"/>
         <v>9445888</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E73" s="12">
         <v>5005061</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F73" s="12">
         <v>4440827</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="13">
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="13">
         <v>2019</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C74" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D74" s="15">
         <f t="shared" si="3"/>
         <v>8525678</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E74" s="16">
         <v>4555762</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F74" s="16">
         <v>3969916</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="9">
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <f t="shared" si="3"/>
         <v>8482898</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E75" s="12">
         <v>4704389</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F75" s="12">
         <v>3778509</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="13">
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="13">
         <v>2019</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C76" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D76" s="15">
         <f t="shared" si="3"/>
         <v>8548334</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E76" s="16">
         <v>4438332</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F76" s="16">
         <v>4110002</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="9">
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="9">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <f t="shared" si="3"/>
         <v>8887698</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E77" s="12">
         <v>4310865</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F77" s="12">
         <v>4576833</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="13">
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="13">
         <v>2019</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C78" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D78" s="15">
         <f t="shared" si="3"/>
         <v>7407471</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E78" s="16">
         <v>3590917</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F78" s="16">
         <v>3816554</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="17">
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="17">
         <v>2019</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C79" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="19">
-        <f t="shared" ref="D78:D90" si="4">SUM(E78:F78)</f>
+      <c r="D79" s="19">
+        <f t="shared" ref="D79:D91" si="4">SUM(E79:F79)</f>
         <v>8273412</v>
       </c>
-      <c r="E78" s="20">
+      <c r="E79" s="20">
         <v>3989338</v>
       </c>
-      <c r="F78" s="20">
+      <c r="F79" s="20">
         <v>4284074</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="14">
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="14">
         <v>2018</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D80" s="15">
         <f t="shared" si="4"/>
         <v>8744817</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E80" s="16">
         <v>4400768</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F80" s="16">
         <v>4344049</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="10">
+    <row r="81" spans="2:6" hidden="1">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <f t="shared" si="4"/>
         <v>8065105</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E81" s="12">
         <v>4287344</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F81" s="12">
         <v>3777761</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="14">
+    <row r="82" spans="2:6" hidden="1">
+      <c r="B82" s="14">
         <v>2018</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C82" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D82" s="15">
         <f t="shared" si="4"/>
         <v>7563067</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E82" s="16">
         <v>4246079</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F82" s="16">
         <v>3316988</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="10">
+    <row r="83" spans="2:6" hidden="1">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <f t="shared" si="4"/>
         <v>6852045</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E83" s="12">
         <v>3900894</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F83" s="12">
         <v>2951151</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="14">
+    <row r="84" spans="2:6" hidden="1">
+      <c r="B84" s="14">
         <v>2018</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C84" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D84" s="15">
         <f t="shared" si="4"/>
         <v>8297341</v>
       </c>
-      <c r="E83" s="16">
+      <c r="E84" s="16">
         <v>4416844</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F84" s="16">
         <v>3880497</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10">
+    <row r="85" spans="2:6" hidden="1">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <f t="shared" si="4"/>
         <v>9056178</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E85" s="12">
         <v>4689606</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F85" s="12">
         <v>4366572</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="14">
+    <row r="86" spans="2:6" hidden="1">
+      <c r="B86" s="14">
         <v>2018</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C86" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D86" s="15">
         <f t="shared" si="4"/>
         <v>8006308</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E86" s="16">
         <v>4087227</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F86" s="16">
         <v>3919081</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="10">
+    <row r="87" spans="2:6" hidden="1">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <f t="shared" si="4"/>
         <v>7817504</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E87" s="12">
         <v>4163127</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F87" s="12">
         <v>3654377</v>
       </c>
     </row>
-    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="14">
+    <row r="88" spans="2:6" hidden="1">
+      <c r="B88" s="14">
         <v>2018</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C88" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="15">
+      <c r="D88" s="15">
         <f t="shared" si="4"/>
         <v>8098666</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E88" s="16">
         <v>4096821</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F88" s="16">
         <v>4001845</v>
       </c>
     </row>
-    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="10">
+    <row r="89" spans="2:6" hidden="1">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <f t="shared" si="4"/>
         <v>8610022</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E89" s="12">
         <v>4048811</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F89" s="12">
         <v>4561211</v>
       </c>
     </row>
-    <row r="89" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="14">
+    <row r="90" spans="2:6" hidden="1">
+      <c r="B90" s="14">
         <v>2018</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C90" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D90" s="15">
         <f t="shared" si="4"/>
         <v>7192032</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E90" s="16">
         <v>3422954</v>
       </c>
-      <c r="F89" s="16">
+      <c r="F90" s="16">
         <v>3769078</v>
       </c>
     </row>
-    <row r="90" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="10">
+    <row r="91" spans="2:6" hidden="1">
+      <c r="B91" s="10">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <f t="shared" si="4"/>
         <v>8102943</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E91" s="12">
         <v>3774420</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F91" s="12">
         <v>4328523</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B91" s="3" t="s">
+    <row r="92" spans="2:6">
+      <c r="B92" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B92" s="3" t="s">
+    <row r="93" spans="2:6">
+      <c r="B93" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F93" s="26"/>
+    <row r="94" spans="2:6">
+      <c r="F94" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_Total_N_Aero.xlsx
+++ b/Pasajeros_Total_N_Aero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E187EA3-65FA-4A73-84CD-25163AB55033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66434790-D235-44BF-BACB-C20E03621FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
   <si>
     <t>Internacional</t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -311,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -380,11 +380,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -553,8 +548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F91" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B5:F91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F92" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -797,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:H94"/>
+  <dimension ref="B2:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -851,1576 +846,1594 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="30">
+      <c r="B6" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="11">
+        <f>SUM(E6:F6)</f>
+        <v>11003333</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5244232</v>
+      </c>
+      <c r="F6" s="12">
+        <v>5759101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="31">
-        <f>SUM(E6:F6)</f>
-        <v>9365978</v>
-      </c>
-      <c r="E6" s="32">
-        <v>4481943</v>
-      </c>
-      <c r="F6" s="32">
+      <c r="D7" s="15">
+        <f>SUM(E7:F7)</f>
+        <v>9365193</v>
+      </c>
+      <c r="E7" s="16">
+        <v>4481158</v>
+      </c>
+      <c r="F7" s="16">
         <v>4884035</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="17">
+    <row r="8" spans="2:6">
+      <c r="B8" s="17">
         <v>2025</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="19">
-        <f>SUM(E7:F7)</f>
-        <v>10716952</v>
-      </c>
-      <c r="E7" s="20">
-        <v>5074570</v>
-      </c>
-      <c r="F7" s="20">
-        <v>5642382</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="13">
+      <c r="D8" s="19">
+        <f>SUM(E8:F8)</f>
+        <v>10721774</v>
+      </c>
+      <c r="E8" s="20">
+        <v>5073614</v>
+      </c>
+      <c r="F8" s="20">
+        <v>5648160</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="15">
-        <f>SUM(E8:F8)</f>
+      <c r="D9" s="15">
+        <f>SUM(E9:F9)</f>
         <v>11228251</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E9" s="16">
         <v>5469205</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F9" s="16">
         <v>5759046</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="9">
+    <row r="10" spans="2:6">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="11">
-        <f>SUM(E9:F9)</f>
+      <c r="D10" s="11">
+        <f>SUM(E10:F10)</f>
         <v>10113653</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E10" s="12">
         <v>5252879</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F10" s="12">
         <v>4860774</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="13">
+    <row r="11" spans="2:6">
+      <c r="B11" s="13">
         <v>2024</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="15">
-        <f t="shared" ref="D10" si="0">SUM(E10:F10)</f>
+      <c r="D11" s="15">
+        <f t="shared" ref="D11" si="0">SUM(E11:F11)</f>
         <v>9357768</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E11" s="16">
         <v>5191280</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F11" s="16">
         <v>4166488</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="9">
+    <row r="12" spans="2:6">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="11">
-        <f>SUM(E11:F11)</f>
+      <c r="D12" s="11">
+        <f>SUM(E12:F12)</f>
         <v>8538425</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E12" s="12">
         <v>4937405</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F12" s="12">
         <v>3601020</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="13">
+    <row r="13" spans="2:6">
+      <c r="B13" s="13">
         <v>2024</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="15">
-        <f t="shared" ref="D12:D46" si="1">SUM(E12:F12)</f>
+      <c r="D13" s="15">
+        <f t="shared" ref="D13:D47" si="1">SUM(E13:F13)</f>
         <v>10074948</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E13" s="16">
         <v>5592911</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F13" s="16">
         <v>4482037</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="9">
+    <row r="14" spans="2:6">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="11">
-        <f t="shared" ref="D13:D15" si="2">SUM(E13:F13)</f>
+      <c r="D14" s="11">
+        <f t="shared" ref="D14:D16" si="2">SUM(E14:F14)</f>
         <v>10785958</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E14" s="12">
         <v>5691104</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F14" s="12">
         <v>5094854</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="13">
+    <row r="15" spans="2:6">
+      <c r="B15" s="13">
         <v>2024</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D15" s="15">
         <f t="shared" si="2"/>
         <v>9831411</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E15" s="16">
         <v>5134348</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F15" s="16">
         <v>4697063</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="9">
+    <row r="16" spans="2:6">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <f t="shared" si="2"/>
         <v>9757133</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E16" s="12">
         <v>5235903</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F16" s="12">
         <v>4521230</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="13">
+    <row r="17" spans="2:8">
+      <c r="B17" s="13">
         <v>2024</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D17" s="15">
         <f t="shared" si="1"/>
         <v>9749048</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E17" s="16">
         <v>4980737</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F17" s="16">
         <v>4768311</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="9">
+    <row r="18" spans="2:8">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="11">
         <f t="shared" si="1"/>
         <v>10538864</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E18" s="12">
         <v>4862519</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F18" s="12">
         <v>5676345</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="13">
+    <row r="19" spans="2:8">
+      <c r="B19" s="13">
         <v>2024</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D19" s="15">
         <f t="shared" si="1"/>
         <v>9334344</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E19" s="16">
         <v>4390733</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F19" s="16">
         <v>4943611</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="17">
+    <row r="20" spans="2:8">
+      <c r="B20" s="17">
         <v>2024</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D20" s="19">
         <f t="shared" si="1"/>
         <v>10153993</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E20" s="20">
         <v>4807949</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F20" s="20">
         <v>5346044</v>
       </c>
     </row>
-    <row r="20" spans="2:8" hidden="1">
-      <c r="B20" s="21">
+    <row r="21" spans="2:8" hidden="1">
+      <c r="B21" s="21">
         <v>2023</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C21" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D21" s="23">
         <f t="shared" si="1"/>
         <v>10829188</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E21" s="24">
         <v>5415680</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F21" s="25">
         <v>5413508</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H21" s="3">
         <v>5413508</v>
       </c>
     </row>
-    <row r="21" spans="2:8" hidden="1">
-      <c r="B21" s="9">
+    <row r="22" spans="2:8" hidden="1">
+      <c r="B22" s="9">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <f t="shared" si="1"/>
         <v>9838837</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E22" s="12">
         <v>5273853</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F22" s="12">
         <v>4564984</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="3">
         <v>4564984</v>
       </c>
     </row>
-    <row r="22" spans="2:8" hidden="1">
-      <c r="B22" s="13">
+    <row r="23" spans="2:8" hidden="1">
+      <c r="B23" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D23" s="15">
         <f t="shared" si="1"/>
         <v>9482301</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E23" s="16">
         <v>5416944</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F23" s="16">
         <v>4065357</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="3">
         <v>4065357</v>
       </c>
     </row>
-    <row r="23" spans="2:8" hidden="1">
-      <c r="B23" s="9">
+    <row r="24" spans="2:8" hidden="1">
+      <c r="B24" s="9">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <f t="shared" si="1"/>
         <v>8633272</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E24" s="12">
         <v>5067159</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F24" s="12">
         <v>3566113</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <v>3566113</v>
       </c>
     </row>
-    <row r="24" spans="2:8" hidden="1">
-      <c r="B24" s="13">
+    <row r="25" spans="2:8" hidden="1">
+      <c r="B25" s="13">
         <v>2023</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D25" s="15">
         <f t="shared" si="1"/>
         <v>10433744</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E25" s="16">
         <v>5976700</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F25" s="16">
         <v>4457044</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="3">
         <v>4457044</v>
       </c>
     </row>
-    <row r="25" spans="2:8" hidden="1">
-      <c r="B25" s="9">
+    <row r="26" spans="2:8" hidden="1">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <f t="shared" si="1"/>
         <v>10994672</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E26" s="12">
         <v>5970043</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F26" s="12">
         <v>5024629</v>
       </c>
     </row>
-    <row r="26" spans="2:8" hidden="1">
-      <c r="B26" s="13">
+    <row r="27" spans="2:8" hidden="1">
+      <c r="B27" s="13">
         <v>2023</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D27" s="15">
         <f t="shared" si="1"/>
         <v>9688779</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E27" s="16">
         <v>5246474</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F27" s="16">
         <v>4442305</v>
       </c>
     </row>
-    <row r="27" spans="2:8" hidden="1">
-      <c r="B27" s="9">
+    <row r="28" spans="2:8" hidden="1">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <f t="shared" si="1"/>
         <v>9507284</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E28" s="12">
         <v>5270951</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F28" s="12">
         <v>4236333</v>
       </c>
     </row>
-    <row r="28" spans="2:8" hidden="1">
-      <c r="B28" s="13">
+    <row r="29" spans="2:8" hidden="1">
+      <c r="B29" s="13">
         <v>2023</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D29" s="15">
         <f t="shared" si="1"/>
         <v>9919095</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E29" s="16">
         <v>5341258</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F29" s="16">
         <v>4577837</v>
       </c>
     </row>
-    <row r="29" spans="2:8" hidden="1">
-      <c r="B29" s="9">
+    <row r="30" spans="2:8" hidden="1">
+      <c r="B30" s="9">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <f t="shared" si="1"/>
         <v>10259682</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E30" s="12">
         <v>5215128</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F30" s="12">
         <v>5044554</v>
       </c>
     </row>
-    <row r="30" spans="2:8" hidden="1">
-      <c r="B30" s="13">
+    <row r="31" spans="2:8" hidden="1">
+      <c r="B31" s="13">
         <v>2023</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D31" s="15">
         <f t="shared" si="1"/>
         <v>8840768</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E31" s="16">
         <v>4453469</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F31" s="16">
         <v>4387299</v>
       </c>
     </row>
-    <row r="31" spans="2:8" hidden="1">
-      <c r="B31" s="17">
+    <row r="32" spans="2:8" hidden="1">
+      <c r="B32" s="17">
         <v>2023</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D32" s="19">
         <f t="shared" si="1"/>
         <v>9936455</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E32" s="20">
         <v>4978979</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F32" s="20">
         <v>4957476</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1">
-      <c r="B32" s="21">
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="21">
         <v>2022</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C33" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D33" s="23">
         <f t="shared" si="1"/>
         <v>10328957</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E33" s="24">
         <v>5458695</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F33" s="24">
         <v>4870262</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1">
-      <c r="B33" s="9">
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="9">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <f t="shared" si="1"/>
         <v>9564350</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E34" s="12">
         <v>5216824</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F34" s="12">
         <v>4347526</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="13">
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D35" s="15">
         <f t="shared" si="1"/>
         <v>9047728</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E35" s="16">
         <v>5177608</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F35" s="16">
         <v>3870120</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1">
-      <c r="B35" s="9">
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="9">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="2:6" hidden="1">
-      <c r="B36" s="13">
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="13">
         <v>2022</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D37" s="15">
         <f t="shared" si="1"/>
         <v>9454996</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E37" s="16">
         <v>5202467</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F37" s="16">
         <v>4252529</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1">
-      <c r="B37" s="9">
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <f t="shared" si="1"/>
         <v>10042169</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E38" s="12">
         <v>5313681</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F38" s="12">
         <v>4728488</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1">
-      <c r="B38" s="13">
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="13">
         <v>2022</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C39" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D39" s="15">
         <f t="shared" si="1"/>
         <v>8909540</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E39" s="16">
         <v>4660739</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F39" s="16">
         <v>4248801</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1">
-      <c r="B39" s="9">
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <f t="shared" si="1"/>
         <v>8894356</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E40" s="12">
         <v>4864477</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F40" s="12">
         <v>4029879</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1">
-      <c r="B40" s="13">
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="13">
         <v>2022</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D41" s="15">
         <f t="shared" si="1"/>
         <v>8965893</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E41" s="16">
         <v>4744599</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F41" s="16">
         <v>4221294</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1">
-      <c r="B41" s="9">
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42" s="9">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <f t="shared" si="1"/>
         <v>8932243</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E42" s="12">
         <v>4477915</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F42" s="12">
         <v>4454328</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1">
-      <c r="B42" s="13">
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43" s="13">
         <v>2022</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D43" s="15">
         <f t="shared" si="1"/>
         <v>7028818</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E43" s="16">
         <v>3568589</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F43" s="16">
         <v>3460229</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1">
-      <c r="B43" s="17">
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="17">
         <v>2022</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D44" s="19">
         <f t="shared" si="1"/>
         <v>7524409</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E44" s="20">
         <v>3789823</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F44" s="20">
         <v>3734586</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1">
-      <c r="B44" s="21">
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="21">
         <v>2021</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C45" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D45" s="23">
         <f t="shared" si="1"/>
         <v>8858284</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E45" s="24">
         <v>4685952</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F45" s="24">
         <v>4172332</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1">
-      <c r="B45" s="9">
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="9">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <f t="shared" si="1"/>
         <v>8044448</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E46" s="12">
         <v>4338222</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F46" s="12">
         <v>3706226</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1">
-      <c r="B46" s="13">
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D47" s="15">
         <f t="shared" si="1"/>
         <v>7434983</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E47" s="16">
         <v>4148811</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F47" s="16">
         <v>3286172</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1">
-      <c r="B47" s="9">
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="9">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="11">
-        <f t="shared" ref="D47:D78" si="3">SUM(E47:F47)</f>
+      <c r="D48" s="11">
+        <f t="shared" ref="D48:D79" si="3">SUM(E48:F48)</f>
         <v>6335718</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E48" s="12">
         <v>3602892</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F48" s="12">
         <v>2732826</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1">
-      <c r="B48" s="13">
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="13">
         <v>2021</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D49" s="15">
         <f t="shared" si="3"/>
         <v>7407170</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E49" s="16">
         <v>3994397</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F49" s="16">
         <v>3412773</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1">
-      <c r="B49" s="9">
+    <row r="50" spans="2:6" hidden="1">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <f t="shared" si="3"/>
         <v>8256002</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E50" s="12">
         <v>4365429</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F50" s="12">
         <v>3890573</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1">
-      <c r="B50" s="13">
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="13">
         <v>2021</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D51" s="15">
         <f t="shared" si="3"/>
         <v>7317711</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E51" s="16">
         <v>3834253</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F51" s="16">
         <v>3483458</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1">
-      <c r="B51" s="9">
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <f t="shared" si="3"/>
         <v>6934293</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E52" s="12">
         <v>3818846</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F52" s="12">
         <v>3115447</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1">
-      <c r="B52" s="13">
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="13">
         <v>2021</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D53" s="15">
         <f t="shared" si="3"/>
         <v>5986797</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E53" s="16">
         <v>3478623</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F53" s="16">
         <v>2508174</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1">
-      <c r="B53" s="9">
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="9">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <f t="shared" si="3"/>
         <v>5308998</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E54" s="12">
         <v>3169991</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F54" s="12">
         <v>2139007</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1">
-      <c r="B54" s="13">
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="13">
         <v>2021</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D55" s="15">
         <f t="shared" si="3"/>
         <v>3515246</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E55" s="16">
         <v>2221947</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F55" s="16">
         <v>1293299</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1">
-      <c r="B55" s="17">
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="17">
         <v>2021</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C56" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D56" s="19">
         <f t="shared" si="3"/>
         <v>4603651</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E56" s="20">
         <v>2703105</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F56" s="20">
         <v>1900546</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1">
-      <c r="B56" s="21">
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="21">
         <v>2020</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C57" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D57" s="23">
         <f t="shared" si="3"/>
         <v>5262897</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E57" s="24">
         <v>3144137</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F57" s="24">
         <v>2118760</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1">
-      <c r="B57" s="9">
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="9">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <f t="shared" si="3"/>
         <v>4568948</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E58" s="12">
         <v>2920098</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F58" s="12">
         <v>1648850</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="13">
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D59" s="15">
         <f t="shared" si="3"/>
         <v>4066515</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E59" s="16">
         <v>2708781</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F59" s="16">
         <v>1357734</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1">
-      <c r="B59" s="9">
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="9">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <f t="shared" si="3"/>
         <v>3283162</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E60" s="12">
         <v>2317729</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F60" s="12">
         <v>965433</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1">
-      <c r="B60" s="13">
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="13">
         <v>2020</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D61" s="15">
         <f t="shared" si="3"/>
         <v>3035521</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E61" s="16">
         <v>2120271</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F61" s="16">
         <v>915250</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1">
-      <c r="B61" s="9">
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <f t="shared" si="3"/>
         <v>2412156</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E62" s="12">
         <v>1672969</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F62" s="12">
         <v>739187</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1">
-      <c r="B62" s="13">
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="13">
         <v>2020</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D63" s="15">
         <f t="shared" si="3"/>
         <v>1180756</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E63" s="16">
         <v>886076</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F63" s="16">
         <v>294680</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1">
-      <c r="B63" s="9">
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <f t="shared" si="3"/>
         <v>488531</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E64" s="12">
         <v>385641</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F64" s="12">
         <v>102890</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1">
-      <c r="B64" s="13">
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="13">
         <v>2020</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C65" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D65" s="15">
         <f t="shared" si="3"/>
         <v>509441</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E65" s="16">
         <v>413225</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F65" s="16">
         <v>96216</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1">
-      <c r="B65" s="9">
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="9">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <f t="shared" si="3"/>
         <v>5886542</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E66" s="12">
         <v>3142005</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F66" s="12">
         <v>2744537</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1">
-      <c r="B66" s="13">
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="13">
         <v>2020</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D67" s="15">
         <f t="shared" si="3"/>
         <v>8319634</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E67" s="16">
         <v>4091826</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F67" s="16">
         <v>4227808</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1">
-      <c r="B67" s="17">
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="17">
         <v>2020</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C68" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D68" s="19">
         <f t="shared" si="3"/>
         <v>9065514</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E68" s="20">
         <v>4433703</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F68" s="20">
         <v>4631811</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1">
-      <c r="B68" s="21">
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="21">
         <v>2019</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C69" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="23">
+      <c r="D69" s="23">
         <f t="shared" si="3"/>
         <v>9358660</v>
       </c>
-      <c r="E68" s="24">
+      <c r="E69" s="24">
         <v>4755157</v>
       </c>
-      <c r="F68" s="24">
+      <c r="F69" s="24">
         <v>4603503</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1">
-      <c r="B69" s="9">
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="9">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <f t="shared" si="3"/>
         <v>8545618</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E70" s="12">
         <v>4611815</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F70" s="12">
         <v>3933803</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="13">
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C71" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D71" s="15">
         <f t="shared" si="3"/>
         <v>8005724</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E71" s="16">
         <v>4617022</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F71" s="16">
         <v>3388702</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1">
-      <c r="B71" s="9">
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="9">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <f t="shared" si="3"/>
         <v>7233383</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E72" s="12">
         <v>4187402</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F72" s="12">
         <v>3045981</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1">
-      <c r="B72" s="13">
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="13">
         <v>2019</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D73" s="15">
         <f t="shared" si="3"/>
         <v>8708818</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E73" s="16">
         <v>4765181</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F73" s="16">
         <v>3943637</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1">
-      <c r="B73" s="9">
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <f t="shared" si="3"/>
         <v>9445888</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E74" s="12">
         <v>5005061</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F74" s="12">
         <v>4440827</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1">
-      <c r="B74" s="13">
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="13">
         <v>2019</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C75" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D75" s="15">
         <f t="shared" si="3"/>
         <v>8525678</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E75" s="16">
         <v>4555762</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F75" s="16">
         <v>3969916</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1">
-      <c r="B75" s="9">
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <f t="shared" si="3"/>
         <v>8482898</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E76" s="12">
         <v>4704389</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F76" s="12">
         <v>3778509</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1">
-      <c r="B76" s="13">
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="13">
         <v>2019</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C77" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D77" s="15">
         <f t="shared" si="3"/>
         <v>8548334</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E77" s="16">
         <v>4438332</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F77" s="16">
         <v>4110002</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1">
-      <c r="B77" s="9">
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="9">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <f t="shared" si="3"/>
         <v>8887698</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E78" s="12">
         <v>4310865</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F78" s="12">
         <v>4576833</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1">
-      <c r="B78" s="13">
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="13">
         <v>2019</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C79" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D79" s="15">
         <f t="shared" si="3"/>
         <v>7407471</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E79" s="16">
         <v>3590917</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F79" s="16">
         <v>3816554</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1">
-      <c r="B79" s="17">
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="17">
         <v>2019</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C80" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="19">
-        <f t="shared" ref="D79:D91" si="4">SUM(E79:F79)</f>
+      <c r="D80" s="19">
+        <f t="shared" ref="D80:D92" si="4">SUM(E80:F80)</f>
         <v>8273412</v>
       </c>
-      <c r="E79" s="20">
+      <c r="E80" s="20">
         <v>3989338</v>
       </c>
-      <c r="F79" s="20">
+      <c r="F80" s="20">
         <v>4284074</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1">
-      <c r="B80" s="14">
+    <row r="81" spans="2:6" hidden="1">
+      <c r="B81" s="14">
         <v>2018</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D81" s="15">
         <f t="shared" si="4"/>
         <v>8744817</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E81" s="16">
         <v>4400768</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F81" s="16">
         <v>4344049</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1">
-      <c r="B81" s="10">
+    <row r="82" spans="2:6" hidden="1">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <f t="shared" si="4"/>
         <v>8065105</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E82" s="12">
         <v>4287344</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F82" s="12">
         <v>3777761</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1">
-      <c r="B82" s="14">
+    <row r="83" spans="2:6" hidden="1">
+      <c r="B83" s="14">
         <v>2018</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C83" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D83" s="15">
         <f t="shared" si="4"/>
         <v>7563067</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E83" s="16">
         <v>4246079</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F83" s="16">
         <v>3316988</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1">
-      <c r="B83" s="10">
+    <row r="84" spans="2:6" hidden="1">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <f t="shared" si="4"/>
         <v>6852045</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E84" s="12">
         <v>3900894</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F84" s="12">
         <v>2951151</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1">
-      <c r="B84" s="14">
+    <row r="85" spans="2:6" hidden="1">
+      <c r="B85" s="14">
         <v>2018</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C85" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D85" s="15">
         <f t="shared" si="4"/>
         <v>8297341</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E85" s="16">
         <v>4416844</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F85" s="16">
         <v>3880497</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1">
-      <c r="B85" s="10">
+    <row r="86" spans="2:6" hidden="1">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <f t="shared" si="4"/>
         <v>9056178</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E86" s="12">
         <v>4689606</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F86" s="12">
         <v>4366572</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1">
-      <c r="B86" s="14">
+    <row r="87" spans="2:6" hidden="1">
+      <c r="B87" s="14">
         <v>2018</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C87" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D87" s="15">
         <f t="shared" si="4"/>
         <v>8006308</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E87" s="16">
         <v>4087227</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F87" s="16">
         <v>3919081</v>
       </c>
     </row>
-    <row r="87" spans="2:6" hidden="1">
-      <c r="B87" s="10">
+    <row r="88" spans="2:6" hidden="1">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <f t="shared" si="4"/>
         <v>7817504</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E88" s="12">
         <v>4163127</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F88" s="12">
         <v>3654377</v>
       </c>
     </row>
-    <row r="88" spans="2:6" hidden="1">
-      <c r="B88" s="14">
+    <row r="89" spans="2:6" hidden="1">
+      <c r="B89" s="14">
         <v>2018</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C89" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D89" s="15">
         <f t="shared" si="4"/>
         <v>8098666</v>
       </c>
-      <c r="E88" s="16">
+      <c r="E89" s="16">
         <v>4096821</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F89" s="16">
         <v>4001845</v>
       </c>
     </row>
-    <row r="89" spans="2:6" hidden="1">
-      <c r="B89" s="10">
+    <row r="90" spans="2:6" hidden="1">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <f t="shared" si="4"/>
         <v>8610022</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E90" s="12">
         <v>4048811</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F90" s="12">
         <v>4561211</v>
       </c>
     </row>
-    <row r="90" spans="2:6" hidden="1">
-      <c r="B90" s="14">
+    <row r="91" spans="2:6" hidden="1">
+      <c r="B91" s="14">
         <v>2018</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C91" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D91" s="15">
         <f t="shared" si="4"/>
         <v>7192032</v>
       </c>
-      <c r="E90" s="16">
+      <c r="E91" s="16">
         <v>3422954</v>
       </c>
-      <c r="F90" s="16">
+      <c r="F91" s="16">
         <v>3769078</v>
       </c>
     </row>
-    <row r="91" spans="2:6" hidden="1">
-      <c r="B91" s="10">
+    <row r="92" spans="2:6" hidden="1">
+      <c r="B92" s="10">
         <v>2018</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D92" s="11">
         <f t="shared" si="4"/>
         <v>8102943</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E92" s="12">
         <v>3774420</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F92" s="12">
         <v>4328523</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="93" spans="2:6">
       <c r="B93" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:6">
-      <c r="F94" s="26"/>
+    <row r="95" spans="2:6">
+      <c r="F95" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_Total_N_Aero.xlsx
+++ b/Pasajeros_Total_N_Aero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66434790-D235-44BF-BACB-C20E03621FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274AD312-385E-485D-8748-107AA95305A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="21">
   <si>
     <t>Internacional</t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F92" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B5:F92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F93" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -792,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:H95"/>
+  <dimension ref="B2:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -846,1594 +846,1612 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="9">
+      <c r="B6" s="14">
         <v>2025</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="15">
+        <f>SUM(E6:F6)</f>
+        <v>10497743</v>
+      </c>
+      <c r="E6" s="16">
+        <v>5436631</v>
+      </c>
+      <c r="F6" s="16">
+        <v>5061112</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11">
-        <f>SUM(E6:F6)</f>
+      <c r="D7" s="11">
+        <f>SUM(E7:F7)</f>
         <v>11003333</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E7" s="12">
         <v>5244232</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F7" s="12">
         <v>5759101</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="14">
+    <row r="8" spans="2:6">
+      <c r="B8" s="14">
         <v>2025</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="15">
-        <f>SUM(E7:F7)</f>
+      <c r="D8" s="15">
+        <f>SUM(E8:F8)</f>
         <v>9365193</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E8" s="16">
         <v>4481158</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F8" s="16">
         <v>4884035</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="17">
+    <row r="9" spans="2:6">
+      <c r="B9" s="17">
         <v>2025</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="19">
-        <f>SUM(E8:F8)</f>
+      <c r="D9" s="19">
+        <f>SUM(E9:F9)</f>
         <v>10721774</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E9" s="20">
         <v>5073614</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F9" s="20">
         <v>5648160</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="13">
+    <row r="10" spans="2:6">
+      <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="15">
-        <f>SUM(E9:F9)</f>
+      <c r="D10" s="15">
+        <f>SUM(E10:F10)</f>
         <v>11228251</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E10" s="16">
         <v>5469205</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F10" s="16">
         <v>5759046</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="9">
+    <row r="11" spans="2:6">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11">
-        <f>SUM(E10:F10)</f>
+      <c r="D11" s="11">
+        <f>SUM(E11:F11)</f>
         <v>10113653</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="12">
         <v>5252879</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F11" s="12">
         <v>4860774</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="13">
+    <row r="12" spans="2:6">
+      <c r="B12" s="13">
         <v>2024</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="15">
-        <f t="shared" ref="D11" si="0">SUM(E11:F11)</f>
+      <c r="D12" s="15">
+        <f t="shared" ref="D12" si="0">SUM(E12:F12)</f>
         <v>9357768</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E12" s="16">
         <v>5191280</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F12" s="16">
         <v>4166488</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="9">
+    <row r="13" spans="2:6">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="11">
-        <f>SUM(E12:F12)</f>
+      <c r="D13" s="11">
+        <f>SUM(E13:F13)</f>
         <v>8538425</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="12">
         <v>4937405</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F13" s="12">
         <v>3601020</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="13">
+    <row r="14" spans="2:6">
+      <c r="B14" s="13">
         <v>2024</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="15">
-        <f t="shared" ref="D13:D47" si="1">SUM(E13:F13)</f>
+      <c r="D14" s="15">
+        <f t="shared" ref="D14:D48" si="1">SUM(E14:F14)</f>
         <v>10074948</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E14" s="16">
         <v>5592911</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F14" s="16">
         <v>4482037</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="9">
+    <row r="15" spans="2:6">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="11">
-        <f t="shared" ref="D14:D16" si="2">SUM(E14:F14)</f>
+      <c r="D15" s="11">
+        <f t="shared" ref="D15:D17" si="2">SUM(E15:F15)</f>
         <v>10785958</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="12">
         <v>5691104</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="12">
         <v>5094854</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="13">
+    <row r="16" spans="2:6">
+      <c r="B16" s="13">
         <v>2024</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D16" s="15">
         <f t="shared" si="2"/>
         <v>9831411</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E16" s="16">
         <v>5134348</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F16" s="16">
         <v>4697063</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="9">
+    <row r="17" spans="2:8">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <f t="shared" si="2"/>
         <v>9757133</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="12">
         <v>5235903</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F17" s="12">
         <v>4521230</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="13">
+    <row r="18" spans="2:8">
+      <c r="B18" s="13">
         <v>2024</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D18" s="15">
         <f t="shared" si="1"/>
         <v>9749048</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E18" s="16">
         <v>4980737</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F18" s="16">
         <v>4768311</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="9">
+    <row r="19" spans="2:8">
+      <c r="B19" s="9">
         <v>2024</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <f t="shared" si="1"/>
         <v>10538864</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="12">
         <v>4862519</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F19" s="12">
         <v>5676345</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="13">
+    <row r="20" spans="2:8">
+      <c r="B20" s="13">
         <v>2024</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D20" s="15">
         <f t="shared" si="1"/>
         <v>9334344</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E20" s="16">
         <v>4390733</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F20" s="16">
         <v>4943611</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="17">
+    <row r="21" spans="2:8">
+      <c r="B21" s="17">
         <v>2024</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D21" s="19">
         <f t="shared" si="1"/>
         <v>10153993</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E21" s="20">
         <v>4807949</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F21" s="20">
         <v>5346044</v>
       </c>
     </row>
-    <row r="21" spans="2:8" hidden="1">
-      <c r="B21" s="21">
+    <row r="22" spans="2:8" hidden="1">
+      <c r="B22" s="21">
         <v>2023</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C22" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D22" s="23">
         <f t="shared" si="1"/>
         <v>10829188</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E22" s="24">
         <v>5415680</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F22" s="25">
         <v>5413508</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="3">
         <v>5413508</v>
       </c>
     </row>
-    <row r="22" spans="2:8" hidden="1">
-      <c r="B22" s="9">
+    <row r="23" spans="2:8" hidden="1">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <f t="shared" si="1"/>
         <v>9838837</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="12">
         <v>5273853</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F23" s="12">
         <v>4564984</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="3">
         <v>4564984</v>
       </c>
     </row>
-    <row r="23" spans="2:8" hidden="1">
-      <c r="B23" s="13">
+    <row r="24" spans="2:8" hidden="1">
+      <c r="B24" s="13">
         <v>2023</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D24" s="15">
         <f t="shared" si="1"/>
         <v>9482301</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E24" s="16">
         <v>5416944</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F24" s="16">
         <v>4065357</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <v>4065357</v>
       </c>
     </row>
-    <row r="24" spans="2:8" hidden="1">
-      <c r="B24" s="9">
+    <row r="25" spans="2:8" hidden="1">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <f t="shared" si="1"/>
         <v>8633272</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E25" s="12">
         <v>5067159</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F25" s="12">
         <v>3566113</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="3">
         <v>3566113</v>
       </c>
     </row>
-    <row r="25" spans="2:8" hidden="1">
-      <c r="B25" s="13">
+    <row r="26" spans="2:8" hidden="1">
+      <c r="B26" s="13">
         <v>2023</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D26" s="15">
         <f t="shared" si="1"/>
         <v>10433744</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E26" s="16">
         <v>5976700</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F26" s="16">
         <v>4457044</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="3">
         <v>4457044</v>
       </c>
     </row>
-    <row r="26" spans="2:8" hidden="1">
-      <c r="B26" s="9">
+    <row r="27" spans="2:8" hidden="1">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <f t="shared" si="1"/>
         <v>10994672</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="12">
         <v>5970043</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F27" s="12">
         <v>5024629</v>
       </c>
     </row>
-    <row r="27" spans="2:8" hidden="1">
-      <c r="B27" s="13">
+    <row r="28" spans="2:8" hidden="1">
+      <c r="B28" s="13">
         <v>2023</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D28" s="15">
         <f t="shared" si="1"/>
         <v>9688779</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E28" s="16">
         <v>5246474</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F28" s="16">
         <v>4442305</v>
       </c>
     </row>
-    <row r="28" spans="2:8" hidden="1">
-      <c r="B28" s="9">
+    <row r="29" spans="2:8" hidden="1">
+      <c r="B29" s="9">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <f t="shared" si="1"/>
         <v>9507284</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="12">
         <v>5270951</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F29" s="12">
         <v>4236333</v>
       </c>
     </row>
-    <row r="29" spans="2:8" hidden="1">
-      <c r="B29" s="13">
+    <row r="30" spans="2:8" hidden="1">
+      <c r="B30" s="13">
         <v>2023</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D30" s="15">
         <f t="shared" si="1"/>
         <v>9919095</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E30" s="16">
         <v>5341258</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F30" s="16">
         <v>4577837</v>
       </c>
     </row>
-    <row r="30" spans="2:8" hidden="1">
-      <c r="B30" s="9">
+    <row r="31" spans="2:8" hidden="1">
+      <c r="B31" s="9">
         <v>2023</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <f t="shared" si="1"/>
         <v>10259682</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E31" s="12">
         <v>5215128</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F31" s="12">
         <v>5044554</v>
       </c>
     </row>
-    <row r="31" spans="2:8" hidden="1">
-      <c r="B31" s="13">
+    <row r="32" spans="2:8" hidden="1">
+      <c r="B32" s="13">
         <v>2023</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D32" s="15">
         <f t="shared" si="1"/>
         <v>8840768</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E32" s="16">
         <v>4453469</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F32" s="16">
         <v>4387299</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1">
-      <c r="B32" s="17">
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="17">
         <v>2023</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C33" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D33" s="19">
         <f t="shared" si="1"/>
         <v>9936455</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E33" s="20">
         <v>4978979</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F33" s="20">
         <v>4957476</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1">
-      <c r="B33" s="21">
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="21">
         <v>2022</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C34" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D34" s="23">
         <f t="shared" si="1"/>
         <v>10328957</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E34" s="24">
         <v>5458695</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F34" s="24">
         <v>4870262</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="9">
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <f t="shared" si="1"/>
         <v>9564350</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E35" s="12">
         <v>5216824</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F35" s="12">
         <v>4347526</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1">
-      <c r="B35" s="13">
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="13">
         <v>2022</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>9047728</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E36" s="16">
         <v>5177608</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F36" s="16">
         <v>3870120</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1">
-      <c r="B36" s="9">
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="2:6" hidden="1">
-      <c r="B37" s="13">
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="13">
         <v>2022</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C38" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D38" s="15">
         <f t="shared" si="1"/>
         <v>9454996</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E38" s="16">
         <v>5202467</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F38" s="16">
         <v>4252529</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1">
-      <c r="B38" s="9">
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <f t="shared" si="1"/>
         <v>10042169</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E39" s="12">
         <v>5313681</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F39" s="12">
         <v>4728488</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1">
-      <c r="B39" s="13">
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="13">
         <v>2022</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D40" s="15">
         <f t="shared" si="1"/>
         <v>8909540</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E40" s="16">
         <v>4660739</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F40" s="16">
         <v>4248801</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1">
-      <c r="B40" s="9">
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <f t="shared" si="1"/>
         <v>8894356</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E41" s="12">
         <v>4864477</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F41" s="12">
         <v>4029879</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1">
-      <c r="B41" s="13">
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42" s="13">
         <v>2022</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D42" s="15">
         <f t="shared" si="1"/>
         <v>8965893</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E42" s="16">
         <v>4744599</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F42" s="16">
         <v>4221294</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1">
-      <c r="B42" s="9">
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43" s="9">
         <v>2022</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <f t="shared" si="1"/>
         <v>8932243</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E43" s="12">
         <v>4477915</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F43" s="12">
         <v>4454328</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1">
-      <c r="B43" s="13">
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="13">
         <v>2022</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D44" s="15">
         <f t="shared" si="1"/>
         <v>7028818</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E44" s="16">
         <v>3568589</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F44" s="16">
         <v>3460229</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1">
-      <c r="B44" s="17">
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="17">
         <v>2022</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C45" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D45" s="19">
         <f t="shared" si="1"/>
         <v>7524409</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E45" s="20">
         <v>3789823</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F45" s="20">
         <v>3734586</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1">
-      <c r="B45" s="21">
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="21">
         <v>2021</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C46" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D46" s="23">
         <f t="shared" si="1"/>
         <v>8858284</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E46" s="24">
         <v>4685952</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F46" s="24">
         <v>4172332</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1">
-      <c r="B46" s="9">
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <f t="shared" si="1"/>
         <v>8044448</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E47" s="12">
         <v>4338222</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F47" s="12">
         <v>3706226</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1">
-      <c r="B47" s="13">
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D48" s="15">
         <f t="shared" si="1"/>
         <v>7434983</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E48" s="16">
         <v>4148811</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F48" s="16">
         <v>3286172</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1">
-      <c r="B48" s="9">
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="11">
-        <f t="shared" ref="D48:D79" si="3">SUM(E48:F48)</f>
+      <c r="D49" s="11">
+        <f t="shared" ref="D49:D80" si="3">SUM(E49:F49)</f>
         <v>6335718</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E49" s="12">
         <v>3602892</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F49" s="12">
         <v>2732826</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1">
-      <c r="B49" s="13">
+    <row r="50" spans="2:6" hidden="1">
+      <c r="B50" s="13">
         <v>2021</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D50" s="15">
         <f t="shared" si="3"/>
         <v>7407170</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E50" s="16">
         <v>3994397</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F50" s="16">
         <v>3412773</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1">
-      <c r="B50" s="9">
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <f t="shared" si="3"/>
         <v>8256002</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E51" s="12">
         <v>4365429</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F51" s="12">
         <v>3890573</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1">
-      <c r="B51" s="13">
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="13">
         <v>2021</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D52" s="15">
         <f t="shared" si="3"/>
         <v>7317711</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E52" s="16">
         <v>3834253</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F52" s="16">
         <v>3483458</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1">
-      <c r="B52" s="9">
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="9">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <f t="shared" si="3"/>
         <v>6934293</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E53" s="12">
         <v>3818846</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F53" s="12">
         <v>3115447</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1">
-      <c r="B53" s="13">
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="13">
         <v>2021</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D54" s="15">
         <f t="shared" si="3"/>
         <v>5986797</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E54" s="16">
         <v>3478623</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F54" s="16">
         <v>2508174</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1">
-      <c r="B54" s="9">
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="9">
         <v>2021</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <f t="shared" si="3"/>
         <v>5308998</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E55" s="12">
         <v>3169991</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F55" s="12">
         <v>2139007</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1">
-      <c r="B55" s="13">
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="13">
         <v>2021</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D56" s="15">
         <f t="shared" si="3"/>
         <v>3515246</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E56" s="16">
         <v>2221947</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F56" s="16">
         <v>1293299</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1">
-      <c r="B56" s="17">
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="17">
         <v>2021</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C57" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D57" s="19">
         <f t="shared" si="3"/>
         <v>4603651</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E57" s="20">
         <v>2703105</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F57" s="20">
         <v>1900546</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1">
-      <c r="B57" s="21">
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="21">
         <v>2020</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C58" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D58" s="23">
         <f t="shared" si="3"/>
         <v>5262897</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E58" s="24">
         <v>3144137</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F58" s="24">
         <v>2118760</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="9">
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <f t="shared" si="3"/>
         <v>4568948</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E59" s="12">
         <v>2920098</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F59" s="12">
         <v>1648850</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1">
-      <c r="B59" s="13">
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D60" s="15">
         <f t="shared" si="3"/>
         <v>4066515</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E60" s="16">
         <v>2708781</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F60" s="16">
         <v>1357734</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1">
-      <c r="B60" s="9">
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <f t="shared" si="3"/>
         <v>3283162</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E61" s="12">
         <v>2317729</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F61" s="12">
         <v>965433</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1">
-      <c r="B61" s="13">
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="13">
         <v>2020</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D62" s="15">
         <f t="shared" si="3"/>
         <v>3035521</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E62" s="16">
         <v>2120271</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F62" s="16">
         <v>915250</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1">
-      <c r="B62" s="9">
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <f t="shared" si="3"/>
         <v>2412156</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E63" s="12">
         <v>1672969</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F63" s="12">
         <v>739187</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1">
-      <c r="B63" s="13">
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="13">
         <v>2020</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D64" s="15">
         <f t="shared" si="3"/>
         <v>1180756</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E64" s="16">
         <v>886076</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F64" s="16">
         <v>294680</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1">
-      <c r="B64" s="9">
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="9">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <f t="shared" si="3"/>
         <v>488531</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E65" s="12">
         <v>385641</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F65" s="12">
         <v>102890</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1">
-      <c r="B65" s="13">
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="13">
         <v>2020</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C66" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D66" s="15">
         <f t="shared" si="3"/>
         <v>509441</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E66" s="16">
         <v>413225</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F66" s="16">
         <v>96216</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1">
-      <c r="B66" s="9">
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="9">
         <v>2020</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <f t="shared" si="3"/>
         <v>5886542</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E67" s="12">
         <v>3142005</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F67" s="12">
         <v>2744537</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1">
-      <c r="B67" s="13">
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="13">
         <v>2020</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C68" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D68" s="15">
         <f t="shared" si="3"/>
         <v>8319634</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E68" s="16">
         <v>4091826</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F68" s="16">
         <v>4227808</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1">
-      <c r="B68" s="17">
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="17">
         <v>2020</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C69" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D69" s="19">
         <f t="shared" si="3"/>
         <v>9065514</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E69" s="20">
         <v>4433703</v>
       </c>
-      <c r="F68" s="20">
+      <c r="F69" s="20">
         <v>4631811</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1">
-      <c r="B69" s="21">
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="21">
         <v>2019</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C70" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D70" s="23">
         <f t="shared" si="3"/>
         <v>9358660</v>
       </c>
-      <c r="E69" s="24">
+      <c r="E70" s="24">
         <v>4755157</v>
       </c>
-      <c r="F69" s="24">
+      <c r="F70" s="24">
         <v>4603503</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="9">
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <f t="shared" si="3"/>
         <v>8545618</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E71" s="12">
         <v>4611815</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F71" s="12">
         <v>3933803</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1">
-      <c r="B71" s="13">
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C72" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D72" s="15">
         <f t="shared" si="3"/>
         <v>8005724</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E72" s="16">
         <v>4617022</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F72" s="16">
         <v>3388702</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1">
-      <c r="B72" s="9">
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <f t="shared" si="3"/>
         <v>7233383</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E73" s="12">
         <v>4187402</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F73" s="12">
         <v>3045981</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1">
-      <c r="B73" s="13">
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="13">
         <v>2019</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C74" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D74" s="15">
         <f t="shared" si="3"/>
         <v>8708818</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E74" s="16">
         <v>4765181</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F74" s="16">
         <v>3943637</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1">
-      <c r="B74" s="9">
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <f t="shared" si="3"/>
         <v>9445888</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E75" s="12">
         <v>5005061</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F75" s="12">
         <v>4440827</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1">
-      <c r="B75" s="13">
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="13">
         <v>2019</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C76" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D76" s="15">
         <f t="shared" si="3"/>
         <v>8525678</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E76" s="16">
         <v>4555762</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F76" s="16">
         <v>3969916</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1">
-      <c r="B76" s="9">
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="9">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <f t="shared" si="3"/>
         <v>8482898</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E77" s="12">
         <v>4704389</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F77" s="12">
         <v>3778509</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1">
-      <c r="B77" s="13">
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="13">
         <v>2019</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C78" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D78" s="15">
         <f t="shared" si="3"/>
         <v>8548334</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E78" s="16">
         <v>4438332</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F78" s="16">
         <v>4110002</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1">
-      <c r="B78" s="9">
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="9">
         <v>2019</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <f t="shared" si="3"/>
         <v>8887698</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E79" s="12">
         <v>4310865</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F79" s="12">
         <v>4576833</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1">
-      <c r="B79" s="13">
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="13">
         <v>2019</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D80" s="15">
         <f t="shared" si="3"/>
         <v>7407471</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E80" s="16">
         <v>3590917</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F80" s="16">
         <v>3816554</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1">
-      <c r="B80" s="17">
+    <row r="81" spans="2:6" hidden="1">
+      <c r="B81" s="17">
         <v>2019</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C81" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="19">
-        <f t="shared" ref="D80:D92" si="4">SUM(E80:F80)</f>
+      <c r="D81" s="19">
+        <f t="shared" ref="D81:D93" si="4">SUM(E81:F81)</f>
         <v>8273412</v>
       </c>
-      <c r="E80" s="20">
+      <c r="E81" s="20">
         <v>3989338</v>
       </c>
-      <c r="F80" s="20">
+      <c r="F81" s="20">
         <v>4284074</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1">
-      <c r="B81" s="14">
+    <row r="82" spans="2:6" hidden="1">
+      <c r="B82" s="14">
         <v>2018</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C82" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D82" s="15">
         <f t="shared" si="4"/>
         <v>8744817</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E82" s="16">
         <v>4400768</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F82" s="16">
         <v>4344049</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1">
-      <c r="B82" s="10">
+    <row r="83" spans="2:6" hidden="1">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <f t="shared" si="4"/>
         <v>8065105</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E83" s="12">
         <v>4287344</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F83" s="12">
         <v>3777761</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1">
-      <c r="B83" s="14">
+    <row r="84" spans="2:6" hidden="1">
+      <c r="B84" s="14">
         <v>2018</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C84" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D84" s="15">
         <f t="shared" si="4"/>
         <v>7563067</v>
       </c>
-      <c r="E83" s="16">
+      <c r="E84" s="16">
         <v>4246079</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F84" s="16">
         <v>3316988</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1">
-      <c r="B84" s="10">
+    <row r="85" spans="2:6" hidden="1">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <f t="shared" si="4"/>
         <v>6852045</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E85" s="12">
         <v>3900894</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F85" s="12">
         <v>2951151</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1">
-      <c r="B85" s="14">
+    <row r="86" spans="2:6" hidden="1">
+      <c r="B86" s="14">
         <v>2018</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C86" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D86" s="15">
         <f t="shared" si="4"/>
         <v>8297341</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E86" s="16">
         <v>4416844</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F86" s="16">
         <v>3880497</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1">
-      <c r="B86" s="10">
+    <row r="87" spans="2:6" hidden="1">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <f t="shared" si="4"/>
         <v>9056178</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E87" s="12">
         <v>4689606</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F87" s="12">
         <v>4366572</v>
       </c>
     </row>
-    <row r="87" spans="2:6" hidden="1">
-      <c r="B87" s="14">
+    <row r="88" spans="2:6" hidden="1">
+      <c r="B88" s="14">
         <v>2018</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C88" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="15">
+      <c r="D88" s="15">
         <f t="shared" si="4"/>
         <v>8006308</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E88" s="16">
         <v>4087227</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F88" s="16">
         <v>3919081</v>
       </c>
     </row>
-    <row r="88" spans="2:6" hidden="1">
-      <c r="B88" s="10">
+    <row r="89" spans="2:6" hidden="1">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <f t="shared" si="4"/>
         <v>7817504</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E89" s="12">
         <v>4163127</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F89" s="12">
         <v>3654377</v>
       </c>
     </row>
-    <row r="89" spans="2:6" hidden="1">
-      <c r="B89" s="14">
+    <row r="90" spans="2:6" hidden="1">
+      <c r="B90" s="14">
         <v>2018</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C90" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D90" s="15">
         <f t="shared" si="4"/>
         <v>8098666</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E90" s="16">
         <v>4096821</v>
       </c>
-      <c r="F89" s="16">
+      <c r="F90" s="16">
         <v>4001845</v>
       </c>
     </row>
-    <row r="90" spans="2:6" hidden="1">
-      <c r="B90" s="10">
+    <row r="91" spans="2:6" hidden="1">
+      <c r="B91" s="10">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <f t="shared" si="4"/>
         <v>8610022</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E91" s="12">
         <v>4048811</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F91" s="12">
         <v>4561211</v>
       </c>
     </row>
-    <row r="91" spans="2:6" hidden="1">
-      <c r="B91" s="14">
+    <row r="92" spans="2:6" hidden="1">
+      <c r="B92" s="14">
         <v>2018</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C92" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="15">
+      <c r="D92" s="15">
         <f t="shared" si="4"/>
         <v>7192032</v>
       </c>
-      <c r="E91" s="16">
+      <c r="E92" s="16">
         <v>3422954</v>
       </c>
-      <c r="F91" s="16">
+      <c r="F92" s="16">
         <v>3769078</v>
       </c>
     </row>
-    <row r="92" spans="2:6" hidden="1">
-      <c r="B92" s="10">
+    <row r="93" spans="2:6" hidden="1">
+      <c r="B93" s="10">
         <v>2018</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D93" s="11">
         <f t="shared" si="4"/>
         <v>8102943</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E93" s="12">
         <v>3774420</v>
       </c>
-      <c r="F92" s="12">
+      <c r="F93" s="12">
         <v>4328523</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6">
-      <c r="B93" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="94" spans="2:6">
       <c r="B94" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:6">
-      <c r="F95" s="26"/>
+    <row r="96" spans="2:6">
+      <c r="F96" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_Total_N_Aero.xlsx
+++ b/Pasajeros_Total_N_Aero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274AD312-385E-485D-8748-107AA95305A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13738553-4AA3-463E-898A-FD6E7EBDD222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="21">
   <si>
     <t>Internacional</t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F93" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B5:F93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F95" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -792,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:H96"/>
+  <dimension ref="B2:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -850,17 +850,17 @@
         <v>2025</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="15">
         <f>SUM(E6:F6)</f>
-        <v>10497743</v>
+        <v>9798304</v>
       </c>
       <c r="E6" s="16">
-        <v>5436631</v>
+        <v>5145539</v>
       </c>
       <c r="F6" s="16">
-        <v>5061112</v>
+        <v>4652765</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -868,17 +868,17 @@
         <v>2025</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="11">
         <f>SUM(E7:F7)</f>
-        <v>11003333</v>
+        <v>9794352</v>
       </c>
       <c r="E7" s="12">
-        <v>5244232</v>
+        <v>5344434</v>
       </c>
       <c r="F7" s="12">
-        <v>5759101</v>
+        <v>4449918</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -886,71 +886,71 @@
         <v>2025</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" ref="D8:D13" si="0">SUM(E8:F8)</f>
+        <v>10497869</v>
+      </c>
+      <c r="E8" s="16">
+        <v>5436631</v>
+      </c>
+      <c r="F8" s="16">
+        <v>5061238</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>11003838</v>
+      </c>
+      <c r="E9" s="12">
+        <v>5244268</v>
+      </c>
+      <c r="F9" s="12">
+        <v>5759570</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="15">
-        <f>SUM(E8:F8)</f>
-        <v>9365193</v>
-      </c>
-      <c r="E8" s="16">
-        <v>4481158</v>
-      </c>
-      <c r="F8" s="16">
+      <c r="D10" s="15">
+        <f t="shared" si="0"/>
+        <v>9365203</v>
+      </c>
+      <c r="E10" s="16">
+        <v>4481168</v>
+      </c>
+      <c r="F10" s="16">
         <v>4884035</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="17">
+    <row r="11" spans="2:6">
+      <c r="B11" s="17">
         <v>2025</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19">
-        <f>SUM(E9:F9)</f>
+      <c r="D11" s="19">
+        <f t="shared" si="0"/>
         <v>10721774</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E11" s="20">
         <v>5073614</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F11" s="20">
         <v>5648160</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="13">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="15">
-        <f>SUM(E10:F10)</f>
-        <v>11228251</v>
-      </c>
-      <c r="E10" s="16">
-        <v>5469205</v>
-      </c>
-      <c r="F10" s="16">
-        <v>5759046</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="11">
-        <f>SUM(E11:F11)</f>
-        <v>10113653</v>
-      </c>
-      <c r="E11" s="12">
-        <v>5252879</v>
-      </c>
-      <c r="F11" s="12">
-        <v>4860774</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -958,17 +958,17 @@
         <v>2024</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="15">
-        <f t="shared" ref="D12" si="0">SUM(E12:F12)</f>
-        <v>9357768</v>
+        <f t="shared" si="0"/>
+        <v>11236088</v>
       </c>
       <c r="E12" s="16">
-        <v>5191280</v>
+        <v>5467889</v>
       </c>
       <c r="F12" s="16">
-        <v>4166488</v>
+        <v>5768199</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -976,17 +976,17 @@
         <v>2024</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11">
-        <f>SUM(E13:F13)</f>
-        <v>8538425</v>
+        <f t="shared" si="0"/>
+        <v>10118494</v>
       </c>
       <c r="E13" s="12">
-        <v>4937405</v>
+        <v>5251682</v>
       </c>
       <c r="F13" s="12">
-        <v>3601020</v>
+        <v>4866812</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -994,17 +994,17 @@
         <v>2024</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D14" s="15">
-        <f t="shared" ref="D14:D48" si="1">SUM(E14:F14)</f>
-        <v>10074948</v>
+        <f t="shared" ref="D14" si="1">SUM(E14:F14)</f>
+        <v>9362533</v>
       </c>
       <c r="E14" s="16">
-        <v>5592911</v>
+        <v>5190073</v>
       </c>
       <c r="F14" s="16">
-        <v>4482037</v>
+        <v>4172460</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -1012,17 +1012,17 @@
         <v>2024</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" ref="D15:D17" si="2">SUM(E15:F15)</f>
-        <v>10785958</v>
+        <f>SUM(E15:F15)</f>
+        <v>8544407</v>
       </c>
       <c r="E15" s="12">
-        <v>5691104</v>
+        <v>4936321</v>
       </c>
       <c r="F15" s="12">
-        <v>5094854</v>
+        <v>3608086</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -1030,17 +1030,17 @@
         <v>2024</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" s="15">
-        <f t="shared" si="2"/>
-        <v>9831411</v>
+        <f t="shared" ref="D16:D50" si="2">SUM(E16:F16)</f>
+        <v>10078221</v>
       </c>
       <c r="E16" s="16">
-        <v>5134348</v>
+        <v>5591895</v>
       </c>
       <c r="F16" s="16">
-        <v>4697063</v>
+        <v>4486326</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -1048,17 +1048,17 @@
         <v>2024</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" si="2"/>
-        <v>9757133</v>
+        <f t="shared" ref="D17:D19" si="3">SUM(E17:F17)</f>
+        <v>10790573</v>
       </c>
       <c r="E17" s="12">
-        <v>5235903</v>
+        <v>5690114</v>
       </c>
       <c r="F17" s="12">
-        <v>4521230</v>
+        <v>5100459</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -1066,17 +1066,17 @@
         <v>2024</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="15">
-        <f t="shared" si="1"/>
-        <v>9749048</v>
+        <f t="shared" si="3"/>
+        <v>9835006</v>
       </c>
       <c r="E18" s="16">
-        <v>4980737</v>
+        <v>5133415</v>
       </c>
       <c r="F18" s="16">
-        <v>4768311</v>
+        <v>4701591</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -1084,17 +1084,17 @@
         <v>2024</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" si="1"/>
-        <v>10538864</v>
+        <f t="shared" si="3"/>
+        <v>9758066</v>
       </c>
       <c r="E19" s="12">
-        <v>4862519</v>
+        <v>5234844</v>
       </c>
       <c r="F19" s="12">
-        <v>5676345</v>
+        <v>4523222</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -1102,98 +1102,92 @@
         <v>2024</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" si="2"/>
+        <v>9750424</v>
+      </c>
+      <c r="E20" s="16">
+        <v>4979579</v>
+      </c>
+      <c r="F20" s="16">
+        <v>4770845</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="2"/>
+        <v>10540480</v>
+      </c>
+      <c r="E21" s="12">
+        <v>4861359</v>
+      </c>
+      <c r="F21" s="12">
+        <v>5679121</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="15">
-        <f t="shared" si="1"/>
-        <v>9334344</v>
-      </c>
-      <c r="E20" s="16">
-        <v>4390733</v>
-      </c>
-      <c r="F20" s="16">
-        <v>4943611</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="17">
+      <c r="D22" s="15">
+        <f t="shared" si="2"/>
+        <v>9335418</v>
+      </c>
+      <c r="E22" s="16">
+        <v>4389622</v>
+      </c>
+      <c r="F22" s="16">
+        <v>4945796</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="17">
         <v>2024</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C23" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="19">
-        <f t="shared" si="1"/>
-        <v>10153993</v>
-      </c>
-      <c r="E21" s="20">
-        <v>4807949</v>
-      </c>
-      <c r="F21" s="20">
-        <v>5346044</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" hidden="1">
-      <c r="B22" s="21">
+      <c r="D23" s="19">
+        <f t="shared" si="2"/>
+        <v>10157525</v>
+      </c>
+      <c r="E23" s="20">
+        <v>4807023</v>
+      </c>
+      <c r="F23" s="20">
+        <v>5350502</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" hidden="1">
+      <c r="B24" s="21">
         <v>2023</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C24" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="23">
-        <f t="shared" si="1"/>
+      <c r="D24" s="23">
+        <f t="shared" si="2"/>
         <v>10829188</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E24" s="24">
         <v>5415680</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F24" s="25">
         <v>5413508</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H24" s="3">
         <v>5413508</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" hidden="1">
-      <c r="B23" s="9">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="11">
-        <f t="shared" si="1"/>
-        <v>9838837</v>
-      </c>
-      <c r="E23" s="12">
-        <v>5273853</v>
-      </c>
-      <c r="F23" s="12">
-        <v>4564984</v>
-      </c>
-      <c r="H23" s="3">
-        <v>4564984</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" hidden="1">
-      <c r="B24" s="13">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="15">
-        <f t="shared" si="1"/>
-        <v>9482301</v>
-      </c>
-      <c r="E24" s="16">
-        <v>5416944</v>
-      </c>
-      <c r="F24" s="16">
-        <v>4065357</v>
-      </c>
-      <c r="H24" s="3">
-        <v>4065357</v>
       </c>
     </row>
     <row r="25" spans="2:8" hidden="1">
@@ -1201,20 +1195,20 @@
         <v>2023</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25" s="11">
-        <f t="shared" si="1"/>
-        <v>8633272</v>
+        <f t="shared" si="2"/>
+        <v>9838837</v>
       </c>
       <c r="E25" s="12">
-        <v>5067159</v>
+        <v>5273853</v>
       </c>
       <c r="F25" s="12">
-        <v>3566113</v>
+        <v>4564984</v>
       </c>
       <c r="H25" s="3">
-        <v>3566113</v>
+        <v>4564984</v>
       </c>
     </row>
     <row r="26" spans="2:8" hidden="1">
@@ -1222,20 +1216,20 @@
         <v>2023</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D26" s="15">
-        <f t="shared" si="1"/>
-        <v>10433744</v>
+        <f t="shared" si="2"/>
+        <v>9482301</v>
       </c>
       <c r="E26" s="16">
-        <v>5976700</v>
+        <v>5416944</v>
       </c>
       <c r="F26" s="16">
-        <v>4457044</v>
+        <v>4065357</v>
       </c>
       <c r="H26" s="3">
-        <v>4457044</v>
+        <v>4065357</v>
       </c>
     </row>
     <row r="27" spans="2:8" hidden="1">
@@ -1243,17 +1237,20 @@
         <v>2023</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D27" s="11">
-        <f t="shared" si="1"/>
-        <v>10994672</v>
+        <f t="shared" si="2"/>
+        <v>8633272</v>
       </c>
       <c r="E27" s="12">
-        <v>5970043</v>
+        <v>5067159</v>
       </c>
       <c r="F27" s="12">
-        <v>5024629</v>
+        <v>3566113</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3566113</v>
       </c>
     </row>
     <row r="28" spans="2:8" hidden="1">
@@ -1261,17 +1258,20 @@
         <v>2023</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28" s="15">
-        <f t="shared" si="1"/>
-        <v>9688779</v>
+        <f t="shared" si="2"/>
+        <v>10433744</v>
       </c>
       <c r="E28" s="16">
-        <v>5246474</v>
+        <v>5976700</v>
       </c>
       <c r="F28" s="16">
-        <v>4442305</v>
+        <v>4457044</v>
+      </c>
+      <c r="H28" s="3">
+        <v>4457044</v>
       </c>
     </row>
     <row r="29" spans="2:8" hidden="1">
@@ -1279,17 +1279,17 @@
         <v>2023</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="1"/>
-        <v>9507284</v>
+        <f t="shared" si="2"/>
+        <v>10994672</v>
       </c>
       <c r="E29" s="12">
-        <v>5270951</v>
+        <v>5970043</v>
       </c>
       <c r="F29" s="12">
-        <v>4236333</v>
+        <v>5024629</v>
       </c>
     </row>
     <row r="30" spans="2:8" hidden="1">
@@ -1297,17 +1297,17 @@
         <v>2023</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D30" s="15">
-        <f t="shared" si="1"/>
-        <v>9919095</v>
+        <f t="shared" si="2"/>
+        <v>9688779</v>
       </c>
       <c r="E30" s="16">
-        <v>5341258</v>
+        <v>5246474</v>
       </c>
       <c r="F30" s="16">
-        <v>4577837</v>
+        <v>4442305</v>
       </c>
     </row>
     <row r="31" spans="2:8" hidden="1">
@@ -1315,17 +1315,17 @@
         <v>2023</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" s="11">
-        <f t="shared" si="1"/>
-        <v>10259682</v>
+        <f t="shared" si="2"/>
+        <v>9507284</v>
       </c>
       <c r="E31" s="12">
-        <v>5215128</v>
+        <v>5270951</v>
       </c>
       <c r="F31" s="12">
-        <v>5044554</v>
+        <v>4236333</v>
       </c>
     </row>
     <row r="32" spans="2:8" hidden="1">
@@ -1333,89 +1333,89 @@
         <v>2023</v>
       </c>
       <c r="C32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" si="2"/>
+        <v>9919095</v>
+      </c>
+      <c r="E32" s="16">
+        <v>5341258</v>
+      </c>
+      <c r="F32" s="16">
+        <v>4577837</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="11">
+        <f t="shared" si="2"/>
+        <v>10259682</v>
+      </c>
+      <c r="E33" s="12">
+        <v>5215128</v>
+      </c>
+      <c r="F33" s="12">
+        <v>5044554</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="13">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="15">
-        <f t="shared" si="1"/>
+      <c r="D34" s="15">
+        <f t="shared" si="2"/>
         <v>8840768</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E34" s="16">
         <v>4453469</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F34" s="16">
         <v>4387299</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1">
-      <c r="B33" s="17">
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="17">
         <v>2023</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C35" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="19">
-        <f t="shared" si="1"/>
+      <c r="D35" s="19">
+        <f t="shared" si="2"/>
         <v>9936455</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E35" s="20">
         <v>4978979</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F35" s="20">
         <v>4957476</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="21">
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="21">
         <v>2022</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C36" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="23">
-        <f t="shared" si="1"/>
+      <c r="D36" s="23">
+        <f t="shared" si="2"/>
         <v>10328957</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E36" s="24">
         <v>5458695</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F36" s="24">
         <v>4870262</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" hidden="1">
-      <c r="B35" s="9">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="11">
-        <f t="shared" si="1"/>
-        <v>9564350</v>
-      </c>
-      <c r="E35" s="12">
-        <v>5216824</v>
-      </c>
-      <c r="F35" s="12">
-        <v>4347526</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" hidden="1">
-      <c r="B36" s="13">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="15">
-        <f t="shared" si="1"/>
-        <v>9047728</v>
-      </c>
-      <c r="E36" s="16">
-        <v>5177608</v>
-      </c>
-      <c r="F36" s="16">
-        <v>3870120</v>
       </c>
     </row>
     <row r="37" spans="2:6" hidden="1">
@@ -1423,31 +1423,35 @@
         <v>2022</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D37" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+        <f t="shared" si="2"/>
+        <v>9564350</v>
+      </c>
+      <c r="E37" s="12">
+        <v>5216824</v>
+      </c>
+      <c r="F37" s="12">
+        <v>4347526</v>
+      </c>
     </row>
     <row r="38" spans="2:6" hidden="1">
       <c r="B38" s="13">
         <v>2022</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D38" s="15">
-        <f t="shared" si="1"/>
-        <v>9454996</v>
+        <f t="shared" si="2"/>
+        <v>9047728</v>
       </c>
       <c r="E38" s="16">
-        <v>5202467</v>
+        <v>5177608</v>
       </c>
       <c r="F38" s="16">
-        <v>4252529</v>
+        <v>3870120</v>
       </c>
     </row>
     <row r="39" spans="2:6" hidden="1">
@@ -1455,17 +1459,17 @@
         <v>2022</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D39" s="11">
-        <f t="shared" si="1"/>
-        <v>10042169</v>
+        <f t="shared" si="2"/>
+        <v>8162159</v>
       </c>
       <c r="E39" s="12">
-        <v>5313681</v>
+        <v>4687975</v>
       </c>
       <c r="F39" s="12">
-        <v>4728488</v>
+        <v>3474184</v>
       </c>
     </row>
     <row r="40" spans="2:6" hidden="1">
@@ -1473,17 +1477,17 @@
         <v>2022</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40" s="15">
-        <f t="shared" si="1"/>
-        <v>8909540</v>
+        <f t="shared" si="2"/>
+        <v>9454996</v>
       </c>
       <c r="E40" s="16">
-        <v>4660739</v>
+        <v>5202467</v>
       </c>
       <c r="F40" s="16">
-        <v>4248801</v>
+        <v>4252529</v>
       </c>
     </row>
     <row r="41" spans="2:6" hidden="1">
@@ -1491,17 +1495,17 @@
         <v>2022</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" s="11">
-        <f t="shared" si="1"/>
-        <v>8894356</v>
+        <f t="shared" si="2"/>
+        <v>10042169</v>
       </c>
       <c r="E41" s="12">
-        <v>4864477</v>
+        <v>5313681</v>
       </c>
       <c r="F41" s="12">
-        <v>4029879</v>
+        <v>4728488</v>
       </c>
     </row>
     <row r="42" spans="2:6" hidden="1">
@@ -1509,17 +1513,17 @@
         <v>2022</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D42" s="15">
-        <f t="shared" si="1"/>
-        <v>8965893</v>
+        <f t="shared" si="2"/>
+        <v>8909540</v>
       </c>
       <c r="E42" s="16">
-        <v>4744599</v>
+        <v>4660739</v>
       </c>
       <c r="F42" s="16">
-        <v>4221294</v>
+        <v>4248801</v>
       </c>
     </row>
     <row r="43" spans="2:6" hidden="1">
@@ -1527,17 +1531,17 @@
         <v>2022</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D43" s="11">
-        <f t="shared" si="1"/>
-        <v>8932243</v>
+        <f t="shared" si="2"/>
+        <v>8894356</v>
       </c>
       <c r="E43" s="12">
-        <v>4477915</v>
+        <v>4864477</v>
       </c>
       <c r="F43" s="12">
-        <v>4454328</v>
+        <v>4029879</v>
       </c>
     </row>
     <row r="44" spans="2:6" hidden="1">
@@ -1545,89 +1549,89 @@
         <v>2022</v>
       </c>
       <c r="C44" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="15">
+        <f t="shared" si="2"/>
+        <v>8965893</v>
+      </c>
+      <c r="E44" s="16">
+        <v>4744599</v>
+      </c>
+      <c r="F44" s="16">
+        <v>4221294</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="11">
+        <f t="shared" si="2"/>
+        <v>8932243</v>
+      </c>
+      <c r="E45" s="12">
+        <v>4477915</v>
+      </c>
+      <c r="F45" s="12">
+        <v>4454328</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="15">
-        <f t="shared" si="1"/>
+      <c r="D46" s="15">
+        <f t="shared" si="2"/>
         <v>7028818</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E46" s="16">
         <v>3568589</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F46" s="16">
         <v>3460229</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1">
-      <c r="B45" s="17">
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="17">
         <v>2022</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C47" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="19">
-        <f t="shared" si="1"/>
+      <c r="D47" s="19">
+        <f t="shared" si="2"/>
         <v>7524409</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E47" s="20">
         <v>3789823</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F47" s="20">
         <v>3734586</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1">
-      <c r="B46" s="21">
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="21">
         <v>2021</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C48" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="23">
-        <f t="shared" si="1"/>
+      <c r="D48" s="23">
+        <f t="shared" si="2"/>
         <v>8858284</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E48" s="24">
         <v>4685952</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F48" s="24">
         <v>4172332</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" hidden="1">
-      <c r="B47" s="9">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="11">
-        <f t="shared" si="1"/>
-        <v>8044448</v>
-      </c>
-      <c r="E47" s="12">
-        <v>4338222</v>
-      </c>
-      <c r="F47" s="12">
-        <v>3706226</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" hidden="1">
-      <c r="B48" s="13">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="15">
-        <f t="shared" si="1"/>
-        <v>7434983</v>
-      </c>
-      <c r="E48" s="16">
-        <v>4148811</v>
-      </c>
-      <c r="F48" s="16">
-        <v>3286172</v>
       </c>
     </row>
     <row r="49" spans="2:6" hidden="1">
@@ -1635,17 +1639,17 @@
         <v>2021</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D49" s="11">
-        <f t="shared" ref="D49:D80" si="3">SUM(E49:F49)</f>
-        <v>6335718</v>
+        <f t="shared" si="2"/>
+        <v>8044448</v>
       </c>
       <c r="E49" s="12">
-        <v>3602892</v>
+        <v>4338222</v>
       </c>
       <c r="F49" s="12">
-        <v>2732826</v>
+        <v>3706226</v>
       </c>
     </row>
     <row r="50" spans="2:6" hidden="1">
@@ -1653,17 +1657,17 @@
         <v>2021</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D50" s="15">
-        <f t="shared" si="3"/>
-        <v>7407170</v>
+        <f t="shared" si="2"/>
+        <v>7434983</v>
       </c>
       <c r="E50" s="16">
-        <v>3994397</v>
+        <v>4148811</v>
       </c>
       <c r="F50" s="16">
-        <v>3412773</v>
+        <v>3286172</v>
       </c>
     </row>
     <row r="51" spans="2:6" hidden="1">
@@ -1671,17 +1675,17 @@
         <v>2021</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D51" s="11">
-        <f t="shared" si="3"/>
-        <v>8256002</v>
+        <f t="shared" ref="D51:D82" si="4">SUM(E51:F51)</f>
+        <v>6335718</v>
       </c>
       <c r="E51" s="12">
-        <v>4365429</v>
+        <v>3602892</v>
       </c>
       <c r="F51" s="12">
-        <v>3890573</v>
+        <v>2732826</v>
       </c>
     </row>
     <row r="52" spans="2:6" hidden="1">
@@ -1689,17 +1693,17 @@
         <v>2021</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D52" s="15">
-        <f t="shared" si="3"/>
-        <v>7317711</v>
+        <f t="shared" si="4"/>
+        <v>7407170</v>
       </c>
       <c r="E52" s="16">
-        <v>3834253</v>
+        <v>3994397</v>
       </c>
       <c r="F52" s="16">
-        <v>3483458</v>
+        <v>3412773</v>
       </c>
     </row>
     <row r="53" spans="2:6" hidden="1">
@@ -1707,17 +1711,17 @@
         <v>2021</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53" s="11">
-        <f t="shared" si="3"/>
-        <v>6934293</v>
+        <f t="shared" si="4"/>
+        <v>8256002</v>
       </c>
       <c r="E53" s="12">
-        <v>3818846</v>
+        <v>4365429</v>
       </c>
       <c r="F53" s="12">
-        <v>3115447</v>
+        <v>3890573</v>
       </c>
     </row>
     <row r="54" spans="2:6" hidden="1">
@@ -1725,17 +1729,17 @@
         <v>2021</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D54" s="15">
-        <f t="shared" si="3"/>
-        <v>5986797</v>
+        <f t="shared" si="4"/>
+        <v>7317711</v>
       </c>
       <c r="E54" s="16">
-        <v>3478623</v>
+        <v>3834253</v>
       </c>
       <c r="F54" s="16">
-        <v>2508174</v>
+        <v>3483458</v>
       </c>
     </row>
     <row r="55" spans="2:6" hidden="1">
@@ -1743,17 +1747,17 @@
         <v>2021</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D55" s="11">
-        <f t="shared" si="3"/>
-        <v>5308998</v>
+        <f t="shared" si="4"/>
+        <v>6934293</v>
       </c>
       <c r="E55" s="12">
-        <v>3169991</v>
+        <v>3818846</v>
       </c>
       <c r="F55" s="12">
-        <v>2139007</v>
+        <v>3115447</v>
       </c>
     </row>
     <row r="56" spans="2:6" hidden="1">
@@ -1761,89 +1765,89 @@
         <v>2021</v>
       </c>
       <c r="C56" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="15">
+        <f t="shared" si="4"/>
+        <v>5986797</v>
+      </c>
+      <c r="E56" s="16">
+        <v>3478623</v>
+      </c>
+      <c r="F56" s="16">
+        <v>2508174</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="11">
+        <f t="shared" si="4"/>
+        <v>5308998</v>
+      </c>
+      <c r="E57" s="12">
+        <v>3169991</v>
+      </c>
+      <c r="F57" s="12">
+        <v>2139007</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="13">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="15">
-        <f t="shared" si="3"/>
+      <c r="D58" s="15">
+        <f t="shared" si="4"/>
         <v>3515246</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E58" s="16">
         <v>2221947</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F58" s="16">
         <v>1293299</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1">
-      <c r="B57" s="17">
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="17">
         <v>2021</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C59" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="19">
-        <f t="shared" si="3"/>
+      <c r="D59" s="19">
+        <f t="shared" si="4"/>
         <v>4603651</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E59" s="20">
         <v>2703105</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F59" s="20">
         <v>1900546</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="21">
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="21">
         <v>2020</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C60" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="23">
-        <f t="shared" si="3"/>
+      <c r="D60" s="23">
+        <f t="shared" si="4"/>
         <v>5262897</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E60" s="24">
         <v>3144137</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F60" s="24">
         <v>2118760</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" hidden="1">
-      <c r="B59" s="9">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="11">
-        <f t="shared" si="3"/>
-        <v>4568948</v>
-      </c>
-      <c r="E59" s="12">
-        <v>2920098</v>
-      </c>
-      <c r="F59" s="12">
-        <v>1648850</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" hidden="1">
-      <c r="B60" s="13">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="15">
-        <f t="shared" si="3"/>
-        <v>4066515</v>
-      </c>
-      <c r="E60" s="16">
-        <v>2708781</v>
-      </c>
-      <c r="F60" s="16">
-        <v>1357734</v>
       </c>
     </row>
     <row r="61" spans="2:6" hidden="1">
@@ -1851,17 +1855,17 @@
         <v>2020</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D61" s="11">
-        <f t="shared" si="3"/>
-        <v>3283162</v>
+        <f t="shared" si="4"/>
+        <v>4568948</v>
       </c>
       <c r="E61" s="12">
-        <v>2317729</v>
+        <v>2920098</v>
       </c>
       <c r="F61" s="12">
-        <v>965433</v>
+        <v>1648850</v>
       </c>
     </row>
     <row r="62" spans="2:6" hidden="1">
@@ -1869,17 +1873,17 @@
         <v>2020</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D62" s="15">
-        <f t="shared" si="3"/>
-        <v>3035521</v>
+        <f t="shared" si="4"/>
+        <v>4066515</v>
       </c>
       <c r="E62" s="16">
-        <v>2120271</v>
+        <v>2708781</v>
       </c>
       <c r="F62" s="16">
-        <v>915250</v>
+        <v>1357734</v>
       </c>
     </row>
     <row r="63" spans="2:6" hidden="1">
@@ -1887,17 +1891,17 @@
         <v>2020</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D63" s="11">
-        <f t="shared" si="3"/>
-        <v>2412156</v>
+        <f t="shared" si="4"/>
+        <v>3283162</v>
       </c>
       <c r="E63" s="12">
-        <v>1672969</v>
+        <v>2317729</v>
       </c>
       <c r="F63" s="12">
-        <v>739187</v>
+        <v>965433</v>
       </c>
     </row>
     <row r="64" spans="2:6" hidden="1">
@@ -1905,17 +1909,17 @@
         <v>2020</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D64" s="15">
-        <f t="shared" si="3"/>
-        <v>1180756</v>
+        <f t="shared" si="4"/>
+        <v>3035521</v>
       </c>
       <c r="E64" s="16">
-        <v>886076</v>
+        <v>2120271</v>
       </c>
       <c r="F64" s="16">
-        <v>294680</v>
+        <v>915250</v>
       </c>
     </row>
     <row r="65" spans="2:6" hidden="1">
@@ -1923,17 +1927,17 @@
         <v>2020</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D65" s="11">
-        <f t="shared" si="3"/>
-        <v>488531</v>
+        <f t="shared" si="4"/>
+        <v>2412156</v>
       </c>
       <c r="E65" s="12">
-        <v>385641</v>
+        <v>1672969</v>
       </c>
       <c r="F65" s="12">
-        <v>102890</v>
+        <v>739187</v>
       </c>
     </row>
     <row r="66" spans="2:6" hidden="1">
@@ -1941,17 +1945,17 @@
         <v>2020</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D66" s="15">
-        <f t="shared" si="3"/>
-        <v>509441</v>
+        <f t="shared" si="4"/>
+        <v>1180756</v>
       </c>
       <c r="E66" s="16">
-        <v>413225</v>
+        <v>886076</v>
       </c>
       <c r="F66" s="16">
-        <v>96216</v>
+        <v>294680</v>
       </c>
     </row>
     <row r="67" spans="2:6" hidden="1">
@@ -1959,17 +1963,17 @@
         <v>2020</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D67" s="11">
-        <f t="shared" si="3"/>
-        <v>5886542</v>
+        <f t="shared" si="4"/>
+        <v>488531</v>
       </c>
       <c r="E67" s="12">
-        <v>3142005</v>
+        <v>385641</v>
       </c>
       <c r="F67" s="12">
-        <v>2744537</v>
+        <v>102890</v>
       </c>
     </row>
     <row r="68" spans="2:6" hidden="1">
@@ -1977,89 +1981,89 @@
         <v>2020</v>
       </c>
       <c r="C68" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="15">
+        <f t="shared" si="4"/>
+        <v>509441</v>
+      </c>
+      <c r="E68" s="16">
+        <v>413225</v>
+      </c>
+      <c r="F68" s="16">
+        <v>96216</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="11">
+        <f t="shared" si="4"/>
+        <v>5886542</v>
+      </c>
+      <c r="E69" s="12">
+        <v>3142005</v>
+      </c>
+      <c r="F69" s="12">
+        <v>2744537</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="15">
-        <f t="shared" si="3"/>
+      <c r="D70" s="15">
+        <f t="shared" si="4"/>
         <v>8319634</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E70" s="16">
         <v>4091826</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F70" s="16">
         <v>4227808</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1">
-      <c r="B69" s="17">
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="17">
         <v>2020</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C71" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="19">
-        <f t="shared" si="3"/>
+      <c r="D71" s="19">
+        <f t="shared" si="4"/>
         <v>9065514</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E71" s="20">
         <v>4433703</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F71" s="20">
         <v>4631811</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="21">
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="21">
         <v>2019</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C72" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="23">
-        <f t="shared" si="3"/>
+      <c r="D72" s="23">
+        <f t="shared" si="4"/>
         <v>9358660</v>
       </c>
-      <c r="E70" s="24">
+      <c r="E72" s="24">
         <v>4755157</v>
       </c>
-      <c r="F70" s="24">
+      <c r="F72" s="24">
         <v>4603503</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" hidden="1">
-      <c r="B71" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="11">
-        <f t="shared" si="3"/>
-        <v>8545618</v>
-      </c>
-      <c r="E71" s="12">
-        <v>4611815</v>
-      </c>
-      <c r="F71" s="12">
-        <v>3933803</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" hidden="1">
-      <c r="B72" s="13">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="15">
-        <f t="shared" si="3"/>
-        <v>8005724</v>
-      </c>
-      <c r="E72" s="16">
-        <v>4617022</v>
-      </c>
-      <c r="F72" s="16">
-        <v>3388702</v>
       </c>
     </row>
     <row r="73" spans="2:6" hidden="1">
@@ -2067,17 +2071,17 @@
         <v>2019</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D73" s="11">
-        <f t="shared" si="3"/>
-        <v>7233383</v>
+        <f t="shared" si="4"/>
+        <v>8545618</v>
       </c>
       <c r="E73" s="12">
-        <v>4187402</v>
+        <v>4611815</v>
       </c>
       <c r="F73" s="12">
-        <v>3045981</v>
+        <v>3933803</v>
       </c>
     </row>
     <row r="74" spans="2:6" hidden="1">
@@ -2085,17 +2089,17 @@
         <v>2019</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D74" s="15">
-        <f t="shared" si="3"/>
-        <v>8708818</v>
+        <f t="shared" si="4"/>
+        <v>8005724</v>
       </c>
       <c r="E74" s="16">
-        <v>4765181</v>
+        <v>4617022</v>
       </c>
       <c r="F74" s="16">
-        <v>3943637</v>
+        <v>3388702</v>
       </c>
     </row>
     <row r="75" spans="2:6" hidden="1">
@@ -2103,17 +2107,17 @@
         <v>2019</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D75" s="11">
-        <f t="shared" si="3"/>
-        <v>9445888</v>
+        <f t="shared" si="4"/>
+        <v>7233383</v>
       </c>
       <c r="E75" s="12">
-        <v>5005061</v>
+        <v>4187402</v>
       </c>
       <c r="F75" s="12">
-        <v>4440827</v>
+        <v>3045981</v>
       </c>
     </row>
     <row r="76" spans="2:6" hidden="1">
@@ -2121,17 +2125,17 @@
         <v>2019</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D76" s="15">
-        <f t="shared" si="3"/>
-        <v>8525678</v>
+        <f t="shared" si="4"/>
+        <v>8708818</v>
       </c>
       <c r="E76" s="16">
-        <v>4555762</v>
+        <v>4765181</v>
       </c>
       <c r="F76" s="16">
-        <v>3969916</v>
+        <v>3943637</v>
       </c>
     </row>
     <row r="77" spans="2:6" hidden="1">
@@ -2139,17 +2143,17 @@
         <v>2019</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D77" s="11">
-        <f t="shared" si="3"/>
-        <v>8482898</v>
+        <f t="shared" si="4"/>
+        <v>9445888</v>
       </c>
       <c r="E77" s="12">
-        <v>4704389</v>
+        <v>5005061</v>
       </c>
       <c r="F77" s="12">
-        <v>3778509</v>
+        <v>4440827</v>
       </c>
     </row>
     <row r="78" spans="2:6" hidden="1">
@@ -2157,17 +2161,17 @@
         <v>2019</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D78" s="15">
-        <f t="shared" si="3"/>
-        <v>8548334</v>
+        <f t="shared" si="4"/>
+        <v>8525678</v>
       </c>
       <c r="E78" s="16">
-        <v>4438332</v>
+        <v>4555762</v>
       </c>
       <c r="F78" s="16">
-        <v>4110002</v>
+        <v>3969916</v>
       </c>
     </row>
     <row r="79" spans="2:6" hidden="1">
@@ -2175,17 +2179,17 @@
         <v>2019</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D79" s="11">
-        <f t="shared" si="3"/>
-        <v>8887698</v>
+        <f t="shared" si="4"/>
+        <v>8482898</v>
       </c>
       <c r="E79" s="12">
-        <v>4310865</v>
+        <v>4704389</v>
       </c>
       <c r="F79" s="12">
-        <v>4576833</v>
+        <v>3778509</v>
       </c>
     </row>
     <row r="80" spans="2:6" hidden="1">
@@ -2193,71 +2197,71 @@
         <v>2019</v>
       </c>
       <c r="C80" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="15">
+        <f t="shared" si="4"/>
+        <v>8548334</v>
+      </c>
+      <c r="E80" s="16">
+        <v>4438332</v>
+      </c>
+      <c r="F80" s="16">
+        <v>4110002</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" hidden="1">
+      <c r="B81" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="11">
+        <f t="shared" si="4"/>
+        <v>8887698</v>
+      </c>
+      <c r="E81" s="12">
+        <v>4310865</v>
+      </c>
+      <c r="F81" s="12">
+        <v>4576833</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" hidden="1">
+      <c r="B82" s="13">
+        <v>2019</v>
+      </c>
+      <c r="C82" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="15">
-        <f t="shared" si="3"/>
+      <c r="D82" s="15">
+        <f t="shared" si="4"/>
         <v>7407471</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E82" s="16">
         <v>3590917</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F82" s="16">
         <v>3816554</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1">
-      <c r="B81" s="17">
+    <row r="83" spans="2:6" hidden="1">
+      <c r="B83" s="17">
         <v>2019</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C83" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="19">
-        <f t="shared" ref="D81:D93" si="4">SUM(E81:F81)</f>
+      <c r="D83" s="19">
+        <f t="shared" ref="D83:D95" si="5">SUM(E83:F83)</f>
         <v>8273412</v>
       </c>
-      <c r="E81" s="20">
+      <c r="E83" s="20">
         <v>3989338</v>
       </c>
-      <c r="F81" s="20">
+      <c r="F83" s="20">
         <v>4284074</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" hidden="1">
-      <c r="B82" s="14">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="15">
-        <f t="shared" si="4"/>
-        <v>8744817</v>
-      </c>
-      <c r="E82" s="16">
-        <v>4400768</v>
-      </c>
-      <c r="F82" s="16">
-        <v>4344049</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" hidden="1">
-      <c r="B83" s="10">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="11">
-        <f t="shared" si="4"/>
-        <v>8065105</v>
-      </c>
-      <c r="E83" s="12">
-        <v>4287344</v>
-      </c>
-      <c r="F83" s="12">
-        <v>3777761</v>
       </c>
     </row>
     <row r="84" spans="2:6" hidden="1">
@@ -2265,17 +2269,17 @@
         <v>2018</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D84" s="15">
-        <f t="shared" si="4"/>
-        <v>7563067</v>
+        <f t="shared" si="5"/>
+        <v>8744817</v>
       </c>
       <c r="E84" s="16">
-        <v>4246079</v>
+        <v>4400768</v>
       </c>
       <c r="F84" s="16">
-        <v>3316988</v>
+        <v>4344049</v>
       </c>
     </row>
     <row r="85" spans="2:6" hidden="1">
@@ -2283,17 +2287,17 @@
         <v>2018</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D85" s="11">
-        <f t="shared" si="4"/>
-        <v>6852045</v>
+        <f t="shared" si="5"/>
+        <v>8065105</v>
       </c>
       <c r="E85" s="12">
-        <v>3900894</v>
+        <v>4287344</v>
       </c>
       <c r="F85" s="12">
-        <v>2951151</v>
+        <v>3777761</v>
       </c>
     </row>
     <row r="86" spans="2:6" hidden="1">
@@ -2301,17 +2305,17 @@
         <v>2018</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D86" s="15">
-        <f t="shared" si="4"/>
-        <v>8297341</v>
+        <f t="shared" si="5"/>
+        <v>7563067</v>
       </c>
       <c r="E86" s="16">
-        <v>4416844</v>
+        <v>4246079</v>
       </c>
       <c r="F86" s="16">
-        <v>3880497</v>
+        <v>3316988</v>
       </c>
     </row>
     <row r="87" spans="2:6" hidden="1">
@@ -2319,17 +2323,17 @@
         <v>2018</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D87" s="11">
-        <f t="shared" si="4"/>
-        <v>9056178</v>
+        <f t="shared" si="5"/>
+        <v>6852045</v>
       </c>
       <c r="E87" s="12">
-        <v>4689606</v>
+        <v>3900894</v>
       </c>
       <c r="F87" s="12">
-        <v>4366572</v>
+        <v>2951151</v>
       </c>
     </row>
     <row r="88" spans="2:6" hidden="1">
@@ -2337,17 +2341,17 @@
         <v>2018</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D88" s="15">
-        <f t="shared" si="4"/>
-        <v>8006308</v>
+        <f t="shared" si="5"/>
+        <v>8297341</v>
       </c>
       <c r="E88" s="16">
-        <v>4087227</v>
+        <v>4416844</v>
       </c>
       <c r="F88" s="16">
-        <v>3919081</v>
+        <v>3880497</v>
       </c>
     </row>
     <row r="89" spans="2:6" hidden="1">
@@ -2355,17 +2359,17 @@
         <v>2018</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D89" s="11">
-        <f t="shared" si="4"/>
-        <v>7817504</v>
+        <f t="shared" si="5"/>
+        <v>9056178</v>
       </c>
       <c r="E89" s="12">
-        <v>4163127</v>
+        <v>4689606</v>
       </c>
       <c r="F89" s="12">
-        <v>3654377</v>
+        <v>4366572</v>
       </c>
     </row>
     <row r="90" spans="2:6" hidden="1">
@@ -2373,17 +2377,17 @@
         <v>2018</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D90" s="15">
-        <f t="shared" si="4"/>
-        <v>8098666</v>
+        <f t="shared" si="5"/>
+        <v>8006308</v>
       </c>
       <c r="E90" s="16">
-        <v>4096821</v>
+        <v>4087227</v>
       </c>
       <c r="F90" s="16">
-        <v>4001845</v>
+        <v>3919081</v>
       </c>
     </row>
     <row r="91" spans="2:6" hidden="1">
@@ -2391,17 +2395,17 @@
         <v>2018</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D91" s="11">
-        <f t="shared" si="4"/>
-        <v>8610022</v>
+        <f t="shared" si="5"/>
+        <v>7817504</v>
       </c>
       <c r="E91" s="12">
-        <v>4048811</v>
+        <v>4163127</v>
       </c>
       <c r="F91" s="12">
-        <v>4561211</v>
+        <v>3654377</v>
       </c>
     </row>
     <row r="92" spans="2:6" hidden="1">
@@ -2409,17 +2413,17 @@
         <v>2018</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D92" s="15">
-        <f t="shared" si="4"/>
-        <v>7192032</v>
+        <f t="shared" si="5"/>
+        <v>8098666</v>
       </c>
       <c r="E92" s="16">
-        <v>3422954</v>
+        <v>4096821</v>
       </c>
       <c r="F92" s="16">
-        <v>3769078</v>
+        <v>4001845</v>
       </c>
     </row>
     <row r="93" spans="2:6" hidden="1">
@@ -2427,31 +2431,67 @@
         <v>2018</v>
       </c>
       <c r="C93" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="11">
+        <f t="shared" si="5"/>
+        <v>8610022</v>
+      </c>
+      <c r="E93" s="12">
+        <v>4048811</v>
+      </c>
+      <c r="F93" s="12">
+        <v>4561211</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" hidden="1">
+      <c r="B94" s="14">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="15">
+        <f t="shared" si="5"/>
+        <v>7192032</v>
+      </c>
+      <c r="E94" s="16">
+        <v>3422954</v>
+      </c>
+      <c r="F94" s="16">
+        <v>3769078</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" hidden="1">
+      <c r="B95" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D93" s="11">
-        <f t="shared" si="4"/>
+      <c r="D95" s="11">
+        <f t="shared" si="5"/>
         <v>8102943</v>
       </c>
-      <c r="E93" s="12">
+      <c r="E95" s="12">
         <v>3774420</v>
       </c>
-      <c r="F93" s="12">
+      <c r="F95" s="12">
         <v>4328523</v>
       </c>
     </row>
-    <row r="94" spans="2:6">
-      <c r="B94" s="3" t="s">
+    <row r="96" spans="2:6">
+      <c r="B96" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="3" t="s">
+    <row r="97" spans="2:6">
+      <c r="B97" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:6">
-      <c r="F96" s="26"/>
+    <row r="98" spans="2:6">
+      <c r="F98" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_Total_N_Aero.xlsx
+++ b/Pasajeros_Total_N_Aero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13738553-4AA3-463E-898A-FD6E7EBDD222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1056377-6D52-485B-88C5-C8F059491B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_30.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="21">
   <si>
     <t>Internacional</t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F95" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B5:F95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F96" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -792,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:H98"/>
+  <dimension ref="B2:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -846,1652 +846,1670 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="14">
+      <c r="B6" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11">
+        <f>SUM(E6:F6)</f>
+        <v>10985625</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5763963</v>
+      </c>
+      <c r="F6" s="12">
+        <v>5221662</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="15">
-        <f>SUM(E6:F6)</f>
+      <c r="D7" s="15">
+        <f>SUM(E7:F7)</f>
         <v>9798304</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E7" s="16">
         <v>5145539</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F7" s="16">
         <v>4652765</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="9">
+    <row r="8" spans="2:6">
+      <c r="B8" s="9">
         <v>2025</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11">
-        <f>SUM(E7:F7)</f>
+      <c r="D8" s="11">
+        <f>SUM(E8:F8)</f>
         <v>9794352</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E8" s="12">
         <v>5344434</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F8" s="12">
         <v>4449918</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="14">
+    <row r="9" spans="2:6">
+      <c r="B9" s="14">
         <v>2025</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="15">
-        <f t="shared" ref="D8:D13" si="0">SUM(E8:F8)</f>
+      <c r="D9" s="15">
+        <f t="shared" ref="D9:D14" si="0">SUM(E9:F9)</f>
         <v>10497869</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E9" s="16">
         <v>5436631</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F9" s="16">
         <v>5061238</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="9">
+    <row r="10" spans="2:6">
+      <c r="B10" s="9">
         <v>2025</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>11003838</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E10" s="12">
         <v>5244268</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F10" s="12">
         <v>5759570</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="14">
+    <row r="11" spans="2:6">
+      <c r="B11" s="14">
         <v>2025</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D11" s="15">
         <f t="shared" si="0"/>
         <v>9365203</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E11" s="16">
         <v>4481168</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F11" s="16">
         <v>4884035</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="17">
+    <row r="12" spans="2:6">
+      <c r="B12" s="17">
         <v>2025</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D12" s="19">
         <f t="shared" si="0"/>
         <v>10721774</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E12" s="20">
         <v>5073614</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F12" s="20">
         <v>5648160</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="13">
+    <row r="13" spans="2:6">
+      <c r="B13" s="13">
         <v>2024</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D13" s="15">
         <f t="shared" si="0"/>
         <v>11236088</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E13" s="16">
         <v>5467889</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F13" s="16">
         <v>5768199</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="9">
+    <row r="14" spans="2:6">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <f t="shared" si="0"/>
         <v>10118494</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E14" s="12">
         <v>5251682</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F14" s="12">
         <v>4866812</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="13">
+    <row r="15" spans="2:6">
+      <c r="B15" s="13">
         <v>2024</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="15">
-        <f t="shared" ref="D14" si="1">SUM(E14:F14)</f>
+      <c r="D15" s="15">
+        <f t="shared" ref="D15" si="1">SUM(E15:F15)</f>
         <v>9362533</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E15" s="16">
         <v>5190073</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F15" s="16">
         <v>4172460</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="9">
+    <row r="16" spans="2:6">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="11">
-        <f>SUM(E15:F15)</f>
+      <c r="D16" s="11">
+        <f>SUM(E16:F16)</f>
         <v>8544407</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E16" s="12">
         <v>4936321</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F16" s="12">
         <v>3608086</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="13">
+    <row r="17" spans="2:8">
+      <c r="B17" s="13">
         <v>2024</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="15">
-        <f t="shared" ref="D16:D50" si="2">SUM(E16:F16)</f>
+      <c r="D17" s="15">
+        <f t="shared" ref="D17:D51" si="2">SUM(E17:F17)</f>
         <v>10078221</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E17" s="16">
         <v>5591895</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F17" s="16">
         <v>4486326</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="9">
+    <row r="18" spans="2:8">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="11">
-        <f t="shared" ref="D17:D19" si="3">SUM(E17:F17)</f>
+      <c r="D18" s="11">
+        <f t="shared" ref="D18:D20" si="3">SUM(E18:F18)</f>
         <v>10790573</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E18" s="12">
         <v>5690114</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F18" s="12">
         <v>5100459</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="13">
+    <row r="19" spans="2:8">
+      <c r="B19" s="13">
         <v>2024</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D19" s="15">
         <f t="shared" si="3"/>
         <v>9835006</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E19" s="16">
         <v>5133415</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F19" s="16">
         <v>4701591</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="9">
+    <row r="20" spans="2:8">
+      <c r="B20" s="9">
         <v>2024</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <f t="shared" si="3"/>
         <v>9758066</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="12">
         <v>5234844</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F20" s="12">
         <v>4523222</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="13">
+    <row r="21" spans="2:8">
+      <c r="B21" s="13">
         <v>2024</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D21" s="15">
         <f t="shared" si="2"/>
         <v>9750424</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E21" s="16">
         <v>4979579</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F21" s="16">
         <v>4770845</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="9">
+    <row r="22" spans="2:8">
+      <c r="B22" s="9">
         <v>2024</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <f t="shared" si="2"/>
         <v>10540480</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E22" s="12">
         <v>4861359</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F22" s="12">
         <v>5679121</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="13">
+    <row r="23" spans="2:8">
+      <c r="B23" s="13">
         <v>2024</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D23" s="15">
         <f t="shared" si="2"/>
         <v>9335418</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E23" s="16">
         <v>4389622</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F23" s="16">
         <v>4945796</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="17">
+    <row r="24" spans="2:8">
+      <c r="B24" s="17">
         <v>2024</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D24" s="19">
         <f t="shared" si="2"/>
         <v>10157525</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E24" s="20">
         <v>4807023</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F24" s="20">
         <v>5350502</v>
       </c>
     </row>
-    <row r="24" spans="2:8" hidden="1">
-      <c r="B24" s="21">
+    <row r="25" spans="2:8" hidden="1">
+      <c r="B25" s="21">
         <v>2023</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C25" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D25" s="23">
         <f t="shared" si="2"/>
         <v>10829188</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E25" s="24">
         <v>5415680</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F25" s="25">
         <v>5413508</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="3">
         <v>5413508</v>
       </c>
     </row>
-    <row r="25" spans="2:8" hidden="1">
-      <c r="B25" s="9">
+    <row r="26" spans="2:8" hidden="1">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <f t="shared" si="2"/>
         <v>9838837</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E26" s="12">
         <v>5273853</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F26" s="12">
         <v>4564984</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="3">
         <v>4564984</v>
       </c>
     </row>
-    <row r="26" spans="2:8" hidden="1">
-      <c r="B26" s="13">
+    <row r="27" spans="2:8" hidden="1">
+      <c r="B27" s="13">
         <v>2023</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D27" s="15">
         <f t="shared" si="2"/>
         <v>9482301</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E27" s="16">
         <v>5416944</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F27" s="16">
         <v>4065357</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H27" s="3">
         <v>4065357</v>
       </c>
     </row>
-    <row r="27" spans="2:8" hidden="1">
-      <c r="B27" s="9">
+    <row r="28" spans="2:8" hidden="1">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <f t="shared" si="2"/>
         <v>8633272</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E28" s="12">
         <v>5067159</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F28" s="12">
         <v>3566113</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H28" s="3">
         <v>3566113</v>
       </c>
     </row>
-    <row r="28" spans="2:8" hidden="1">
-      <c r="B28" s="13">
+    <row r="29" spans="2:8" hidden="1">
+      <c r="B29" s="13">
         <v>2023</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D29" s="15">
         <f t="shared" si="2"/>
         <v>10433744</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E29" s="16">
         <v>5976700</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F29" s="16">
         <v>4457044</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H29" s="3">
         <v>4457044</v>
       </c>
     </row>
-    <row r="29" spans="2:8" hidden="1">
-      <c r="B29" s="9">
+    <row r="30" spans="2:8" hidden="1">
+      <c r="B30" s="9">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <f t="shared" si="2"/>
         <v>10994672</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E30" s="12">
         <v>5970043</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F30" s="12">
         <v>5024629</v>
       </c>
     </row>
-    <row r="30" spans="2:8" hidden="1">
-      <c r="B30" s="13">
+    <row r="31" spans="2:8" hidden="1">
+      <c r="B31" s="13">
         <v>2023</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D31" s="15">
         <f t="shared" si="2"/>
         <v>9688779</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E31" s="16">
         <v>5246474</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F31" s="16">
         <v>4442305</v>
       </c>
     </row>
-    <row r="31" spans="2:8" hidden="1">
-      <c r="B31" s="9">
+    <row r="32" spans="2:8" hidden="1">
+      <c r="B32" s="9">
         <v>2023</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <f t="shared" si="2"/>
         <v>9507284</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E32" s="12">
         <v>5270951</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F32" s="12">
         <v>4236333</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1">
-      <c r="B32" s="13">
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="13">
         <v>2023</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D33" s="15">
         <f t="shared" si="2"/>
         <v>9919095</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E33" s="16">
         <v>5341258</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F33" s="16">
         <v>4577837</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1">
-      <c r="B33" s="9">
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="9">
         <v>2023</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <f t="shared" si="2"/>
         <v>10259682</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E34" s="12">
         <v>5215128</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F34" s="12">
         <v>5044554</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="13">
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="13">
         <v>2023</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D35" s="15">
         <f t="shared" si="2"/>
         <v>8840768</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E35" s="16">
         <v>4453469</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F35" s="16">
         <v>4387299</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1">
-      <c r="B35" s="17">
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="17">
         <v>2023</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D36" s="19">
         <f t="shared" si="2"/>
         <v>9936455</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E36" s="20">
         <v>4978979</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F36" s="20">
         <v>4957476</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1">
-      <c r="B36" s="21">
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="21">
         <v>2022</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C37" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D37" s="23">
         <f t="shared" si="2"/>
         <v>10328957</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E37" s="24">
         <v>5458695</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F37" s="24">
         <v>4870262</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1">
-      <c r="B37" s="9">
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <f t="shared" si="2"/>
         <v>9564350</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E38" s="12">
         <v>5216824</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F38" s="12">
         <v>4347526</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1">
-      <c r="B38" s="13">
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="13">
         <v>2022</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C39" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D39" s="15">
         <f t="shared" si="2"/>
         <v>9047728</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E39" s="16">
         <v>5177608</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F39" s="16">
         <v>3870120</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1">
-      <c r="B39" s="9">
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <f t="shared" si="2"/>
         <v>8162159</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E40" s="12">
         <v>4687975</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F40" s="12">
         <v>3474184</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1">
-      <c r="B40" s="13">
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="13">
         <v>2022</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D41" s="15">
         <f t="shared" si="2"/>
         <v>9454996</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E41" s="16">
         <v>5202467</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F41" s="16">
         <v>4252529</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1">
-      <c r="B41" s="9">
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42" s="9">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <f t="shared" si="2"/>
         <v>10042169</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E42" s="12">
         <v>5313681</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F42" s="12">
         <v>4728488</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1">
-      <c r="B42" s="13">
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43" s="13">
         <v>2022</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D43" s="15">
         <f t="shared" si="2"/>
         <v>8909540</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E43" s="16">
         <v>4660739</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F43" s="16">
         <v>4248801</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1">
-      <c r="B43" s="9">
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="9">
         <v>2022</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <f t="shared" si="2"/>
         <v>8894356</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E44" s="12">
         <v>4864477</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F44" s="12">
         <v>4029879</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1">
-      <c r="B44" s="13">
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="13">
         <v>2022</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D45" s="15">
         <f t="shared" si="2"/>
         <v>8965893</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E45" s="16">
         <v>4744599</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F45" s="16">
         <v>4221294</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1">
-      <c r="B45" s="9">
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="9">
         <v>2022</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <f t="shared" si="2"/>
         <v>8932243</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E46" s="12">
         <v>4477915</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F46" s="12">
         <v>4454328</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1">
-      <c r="B46" s="13">
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="13">
         <v>2022</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D47" s="15">
         <f t="shared" si="2"/>
         <v>7028818</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E47" s="16">
         <v>3568589</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F47" s="16">
         <v>3460229</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1">
-      <c r="B47" s="17">
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="17">
         <v>2022</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C48" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D48" s="19">
         <f t="shared" si="2"/>
         <v>7524409</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E48" s="20">
         <v>3789823</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F48" s="20">
         <v>3734586</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1">
-      <c r="B48" s="21">
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="21">
         <v>2021</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C49" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D49" s="23">
         <f t="shared" si="2"/>
         <v>8858284</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E49" s="24">
         <v>4685952</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F49" s="24">
         <v>4172332</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1">
-      <c r="B49" s="9">
+    <row r="50" spans="2:6" hidden="1">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <f t="shared" si="2"/>
         <v>8044448</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E50" s="12">
         <v>4338222</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F50" s="12">
         <v>3706226</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1">
-      <c r="B50" s="13">
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="13">
         <v>2021</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D51" s="15">
         <f t="shared" si="2"/>
         <v>7434983</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E51" s="16">
         <v>4148811</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F51" s="16">
         <v>3286172</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1">
-      <c r="B51" s="9">
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="11">
-        <f t="shared" ref="D51:D82" si="4">SUM(E51:F51)</f>
+      <c r="D52" s="11">
+        <f t="shared" ref="D52:D83" si="4">SUM(E52:F52)</f>
         <v>6335718</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E52" s="12">
         <v>3602892</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F52" s="12">
         <v>2732826</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1">
-      <c r="B52" s="13">
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="13">
         <v>2021</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D53" s="15">
         <f t="shared" si="4"/>
         <v>7407170</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E53" s="16">
         <v>3994397</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F53" s="16">
         <v>3412773</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1">
-      <c r="B53" s="9">
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="9">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <f t="shared" si="4"/>
         <v>8256002</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E54" s="12">
         <v>4365429</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F54" s="12">
         <v>3890573</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1">
-      <c r="B54" s="13">
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="13">
         <v>2021</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D55" s="15">
         <f t="shared" si="4"/>
         <v>7317711</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E55" s="16">
         <v>3834253</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F55" s="16">
         <v>3483458</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1">
-      <c r="B55" s="9">
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="9">
         <v>2021</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <f t="shared" si="4"/>
         <v>6934293</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E56" s="12">
         <v>3818846</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F56" s="12">
         <v>3115447</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1">
-      <c r="B56" s="13">
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="13">
         <v>2021</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D57" s="15">
         <f t="shared" si="4"/>
         <v>5986797</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E57" s="16">
         <v>3478623</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F57" s="16">
         <v>2508174</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1">
-      <c r="B57" s="9">
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="9">
         <v>2021</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <f t="shared" si="4"/>
         <v>5308998</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E58" s="12">
         <v>3169991</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F58" s="12">
         <v>2139007</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="13">
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="13">
         <v>2021</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D59" s="15">
         <f t="shared" si="4"/>
         <v>3515246</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E59" s="16">
         <v>2221947</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F59" s="16">
         <v>1293299</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1">
-      <c r="B59" s="17">
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="17">
         <v>2021</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C60" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D60" s="19">
         <f t="shared" si="4"/>
         <v>4603651</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E60" s="20">
         <v>2703105</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F60" s="20">
         <v>1900546</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1">
-      <c r="B60" s="21">
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="21">
         <v>2020</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C61" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D61" s="23">
         <f t="shared" si="4"/>
         <v>5262897</v>
       </c>
-      <c r="E60" s="24">
+      <c r="E61" s="24">
         <v>3144137</v>
       </c>
-      <c r="F60" s="24">
+      <c r="F61" s="24">
         <v>2118760</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1">
-      <c r="B61" s="9">
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <f t="shared" si="4"/>
         <v>4568948</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E62" s="12">
         <v>2920098</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F62" s="12">
         <v>1648850</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1">
-      <c r="B62" s="13">
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="13">
         <v>2020</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D63" s="15">
         <f t="shared" si="4"/>
         <v>4066515</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E63" s="16">
         <v>2708781</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F63" s="16">
         <v>1357734</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1">
-      <c r="B63" s="9">
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <f t="shared" si="4"/>
         <v>3283162</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E64" s="12">
         <v>2317729</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F64" s="12">
         <v>965433</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1">
-      <c r="B64" s="13">
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="13">
         <v>2020</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C65" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D65" s="15">
         <f t="shared" si="4"/>
         <v>3035521</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E65" s="16">
         <v>2120271</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F65" s="16">
         <v>915250</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1">
-      <c r="B65" s="9">
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="9">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <f t="shared" si="4"/>
         <v>2412156</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E66" s="12">
         <v>1672969</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F66" s="12">
         <v>739187</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1">
-      <c r="B66" s="13">
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="13">
         <v>2020</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D67" s="15">
         <f t="shared" si="4"/>
         <v>1180756</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E67" s="16">
         <v>886076</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F67" s="16">
         <v>294680</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1">
-      <c r="B67" s="9">
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="9">
         <v>2020</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <f t="shared" si="4"/>
         <v>488531</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E68" s="12">
         <v>385641</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F68" s="12">
         <v>102890</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1">
-      <c r="B68" s="13">
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="13">
         <v>2020</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D69" s="15">
         <f t="shared" si="4"/>
         <v>509441</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E69" s="16">
         <v>413225</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F69" s="16">
         <v>96216</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1">
-      <c r="B69" s="9">
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="9">
         <v>2020</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <f t="shared" si="4"/>
         <v>5886542</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E70" s="12">
         <v>3142005</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F70" s="12">
         <v>2744537</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="13">
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="13">
         <v>2020</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C71" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D71" s="15">
         <f t="shared" si="4"/>
         <v>8319634</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E71" s="16">
         <v>4091826</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F71" s="16">
         <v>4227808</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1">
-      <c r="B71" s="17">
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="17">
         <v>2020</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C72" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D72" s="19">
         <f t="shared" si="4"/>
         <v>9065514</v>
       </c>
-      <c r="E71" s="20">
+      <c r="E72" s="20">
         <v>4433703</v>
       </c>
-      <c r="F71" s="20">
+      <c r="F72" s="20">
         <v>4631811</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1">
-      <c r="B72" s="21">
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="21">
         <v>2019</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C73" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D73" s="23">
         <f t="shared" si="4"/>
         <v>9358660</v>
       </c>
-      <c r="E72" s="24">
+      <c r="E73" s="24">
         <v>4755157</v>
       </c>
-      <c r="F72" s="24">
+      <c r="F73" s="24">
         <v>4603503</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1">
-      <c r="B73" s="9">
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <f t="shared" si="4"/>
         <v>8545618</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E74" s="12">
         <v>4611815</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F74" s="12">
         <v>3933803</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1">
-      <c r="B74" s="13">
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="13">
         <v>2019</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C75" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D75" s="15">
         <f t="shared" si="4"/>
         <v>8005724</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E75" s="16">
         <v>4617022</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F75" s="16">
         <v>3388702</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1">
-      <c r="B75" s="9">
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <f t="shared" si="4"/>
         <v>7233383</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E76" s="12">
         <v>4187402</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F76" s="12">
         <v>3045981</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1">
-      <c r="B76" s="13">
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="13">
         <v>2019</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C77" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D77" s="15">
         <f t="shared" si="4"/>
         <v>8708818</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E77" s="16">
         <v>4765181</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F77" s="16">
         <v>3943637</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1">
-      <c r="B77" s="9">
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="9">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <f t="shared" si="4"/>
         <v>9445888</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E78" s="12">
         <v>5005061</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F78" s="12">
         <v>4440827</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1">
-      <c r="B78" s="13">
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="13">
         <v>2019</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C79" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D79" s="15">
         <f t="shared" si="4"/>
         <v>8525678</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E79" s="16">
         <v>4555762</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F79" s="16">
         <v>3969916</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1">
-      <c r="B79" s="9">
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="9">
         <v>2019</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <f t="shared" si="4"/>
         <v>8482898</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E80" s="12">
         <v>4704389</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F80" s="12">
         <v>3778509</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1">
-      <c r="B80" s="13">
+    <row r="81" spans="2:6" hidden="1">
+      <c r="B81" s="13">
         <v>2019</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D81" s="15">
         <f t="shared" si="4"/>
         <v>8548334</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E81" s="16">
         <v>4438332</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F81" s="16">
         <v>4110002</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1">
-      <c r="B81" s="9">
+    <row r="82" spans="2:6" hidden="1">
+      <c r="B82" s="9">
         <v>2019</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <f t="shared" si="4"/>
         <v>8887698</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E82" s="12">
         <v>4310865</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F82" s="12">
         <v>4576833</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1">
-      <c r="B82" s="13">
+    <row r="83" spans="2:6" hidden="1">
+      <c r="B83" s="13">
         <v>2019</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C83" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D83" s="15">
         <f t="shared" si="4"/>
         <v>7407471</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E83" s="16">
         <v>3590917</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F83" s="16">
         <v>3816554</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1">
-      <c r="B83" s="17">
+    <row r="84" spans="2:6" hidden="1">
+      <c r="B84" s="17">
         <v>2019</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C84" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="19">
-        <f t="shared" ref="D83:D95" si="5">SUM(E83:F83)</f>
+      <c r="D84" s="19">
+        <f t="shared" ref="D84:D96" si="5">SUM(E84:F84)</f>
         <v>8273412</v>
       </c>
-      <c r="E83" s="20">
+      <c r="E84" s="20">
         <v>3989338</v>
       </c>
-      <c r="F83" s="20">
+      <c r="F84" s="20">
         <v>4284074</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1">
-      <c r="B84" s="14">
+    <row r="85" spans="2:6" hidden="1">
+      <c r="B85" s="14">
         <v>2018</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C85" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D85" s="15">
         <f t="shared" si="5"/>
         <v>8744817</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E85" s="16">
         <v>4400768</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F85" s="16">
         <v>4344049</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1">
-      <c r="B85" s="10">
+    <row r="86" spans="2:6" hidden="1">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <f t="shared" si="5"/>
         <v>8065105</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E86" s="12">
         <v>4287344</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F86" s="12">
         <v>3777761</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1">
-      <c r="B86" s="14">
+    <row r="87" spans="2:6" hidden="1">
+      <c r="B87" s="14">
         <v>2018</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C87" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D87" s="15">
         <f t="shared" si="5"/>
         <v>7563067</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E87" s="16">
         <v>4246079</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F87" s="16">
         <v>3316988</v>
       </c>
     </row>
-    <row r="87" spans="2:6" hidden="1">
-      <c r="B87" s="10">
+    <row r="88" spans="2:6" hidden="1">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <f t="shared" si="5"/>
         <v>6852045</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E88" s="12">
         <v>3900894</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F88" s="12">
         <v>2951151</v>
       </c>
     </row>
-    <row r="88" spans="2:6" hidden="1">
-      <c r="B88" s="14">
+    <row r="89" spans="2:6" hidden="1">
+      <c r="B89" s="14">
         <v>2018</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C89" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D89" s="15">
         <f t="shared" si="5"/>
         <v>8297341</v>
       </c>
-      <c r="E88" s="16">
+      <c r="E89" s="16">
         <v>4416844</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F89" s="16">
         <v>3880497</v>
       </c>
     </row>
-    <row r="89" spans="2:6" hidden="1">
-      <c r="B89" s="10">
+    <row r="90" spans="2:6" hidden="1">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <f t="shared" si="5"/>
         <v>9056178</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E90" s="12">
         <v>4689606</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F90" s="12">
         <v>4366572</v>
       </c>
     </row>
-    <row r="90" spans="2:6" hidden="1">
-      <c r="B90" s="14">
+    <row r="91" spans="2:6" hidden="1">
+      <c r="B91" s="14">
         <v>2018</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C91" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D91" s="15">
         <f t="shared" si="5"/>
         <v>8006308</v>
       </c>
-      <c r="E90" s="16">
+      <c r="E91" s="16">
         <v>4087227</v>
       </c>
-      <c r="F90" s="16">
+      <c r="F91" s="16">
         <v>3919081</v>
       </c>
     </row>
-    <row r="91" spans="2:6" hidden="1">
-      <c r="B91" s="10">
+    <row r="92" spans="2:6" hidden="1">
+      <c r="B92" s="10">
         <v>2018</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D92" s="11">
         <f t="shared" si="5"/>
         <v>7817504</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E92" s="12">
         <v>4163127</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F92" s="12">
         <v>3654377</v>
       </c>
     </row>
-    <row r="92" spans="2:6" hidden="1">
-      <c r="B92" s="14">
+    <row r="93" spans="2:6" hidden="1">
+      <c r="B93" s="14">
         <v>2018</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C93" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="15">
+      <c r="D93" s="15">
         <f t="shared" si="5"/>
         <v>8098666</v>
       </c>
-      <c r="E92" s="16">
+      <c r="E93" s="16">
         <v>4096821</v>
       </c>
-      <c r="F92" s="16">
+      <c r="F93" s="16">
         <v>4001845</v>
       </c>
     </row>
-    <row r="93" spans="2:6" hidden="1">
-      <c r="B93" s="10">
+    <row r="94" spans="2:6" hidden="1">
+      <c r="B94" s="10">
         <v>2018</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C94" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D94" s="11">
         <f t="shared" si="5"/>
         <v>8610022</v>
       </c>
-      <c r="E93" s="12">
+      <c r="E94" s="12">
         <v>4048811</v>
       </c>
-      <c r="F93" s="12">
+      <c r="F94" s="12">
         <v>4561211</v>
       </c>
     </row>
-    <row r="94" spans="2:6" hidden="1">
-      <c r="B94" s="14">
+    <row r="95" spans="2:6" hidden="1">
+      <c r="B95" s="14">
         <v>2018</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C95" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="15">
+      <c r="D95" s="15">
         <f t="shared" si="5"/>
         <v>7192032</v>
       </c>
-      <c r="E94" s="16">
+      <c r="E95" s="16">
         <v>3422954</v>
       </c>
-      <c r="F94" s="16">
+      <c r="F95" s="16">
         <v>3769078</v>
       </c>
     </row>
-    <row r="95" spans="2:6" hidden="1">
-      <c r="B95" s="10">
+    <row r="96" spans="2:6" hidden="1">
+      <c r="B96" s="10">
         <v>2018</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C96" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D96" s="11">
         <f t="shared" si="5"/>
         <v>8102943</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E96" s="12">
         <v>3774420</v>
       </c>
-      <c r="F95" s="12">
+      <c r="F96" s="12">
         <v>4328523</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6">
-      <c r="B96" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="97" spans="2:6">
       <c r="B97" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:6">
-      <c r="F98" s="26"/>
+    <row r="99" spans="2:6">
+      <c r="F99" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pasajeros_Total_N_Aero.xlsx
+++ b/Pasajeros_Total_N_Aero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1056377-6D52-485B-88C5-C8F059491B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADC8A76-8C2F-42E2-B113-1E22C44C702E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="21">
   <si>
     <t>Internacional</t>
   </si>
@@ -98,7 +98,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F96" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B5:F96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:F97" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B5:F97" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -792,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:H99"/>
+  <dimension ref="B2:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -846,1670 +846,1688 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="9">
+      <c r="B6" s="14">
         <v>2025</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15">
+        <f>SUM(E6:F6)</f>
+        <v>10204877</v>
+      </c>
+      <c r="E6" s="16">
+        <v>5666674</v>
+      </c>
+      <c r="F6" s="16">
+        <v>4538203</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11">
-        <f>SUM(E6:F6)</f>
-        <v>10985625</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D7" s="11">
+        <f>SUM(E7:F7)</f>
+        <v>10984638</v>
+      </c>
+      <c r="E7" s="12">
         <v>5763963</v>
       </c>
-      <c r="F6" s="12">
-        <v>5221662</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="14">
+      <c r="F7" s="12">
+        <v>5220675</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="14">
         <v>2025</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15">
-        <f>SUM(E7:F7)</f>
+      <c r="D8" s="15">
+        <f>SUM(E8:F8)</f>
         <v>9798304</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E8" s="16">
         <v>5145539</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F8" s="16">
         <v>4652765</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="9">
+    <row r="9" spans="2:6">
+      <c r="B9" s="9">
         <v>2025</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="11">
-        <f>SUM(E8:F8)</f>
+      <c r="D9" s="11">
+        <f>SUM(E9:F9)</f>
         <v>9794352</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E9" s="12">
         <v>5344434</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F9" s="12">
         <v>4449918</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="14">
+    <row r="10" spans="2:6">
+      <c r="B10" s="14">
         <v>2025</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="15">
-        <f t="shared" ref="D9:D14" si="0">SUM(E9:F9)</f>
+      <c r="D10" s="15">
+        <f t="shared" ref="D10:D15" si="0">SUM(E10:F10)</f>
         <v>10497869</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E10" s="16">
         <v>5436631</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F10" s="16">
         <v>5061238</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="9">
+    <row r="11" spans="2:6">
+      <c r="B11" s="9">
         <v>2025</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>11003838</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="12">
         <v>5244268</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F11" s="12">
         <v>5759570</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="14">
+    <row r="12" spans="2:6">
+      <c r="B12" s="14">
         <v>2025</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D12" s="15">
         <f t="shared" si="0"/>
         <v>9365203</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E12" s="16">
         <v>4481168</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F12" s="16">
         <v>4884035</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="17">
+    <row r="13" spans="2:6">
+      <c r="B13" s="17">
         <v>2025</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D13" s="19">
         <f t="shared" si="0"/>
         <v>10721774</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E13" s="20">
         <v>5073614</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F13" s="20">
         <v>5648160</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="13">
+    <row r="14" spans="2:6">
+      <c r="B14" s="13">
         <v>2024</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D14" s="15">
         <f t="shared" si="0"/>
         <v>11236088</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E14" s="16">
         <v>5467889</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F14" s="16">
         <v>5768199</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="9">
+    <row r="15" spans="2:6">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <f t="shared" si="0"/>
         <v>10118494</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="12">
         <v>5251682</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="12">
         <v>4866812</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="13">
+    <row r="16" spans="2:6">
+      <c r="B16" s="13">
         <v>2024</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="15">
-        <f t="shared" ref="D15" si="1">SUM(E15:F15)</f>
+      <c r="D16" s="15">
+        <f t="shared" ref="D16" si="1">SUM(E16:F16)</f>
         <v>9362533</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E16" s="16">
         <v>5190073</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F16" s="16">
         <v>4172460</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="9">
+    <row r="17" spans="2:8">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="11">
-        <f>SUM(E16:F16)</f>
+      <c r="D17" s="11">
+        <f>SUM(E17:F17)</f>
         <v>8544407</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="12">
         <v>4936321</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F17" s="12">
         <v>3608086</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="13">
+    <row r="18" spans="2:8">
+      <c r="B18" s="13">
         <v>2024</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="15">
-        <f t="shared" ref="D17:D51" si="2">SUM(E17:F17)</f>
+      <c r="D18" s="15">
+        <f t="shared" ref="D18:D52" si="2">SUM(E18:F18)</f>
         <v>10078221</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E18" s="16">
         <v>5591895</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F18" s="16">
         <v>4486326</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="9">
+    <row r="19" spans="2:8">
+      <c r="B19" s="9">
         <v>2024</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="11">
-        <f t="shared" ref="D18:D20" si="3">SUM(E18:F18)</f>
+      <c r="D19" s="11">
+        <f t="shared" ref="D19:D21" si="3">SUM(E19:F19)</f>
         <v>10790573</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="12">
         <v>5690114</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F19" s="12">
         <v>5100459</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="13">
+    <row r="20" spans="2:8">
+      <c r="B20" s="13">
         <v>2024</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D20" s="15">
         <f t="shared" si="3"/>
         <v>9835006</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E20" s="16">
         <v>5133415</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F20" s="16">
         <v>4701591</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="9">
+    <row r="21" spans="2:8">
+      <c r="B21" s="9">
         <v>2024</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <f t="shared" si="3"/>
         <v>9758066</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="12">
         <v>5234844</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F21" s="12">
         <v>4523222</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="13">
+    <row r="22" spans="2:8">
+      <c r="B22" s="13">
         <v>2024</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D22" s="15">
         <f t="shared" si="2"/>
         <v>9750424</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E22" s="16">
         <v>4979579</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F22" s="16">
         <v>4770845</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="9">
+    <row r="23" spans="2:8">
+      <c r="B23" s="9">
         <v>2024</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <f t="shared" si="2"/>
         <v>10540480</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="12">
         <v>4861359</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F23" s="12">
         <v>5679121</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="13">
+    <row r="24" spans="2:8">
+      <c r="B24" s="13">
         <v>2024</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D24" s="15">
         <f t="shared" si="2"/>
         <v>9335418</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E24" s="16">
         <v>4389622</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F24" s="16">
         <v>4945796</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="17">
+    <row r="25" spans="2:8">
+      <c r="B25" s="17">
         <v>2024</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C25" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D25" s="19">
         <f t="shared" si="2"/>
         <v>10157525</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E25" s="20">
         <v>4807023</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F25" s="20">
         <v>5350502</v>
       </c>
     </row>
-    <row r="25" spans="2:8" hidden="1">
-      <c r="B25" s="21">
+    <row r="26" spans="2:8" hidden="1">
+      <c r="B26" s="21">
         <v>2023</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C26" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D26" s="23">
         <f t="shared" si="2"/>
         <v>10829188</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E26" s="24">
         <v>5415680</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F26" s="25">
         <v>5413508</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="3">
         <v>5413508</v>
       </c>
     </row>
-    <row r="26" spans="2:8" hidden="1">
-      <c r="B26" s="9">
+    <row r="27" spans="2:8" hidden="1">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <f t="shared" si="2"/>
         <v>9838837</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="12">
         <v>5273853</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F27" s="12">
         <v>4564984</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H27" s="3">
         <v>4564984</v>
       </c>
     </row>
-    <row r="27" spans="2:8" hidden="1">
-      <c r="B27" s="13">
+    <row r="28" spans="2:8" hidden="1">
+      <c r="B28" s="13">
         <v>2023</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D28" s="15">
         <f t="shared" si="2"/>
         <v>9482301</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E28" s="16">
         <v>5416944</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F28" s="16">
         <v>4065357</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H28" s="3">
         <v>4065357</v>
       </c>
     </row>
-    <row r="28" spans="2:8" hidden="1">
-      <c r="B28" s="9">
+    <row r="29" spans="2:8" hidden="1">
+      <c r="B29" s="9">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <f t="shared" si="2"/>
         <v>8633272</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="12">
         <v>5067159</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F29" s="12">
         <v>3566113</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H29" s="3">
         <v>3566113</v>
       </c>
     </row>
-    <row r="29" spans="2:8" hidden="1">
-      <c r="B29" s="13">
+    <row r="30" spans="2:8" hidden="1">
+      <c r="B30" s="13">
         <v>2023</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D30" s="15">
         <f t="shared" si="2"/>
         <v>10433744</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E30" s="16">
         <v>5976700</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F30" s="16">
         <v>4457044</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H30" s="3">
         <v>4457044</v>
       </c>
     </row>
-    <row r="30" spans="2:8" hidden="1">
-      <c r="B30" s="9">
+    <row r="31" spans="2:8" hidden="1">
+      <c r="B31" s="9">
         <v>2023</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <f t="shared" si="2"/>
         <v>10994672</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E31" s="12">
         <v>5970043</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F31" s="12">
         <v>5024629</v>
       </c>
     </row>
-    <row r="31" spans="2:8" hidden="1">
-      <c r="B31" s="13">
+    <row r="32" spans="2:8" hidden="1">
+      <c r="B32" s="13">
         <v>2023</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D32" s="15">
         <f t="shared" si="2"/>
         <v>9688779</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E32" s="16">
         <v>5246474</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F32" s="16">
         <v>4442305</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1">
-      <c r="B32" s="9">
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="9">
         <v>2023</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <f t="shared" si="2"/>
         <v>9507284</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E33" s="12">
         <v>5270951</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F33" s="12">
         <v>4236333</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1">
-      <c r="B33" s="13">
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="13">
         <v>2023</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D34" s="15">
         <f t="shared" si="2"/>
         <v>9919095</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E34" s="16">
         <v>5341258</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F34" s="16">
         <v>4577837</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="9">
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="9">
         <v>2023</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <f t="shared" si="2"/>
         <v>10259682</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E35" s="12">
         <v>5215128</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F35" s="12">
         <v>5044554</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1">
-      <c r="B35" s="13">
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="13">
         <v>2023</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D36" s="15">
         <f t="shared" si="2"/>
         <v>8840768</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E36" s="16">
         <v>4453469</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F36" s="16">
         <v>4387299</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1">
-      <c r="B36" s="17">
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="17">
         <v>2023</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C37" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D37" s="19">
         <f t="shared" si="2"/>
         <v>9936455</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E37" s="20">
         <v>4978979</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F37" s="20">
         <v>4957476</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1">
-      <c r="B37" s="21">
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="21">
         <v>2022</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C38" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D38" s="23">
         <f t="shared" si="2"/>
         <v>10328957</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E38" s="24">
         <v>5458695</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F38" s="24">
         <v>4870262</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1">
-      <c r="B38" s="9">
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <f t="shared" si="2"/>
         <v>9564350</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E39" s="12">
         <v>5216824</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F39" s="12">
         <v>4347526</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1">
-      <c r="B39" s="13">
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="13">
         <v>2022</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D40" s="15">
         <f t="shared" si="2"/>
         <v>9047728</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E40" s="16">
         <v>5177608</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F40" s="16">
         <v>3870120</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1">
-      <c r="B40" s="9">
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <f t="shared" si="2"/>
         <v>8162159</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E41" s="12">
         <v>4687975</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F41" s="12">
         <v>3474184</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1">
-      <c r="B41" s="13">
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42" s="13">
         <v>2022</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D42" s="15">
         <f t="shared" si="2"/>
         <v>9454996</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E42" s="16">
         <v>5202467</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F42" s="16">
         <v>4252529</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1">
-      <c r="B42" s="9">
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43" s="9">
         <v>2022</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <f t="shared" si="2"/>
         <v>10042169</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E43" s="12">
         <v>5313681</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F43" s="12">
         <v>4728488</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1">
-      <c r="B43" s="13">
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="13">
         <v>2022</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D44" s="15">
         <f t="shared" si="2"/>
         <v>8909540</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E44" s="16">
         <v>4660739</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F44" s="16">
         <v>4248801</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1">
-      <c r="B44" s="9">
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="9">
         <v>2022</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <f t="shared" si="2"/>
         <v>8894356</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E45" s="12">
         <v>4864477</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F45" s="12">
         <v>4029879</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1">
-      <c r="B45" s="13">
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="13">
         <v>2022</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D46" s="15">
         <f t="shared" si="2"/>
         <v>8965893</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E46" s="16">
         <v>4744599</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F46" s="16">
         <v>4221294</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1">
-      <c r="B46" s="9">
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="9">
         <v>2022</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <f t="shared" si="2"/>
         <v>8932243</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E47" s="12">
         <v>4477915</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F47" s="12">
         <v>4454328</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1">
-      <c r="B47" s="13">
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="13">
         <v>2022</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D48" s="15">
         <f t="shared" si="2"/>
         <v>7028818</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E48" s="16">
         <v>3568589</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F48" s="16">
         <v>3460229</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1">
-      <c r="B48" s="17">
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="17">
         <v>2022</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C49" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D49" s="19">
         <f t="shared" si="2"/>
         <v>7524409</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E49" s="20">
         <v>3789823</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F49" s="20">
         <v>3734586</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1">
-      <c r="B49" s="21">
+    <row r="50" spans="2:6" hidden="1">
+      <c r="B50" s="21">
         <v>2021</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C50" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D50" s="23">
         <f t="shared" si="2"/>
         <v>8858284</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E50" s="24">
         <v>4685952</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F50" s="24">
         <v>4172332</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1">
-      <c r="B50" s="9">
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <f t="shared" si="2"/>
         <v>8044448</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E51" s="12">
         <v>4338222</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F51" s="12">
         <v>3706226</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1">
-      <c r="B51" s="13">
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="13">
         <v>2021</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D52" s="15">
         <f t="shared" si="2"/>
         <v>7434983</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E52" s="16">
         <v>4148811</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F52" s="16">
         <v>3286172</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1">
-      <c r="B52" s="9">
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="9">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="11">
-        <f t="shared" ref="D52:D83" si="4">SUM(E52:F52)</f>
+      <c r="D53" s="11">
+        <f t="shared" ref="D53:D84" si="4">SUM(E53:F53)</f>
         <v>6335718</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E53" s="12">
         <v>3602892</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F53" s="12">
         <v>2732826</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1">
-      <c r="B53" s="13">
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="13">
         <v>2021</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D54" s="15">
         <f t="shared" si="4"/>
         <v>7407170</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E54" s="16">
         <v>3994397</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F54" s="16">
         <v>3412773</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1">
-      <c r="B54" s="9">
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="9">
         <v>2021</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <f t="shared" si="4"/>
         <v>8256002</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E55" s="12">
         <v>4365429</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F55" s="12">
         <v>3890573</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1">
-      <c r="B55" s="13">
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="13">
         <v>2021</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D56" s="15">
         <f t="shared" si="4"/>
         <v>7317711</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E56" s="16">
         <v>3834253</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F56" s="16">
         <v>3483458</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1">
-      <c r="B56" s="9">
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="9">
         <v>2021</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <f t="shared" si="4"/>
         <v>6934293</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E57" s="12">
         <v>3818846</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F57" s="12">
         <v>3115447</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1">
-      <c r="B57" s="13">
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="13">
         <v>2021</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D58" s="15">
         <f t="shared" si="4"/>
         <v>5986797</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E58" s="16">
         <v>3478623</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F58" s="16">
         <v>2508174</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="9">
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="9">
         <v>2021</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <f t="shared" si="4"/>
         <v>5308998</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E59" s="12">
         <v>3169991</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F59" s="12">
         <v>2139007</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1">
-      <c r="B59" s="13">
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="13">
         <v>2021</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D60" s="15">
         <f t="shared" si="4"/>
         <v>3515246</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E60" s="16">
         <v>2221947</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F60" s="16">
         <v>1293299</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1">
-      <c r="B60" s="17">
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="17">
         <v>2021</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C61" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D61" s="19">
         <f t="shared" si="4"/>
         <v>4603651</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E61" s="20">
         <v>2703105</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F61" s="20">
         <v>1900546</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1">
-      <c r="B61" s="21">
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="21">
         <v>2020</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C62" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="23">
+      <c r="D62" s="23">
         <f t="shared" si="4"/>
         <v>5262897</v>
       </c>
-      <c r="E61" s="24">
+      <c r="E62" s="24">
         <v>3144137</v>
       </c>
-      <c r="F61" s="24">
+      <c r="F62" s="24">
         <v>2118760</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1">
-      <c r="B62" s="9">
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <f t="shared" si="4"/>
         <v>4568948</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E63" s="12">
         <v>2920098</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F63" s="12">
         <v>1648850</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1">
-      <c r="B63" s="13">
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="13">
         <v>2020</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D64" s="15">
         <f t="shared" si="4"/>
         <v>4066515</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E64" s="16">
         <v>2708781</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F64" s="16">
         <v>1357734</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1">
-      <c r="B64" s="9">
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="9">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <f t="shared" si="4"/>
         <v>3283162</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E65" s="12">
         <v>2317729</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F65" s="12">
         <v>965433</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1">
-      <c r="B65" s="13">
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="13">
         <v>2020</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C66" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D66" s="15">
         <f t="shared" si="4"/>
         <v>3035521</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E66" s="16">
         <v>2120271</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F66" s="16">
         <v>915250</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1">
-      <c r="B66" s="9">
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="9">
         <v>2020</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <f t="shared" si="4"/>
         <v>2412156</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E67" s="12">
         <v>1672969</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F67" s="12">
         <v>739187</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1">
-      <c r="B67" s="13">
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="13">
         <v>2020</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C68" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D68" s="15">
         <f t="shared" si="4"/>
         <v>1180756</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E68" s="16">
         <v>886076</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F68" s="16">
         <v>294680</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1">
-      <c r="B68" s="9">
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="9">
         <v>2020</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <f t="shared" si="4"/>
         <v>488531</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E69" s="12">
         <v>385641</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F69" s="12">
         <v>102890</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1">
-      <c r="B69" s="13">
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="13">
         <v>2020</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C70" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D70" s="15">
         <f t="shared" si="4"/>
         <v>509441</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E70" s="16">
         <v>413225</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F70" s="16">
         <v>96216</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="9">
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="9">
         <v>2020</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <f t="shared" si="4"/>
         <v>5886542</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E71" s="12">
         <v>3142005</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F71" s="12">
         <v>2744537</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1">
-      <c r="B71" s="13">
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="13">
         <v>2020</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C72" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D72" s="15">
         <f t="shared" si="4"/>
         <v>8319634</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E72" s="16">
         <v>4091826</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F72" s="16">
         <v>4227808</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1">
-      <c r="B72" s="17">
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="17">
         <v>2020</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C73" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D73" s="19">
         <f t="shared" si="4"/>
         <v>9065514</v>
       </c>
-      <c r="E72" s="20">
+      <c r="E73" s="20">
         <v>4433703</v>
       </c>
-      <c r="F72" s="20">
+      <c r="F73" s="20">
         <v>4631811</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1">
-      <c r="B73" s="21">
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="21">
         <v>2019</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C74" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="23">
+      <c r="D74" s="23">
         <f t="shared" si="4"/>
         <v>9358660</v>
       </c>
-      <c r="E73" s="24">
+      <c r="E74" s="24">
         <v>4755157</v>
       </c>
-      <c r="F73" s="24">
+      <c r="F74" s="24">
         <v>4603503</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1">
-      <c r="B74" s="9">
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <f t="shared" si="4"/>
         <v>8545618</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E75" s="12">
         <v>4611815</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F75" s="12">
         <v>3933803</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1">
-      <c r="B75" s="13">
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="13">
         <v>2019</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C76" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D76" s="15">
         <f t="shared" si="4"/>
         <v>8005724</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E76" s="16">
         <v>4617022</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F76" s="16">
         <v>3388702</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1">
-      <c r="B76" s="9">
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="9">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <f t="shared" si="4"/>
         <v>7233383</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E77" s="12">
         <v>4187402</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F77" s="12">
         <v>3045981</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1">
-      <c r="B77" s="13">
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="13">
         <v>2019</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C78" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D78" s="15">
         <f t="shared" si="4"/>
         <v>8708818</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E78" s="16">
         <v>4765181</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F78" s="16">
         <v>3943637</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1">
-      <c r="B78" s="9">
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="9">
         <v>2019</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <f t="shared" si="4"/>
         <v>9445888</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E79" s="12">
         <v>5005061</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F79" s="12">
         <v>4440827</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1">
-      <c r="B79" s="13">
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="13">
         <v>2019</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D80" s="15">
         <f t="shared" si="4"/>
         <v>8525678</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E80" s="16">
         <v>4555762</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F80" s="16">
         <v>3969916</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1">
-      <c r="B80" s="9">
+    <row r="81" spans="2:6" hidden="1">
+      <c r="B81" s="9">
         <v>2019</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <f t="shared" si="4"/>
         <v>8482898</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E81" s="12">
         <v>4704389</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F81" s="12">
         <v>3778509</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1">
-      <c r="B81" s="13">
+    <row r="82" spans="2:6" hidden="1">
+      <c r="B82" s="13">
         <v>2019</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C82" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D82" s="15">
         <f t="shared" si="4"/>
         <v>8548334</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E82" s="16">
         <v>4438332</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F82" s="16">
         <v>4110002</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1">
-      <c r="B82" s="9">
+    <row r="83" spans="2:6" hidden="1">
+      <c r="B83" s="9">
         <v>2019</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <f t="shared" si="4"/>
         <v>8887698</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E83" s="12">
         <v>4310865</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F83" s="12">
         <v>4576833</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1">
-      <c r="B83" s="13">
+    <row r="84" spans="2:6" hidden="1">
+      <c r="B84" s="13">
         <v>2019</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C84" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D84" s="15">
         <f t="shared" si="4"/>
         <v>7407471</v>
       </c>
-      <c r="E83" s="16">
+      <c r="E84" s="16">
         <v>3590917</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F84" s="16">
         <v>3816554</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1">
-      <c r="B84" s="17">
+    <row r="85" spans="2:6" hidden="1">
+      <c r="B85" s="17">
         <v>2019</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C85" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="19">
-        <f t="shared" ref="D84:D96" si="5">SUM(E84:F84)</f>
+      <c r="D85" s="19">
+        <f t="shared" ref="D85:D97" si="5">SUM(E85:F85)</f>
         <v>8273412</v>
       </c>
-      <c r="E84" s="20">
+      <c r="E85" s="20">
         <v>3989338</v>
       </c>
-      <c r="F84" s="20">
+      <c r="F85" s="20">
         <v>4284074</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1">
-      <c r="B85" s="14">
+    <row r="86" spans="2:6" hidden="1">
+      <c r="B86" s="14">
         <v>2018</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C86" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D86" s="15">
         <f t="shared" si="5"/>
         <v>8744817</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E86" s="16">
         <v>4400768</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F86" s="16">
         <v>4344049</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1">
-      <c r="B86" s="10">
+    <row r="87" spans="2:6" hidden="1">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <f t="shared" si="5"/>
         <v>8065105</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E87" s="12">
         <v>4287344</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F87" s="12">
         <v>3777761</v>
       </c>
     </row>
-    <row r="87" spans="2:6" hidden="1">
-      <c r="B87" s="14">
+    <row r="88" spans="2:6" hidden="1">
+      <c r="B88" s="14">
         <v>2018</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C88" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="15">
+      <c r="D88" s="15">
         <f t="shared" si="5"/>
         <v>7563067</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E88" s="16">
         <v>4246079</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F88" s="16">
         <v>3316988</v>
       </c>
     </row>
-    <row r="88" spans="2:6" hidden="1">
-      <c r="B88" s="10">
+    <row r="89" spans="2:6" hidden="1">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <f t="shared" si="5"/>
         <v>6852045</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E89" s="12">
         <v>3900894</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F89" s="12">
         <v>2951151</v>
       </c>
     </row>
-    <row r="89" spans="2:6" hidden="1">
-      <c r="B89" s="14">
+    <row r="90" spans="2:6" hidden="1">
+      <c r="B90" s="14">
         <v>2018</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C90" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D90" s="15">
         <f t="shared" si="5"/>
         <v>8297341</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E90" s="16">
         <v>4416844</v>
       </c>
-      <c r="F89" s="16">
+      <c r="F90" s="16">
         <v>3880497</v>
       </c>
     </row>
-    <row r="90" spans="2:6" hidden="1">
-      <c r="B90" s="10">
+    <row r="91" spans="2:6" hidden="1">
+      <c r="B91" s="10">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <f t="shared" si="5"/>
         <v>9056178</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E91" s="12">
         <v>4689606</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F91" s="12">
         <v>4366572</v>
       </c>
     </row>
-    <row r="91" spans="2:6" hidden="1">
-      <c r="B91" s="14">
+    <row r="92" spans="2:6" hidden="1">
+      <c r="B92" s="14">
         <v>2018</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C92" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="15">
+      <c r="D92" s="15">
         <f t="shared" si="5"/>
         <v>8006308</v>
       </c>
-      <c r="E91" s="16">
+      <c r="E92" s="16">
         <v>4087227</v>
       </c>
-      <c r="F91" s="16">
+      <c r="F92" s="16">
         <v>3919081</v>
       </c>
     </row>
-    <row r="92" spans="2:6" hidden="1">
-      <c r="B92" s="10">
+    <row r="93" spans="2:6" hidden="1">
+      <c r="B93" s="10">
         <v>2018</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D93" s="11">
         <f t="shared" si="5"/>
         <v>7817504</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E93" s="12">
         <v>4163127</v>
       </c>
-      <c r="F92" s="12">
+      <c r="F93" s="12">
         <v>3654377</v>
       </c>
     </row>
-    <row r="93" spans="2:6" hidden="1">
-      <c r="B93" s="14">
+    <row r="94" spans="2:6" hidden="1">
+      <c r="B94" s="14">
         <v>2018</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C94" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="15">
+      <c r="D94" s="15">
         <f t="shared" si="5"/>
         <v>8098666</v>
       </c>
-      <c r="E93" s="16">
+      <c r="E94" s="16">
         <v>4096821</v>
       </c>
-      <c r="F93" s="16">
+      <c r="F94" s="16">
         <v>4001845</v>
       </c>
     </row>
-    <row r="94" spans="2:6" hidden="1">
-      <c r="B94" s="10">
+    <row r="95" spans="2:6" hidden="1">
+      <c r="B95" s="10">
         <v>2018</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D95" s="11">
         <f t="shared" si="5"/>
         <v>8610022</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E95" s="12">
         <v>4048811</v>
       </c>
-      <c r="F94" s="12">
+      <c r="F95" s="12">
         <v>4561211</v>
       </c>
     </row>
-    <row r="95" spans="2:6" hidden="1">
-      <c r="B95" s="14">
+    <row r="96" spans="2:6" hidden="1">
+      <c r="B96" s="14">
         <v>2018</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C96" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="15">
+      <c r="D96" s="15">
         <f t="shared" si="5"/>
         <v>7192032</v>
       </c>
-      <c r="E95" s="16">
+      <c r="E96" s="16">
         <v>3422954</v>
       </c>
-      <c r="F95" s="16">
+      <c r="F96" s="16">
         <v>3769078</v>
       </c>
     </row>
-    <row r="96" spans="2:6" hidden="1">
-      <c r="B96" s="10">
+    <row r="97" spans="2:6" hidden="1">
+      <c r="B97" s="10">
         <v>2018</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C97" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D97" s="11">
         <f t="shared" si="5"/>
         <v>8102943</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E97" s="12">
         <v>3774420</v>
       </c>
-      <c r="F96" s="12">
+      <c r="F97" s="12">
         <v>4328523</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6">
-      <c r="B97" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:6">
-      <c r="F99" s="26"/>
+    <row r="100" spans="2:6">
+      <c r="F100" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
